--- a/template.xlsx
+++ b/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vignevin-my.sharepoint.com/personal/xavier_delpuech_vignevin_com/Documents/AgricultureNumerique/ProjetsEnCours/VITISDATACROP/05_TRAVAIL_EN_COURS/WP1.1 Harmonisation/Expérimentation/vitisdatacrop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_F009E6A6AADEDA692B81E483D4FD725198789364" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_F009E6A6AADEDA692B81E483D4FD725198789364" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DBE6495-9E60-4EC3-8265-82FEE47956C8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="itk" sheetId="4" r:id="rId4"/>
     <sheet name="sol" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -905,9 +905,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="109.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1049,10 +1053,15 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" customWidth="1"/>
+    <col min="3" max="3" width="70.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1197,7 +1206,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1261,6 +1272,11 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/template.xlsx
+++ b/template.xlsx
@@ -42,16 +42,16 @@
     <definedName name="institute_name">'experimentation'!$H$2:$H$100</definedName>
     <definedName name="design_desc">'design'!$A$2:$A$100</definedName>
     <definedName name="design_plan">'design'!$B$2:$B$100</definedName>
-    <definedName name="number_of_replicates">'design'!$C$2:$C$100</definedName>
-    <definedName name="design_size">'design'!$D$2:$D$100</definedName>
-    <definedName name="design_unit_desc">'design'!$E$2:$E$100</definedName>
-    <definedName name="design_hete">'design'!$F$2:$F$100</definedName>
+    <definedName name="design_size">'design'!$C$2:$C$100</definedName>
+    <definedName name="design_unit_desc">'design'!$D$2:$D$100</definedName>
+    <definedName name="design_hete">'design'!$E$2:$E$100</definedName>
     <definedName name="factor_value">'factor'!$A$2:$A$100</definedName>
     <definedName name="factor_value_desc">'factor'!$B$2:$B$100</definedName>
     <definedName name="main_experiment_factor">'factor'!$C$2:$C$100</definedName>
     <definedName name="treatment_name">'treatment'!$A$2:$A$100</definedName>
     <definedName name="experimental_factor_comb">'treatment'!$B$2:$B$100</definedName>
-    <definedName name="tr_notes">'treatment'!$C$2:$C$100</definedName>
+    <definedName name="number_of_replicates">'treatment'!$C$2:$C$100</definedName>
+    <definedName name="tr_notes">'treatment'!$D$2:$D$100</definedName>
     <definedName name="variable_name">'data_dictionnary'!$A$2:$A$100</definedName>
     <definedName name="var_desc">'data_dictionnary'!$B$2:$B$100</definedName>
     <definedName name="data_type">'data_dictionnary'!$C$2:$C$100</definedName>
@@ -62,31 +62,32 @@
     <definedName name="var_ref_name">'data_dictionnary'!$H$2:$H$100</definedName>
     <definedName name="var_ref_conv">'data_dictionnary'!$I$2:$I$100</definedName>
     <definedName name="field_id">'field'!$A$2:$A$100</definedName>
-    <definedName name="field_notes">'field'!$B$2:$B$100</definedName>
-    <definedName name="field_commune">'field'!$C$2:$C$100</definedName>
-    <definedName name="field_insee_commune">'field'!$D$2:$D$100</definedName>
-    <definedName name="field_cadas">'field'!$E$2:$E$100</definedName>
-    <definedName name="field_bassin">'field'!$F$2:$F$100</definedName>
-    <definedName name="field_latitude">'field'!$G$2:$G$100</definedName>
-    <definedName name="field_longitude">'field'!$H$2:$H$100</definedName>
-    <definedName name="field_geometry">'field'!$I$2:$I$100</definedName>
-    <definedName name="planting_year">'field'!$J$2:$J$100</definedName>
-    <definedName name="field_previous_crop">'field'!$K$2:$K$100</definedName>
-    <definedName name="field_area">'field'!$L$2:$L$100</definedName>
-    <definedName name="cultivar_name">'field'!$M$2:$M$100</definedName>
-    <definedName name="field_rootstock">'field'!$N$2:$N$100</definedName>
-    <definedName name="row_spacing">'field'!$O$2:$O$100</definedName>
-    <definedName name="plant_spacing">'field'!$P$2:$P$100</definedName>
-    <definedName name="field_density">'field'!$Q$2:$Q$100</definedName>
-    <definedName name="field_pruning">'field'!$R$2:$R$100</definedName>
-    <definedName name="field_training">'field'!$S$2:$S$100</definedName>
-    <definedName name="field_irrigation_system">'field'!$T$2:$T$100</definedName>
-    <definedName name="field_prod_mode">'field'!$U$2:$U$100</definedName>
-    <definedName name="field_product_type">'field'!$V$2:$V$100</definedName>
-    <definedName name="field_target_yield">'field'!$W$2:$W$100</definedName>
-    <definedName name="field_elevation">'field'!$X$2:$X$100</definedName>
-    <definedName name="row_direction">'field'!$Y$2:$Y$100</definedName>
-    <definedName name="field_slope">'field'!$Z$2:$Z$100</definedName>
+    <definedName name="field_name">'field'!$B$2:$B$100</definedName>
+    <definedName name="field_notes">'field'!$C$2:$C$100</definedName>
+    <definedName name="field_commune">'field'!$D$2:$D$100</definedName>
+    <definedName name="field_insee_commune">'field'!$E$2:$E$100</definedName>
+    <definedName name="field_cadas">'field'!$F$2:$F$100</definedName>
+    <definedName name="field_bassin">'field'!$G$2:$G$100</definedName>
+    <definedName name="field_latitude">'field'!$H$2:$H$100</definedName>
+    <definedName name="field_longitude">'field'!$I$2:$I$100</definedName>
+    <definedName name="field_geometry">'field'!$J$2:$J$100</definedName>
+    <definedName name="planting_year">'field'!$K$2:$K$100</definedName>
+    <definedName name="field_previous_crop">'field'!$L$2:$L$100</definedName>
+    <definedName name="field_area">'field'!$M$2:$M$100</definedName>
+    <definedName name="cultivar_name">'field'!$N$2:$N$100</definedName>
+    <definedName name="field_rootstock">'field'!$O$2:$O$100</definedName>
+    <definedName name="row_spacing">'field'!$P$2:$P$100</definedName>
+    <definedName name="plant_spacing">'field'!$Q$2:$Q$100</definedName>
+    <definedName name="field_density">'field'!$R$2:$R$100</definedName>
+    <definedName name="field_pruning">'field'!$S$2:$S$100</definedName>
+    <definedName name="field_training">'field'!$T$2:$T$100</definedName>
+    <definedName name="field_irrigation_system">'field'!$U$2:$U$100</definedName>
+    <definedName name="field_prod_mode">'field'!$V$2:$V$100</definedName>
+    <definedName name="field_product_type">'field'!$W$2:$W$100</definedName>
+    <definedName name="field_target_yield">'field'!$X$2:$X$100</definedName>
+    <definedName name="field_elevation">'field'!$Y$2:$Y$100</definedName>
+    <definedName name="row_direction">'field'!$Z$2:$Z$100</definedName>
+    <definedName name="field_slope">'field'!$AA$2:$AA$100</definedName>
     <definedName name="est_name">'estate'!$A$2:$A$100</definedName>
     <definedName name="est_adress">'estate'!$B$2:$B$100</definedName>
     <definedName name="est_cvi">'estate'!$C$2:$C$100</definedName>
@@ -817,7 +818,7 @@
             <color rgb="FF000000"/>
             <name val="Tahoma"/>
           </rPr>
-          <t xml:space="preserve">Nombre de répétitions par traitement expérimental (combinaison de facteurs appliqués)</t>
+          <t xml:space="preserve">Taille en m² des unités expérimentales</t>
         </r>
       </text>
     </comment>
@@ -829,23 +830,11 @@
             <color rgb="FF000000"/>
             <name val="Tahoma"/>
           </rPr>
-          <t xml:space="preserve">Taille en m² des unités expérimentales</t>
+          <t xml:space="preserve">Brève description des unités d'observations</t>
         </r>
       </text>
     </comment>
     <comment ref="E1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <name val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">Brève description des unités d'observations</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -921,7 +910,7 @@
             <color rgb="FF000000"/>
             <name val="Tahoma"/>
           </rPr>
-          <t xml:space="preserve">Nom ou code du traitement</t>
+          <t xml:space="preserve">Nom ou code du traitement expérimental</t>
         </r>
       </text>
     </comment>
@@ -933,7 +922,7 @@
             <color rgb="FF000000"/>
             <name val="Tahoma"/>
           </rPr>
-          <t xml:space="preserve">Liste des niveaux de facteurs du traitement (séparés par ";")</t>
+          <t xml:space="preserve">Combinaison des niveaux de facteurs appliqués (séparés par ";").</t>
         </r>
       </text>
     </comment>
@@ -945,7 +934,19 @@
             <color rgb="FF000000"/>
             <name val="Tahoma"/>
           </rPr>
-          <t xml:space="preserve">Commentaires sur le traitement</t>
+          <t xml:space="preserve">Nombre de répétitions pour le traitement expérimental</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <name val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Commentaires sur le traitement expérimental</t>
         </r>
       </text>
     </comment>
@@ -1097,11 +1098,23 @@
             <color rgb="FF000000"/>
             <name val="Tahoma"/>
           </rPr>
+          <t xml:space="preserve">Nom (ou code) de la parcelle sur laquelle l’expérimentation a lieu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <name val="Tahoma"/>
+          </rPr>
           <t xml:space="preserve">Brève description ou commentaire sur la parcelle expérimentale</t>
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1113,7 +1126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1125,7 +1138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1137,7 +1150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1149,7 +1162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1161,7 +1174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1173,7 +1186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1185,7 +1198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1197,7 +1210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1209,7 +1222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1221,7 +1234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1233,7 +1246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1245,7 +1258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1257,7 +1270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1269,7 +1282,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1281,7 +1294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1293,7 +1306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1305,7 +1318,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1317,7 +1330,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1329,7 +1342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1341,7 +1354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1353,7 +1366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1365,7 +1378,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1377,7 +1390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1394,7 +1407,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t xml:space="preserve">Contact nom</t>
   </si>
@@ -1474,72 +1487,72 @@
     <t xml:space="preserve">Type de plan d'expérience</t>
   </si>
   <si>
+    <t xml:space="preserve">Taille des unités expérimentales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description des unités d'observations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hétérogénéité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">design_plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Randomisé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carré latin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bloc randomisé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blocs incomplets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modalité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description de la modalité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catégorie de facteur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">main_experiment_factor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matériel végétal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">protection phytosanitaire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entretien du sol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mode de conduite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">système</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fertilisant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">irrigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traitement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combinaison de niveaux de facteurs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nombre de répétition</t>
   </si>
   <si>
-    <t xml:space="preserve">Taille des unités expérimentales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description des unités d'observations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hétérogénéité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">design_plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Randomisé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carré latin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bloc randomisé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blocs incomplets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modalité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description de la modalité</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catégorie de facteur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">main_experiment_factor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matériel végétal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">protection phytosanitaire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entretien du sol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mode de conduite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">système</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fertilisant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">irrigation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traitement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Combinaison de niveaux de facteurs</t>
-  </si>
-  <si>
     <t xml:space="preserve">Commentaires</t>
   </si>
   <si>
@@ -1583,6 +1596,9 @@
   </si>
   <si>
     <t xml:space="preserve">Identifiant de la parcelle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nom de la parcelle</t>
   </si>
   <si>
     <t xml:space="preserve">Description de la parcelle</t>
@@ -2005,35 +2021,36 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:Z2" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:Z2"/>
-  <tableColumns count="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table10" displayName="Table10" ref="A1:AA2" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:AA2"/>
+  <tableColumns count="27">
     <tableColumn id="1" name="Identifiant de la parcelle"/>
-    <tableColumn id="2" name="Description de la parcelle"/>
-    <tableColumn id="3" name="Commune"/>
-    <tableColumn id="4" name="Code INSEE commune"/>
-    <tableColumn id="5" name="Référence cadastrale"/>
-    <tableColumn id="6" name="Bassin viticole"/>
-    <tableColumn id="7" name="Latitude"/>
-    <tableColumn id="8" name="Longitude"/>
-    <tableColumn id="9" name="Géométrie"/>
-    <tableColumn id="10" name="Année de plantation"/>
-    <tableColumn id="11" name="Précédent cultural"/>
-    <tableColumn id="12" name="Surface (ha)"/>
-    <tableColumn id="13" name="Greffon"/>
-    <tableColumn id="14" name="Porte-greffe"/>
-    <tableColumn id="15" name="Ecartement entre rangs"/>
-    <tableColumn id="16" name="Ecartement entre ceps"/>
-    <tableColumn id="17" name="Densité de plantation"/>
-    <tableColumn id="18" name="Mode de taille"/>
-    <tableColumn id="19" name="Mode de conduite"/>
-    <tableColumn id="20" name="système d'irrigation"/>
-    <tableColumn id="21" name="Mode de production"/>
-    <tableColumn id="22" name="Type de produit"/>
-    <tableColumn id="23" name="Objectif de rendement"/>
-    <tableColumn id="24" name="Altitude"/>
-    <tableColumn id="25" name="Orientation des rangs"/>
-    <tableColumn id="26" name="Pente"/>
+    <tableColumn id="2" name="Nom de la parcelle"/>
+    <tableColumn id="3" name="Description de la parcelle"/>
+    <tableColumn id="4" name="Commune"/>
+    <tableColumn id="5" name="Code INSEE commune"/>
+    <tableColumn id="6" name="Référence cadastrale"/>
+    <tableColumn id="7" name="Bassin viticole"/>
+    <tableColumn id="8" name="Latitude"/>
+    <tableColumn id="9" name="Longitude"/>
+    <tableColumn id="10" name="Géométrie"/>
+    <tableColumn id="11" name="Année de plantation"/>
+    <tableColumn id="12" name="Précédent cultural"/>
+    <tableColumn id="13" name="Surface (ha)"/>
+    <tableColumn id="14" name="Greffon"/>
+    <tableColumn id="15" name="Porte-greffe"/>
+    <tableColumn id="16" name="Ecartement entre rangs"/>
+    <tableColumn id="17" name="Ecartement entre ceps"/>
+    <tableColumn id="18" name="Densité de plantation"/>
+    <tableColumn id="19" name="Mode de taille"/>
+    <tableColumn id="20" name="Mode de conduite"/>
+    <tableColumn id="21" name="système d'irrigation"/>
+    <tableColumn id="22" name="Mode de production"/>
+    <tableColumn id="23" name="Type de produit"/>
+    <tableColumn id="24" name="Objectif de rendement"/>
+    <tableColumn id="25" name="Altitude"/>
+    <tableColumn id="26" name="Orientation des rangs"/>
+    <tableColumn id="27" name="Pente"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2152,15 +2169,14 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:F2" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:F2"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A1:E2" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:E2"/>
+  <tableColumns count="5">
     <tableColumn id="1" name="Description du plan d'expérience"/>
     <tableColumn id="2" name="Type de plan d'expérience"/>
-    <tableColumn id="3" name="Nombre de répétition"/>
-    <tableColumn id="4" name="Taille des unités expérimentales"/>
-    <tableColumn id="5" name="Description des unités d'observations"/>
-    <tableColumn id="6" name="Hétérogénéité"/>
+    <tableColumn id="3" name="Taille des unités expérimentales"/>
+    <tableColumn id="4" name="Description des unités d'observations"/>
+    <tableColumn id="5" name="Hétérogénéité"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2179,12 +2195,13 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:C2" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:C2"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:D2" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:D2"/>
+  <tableColumns count="4">
     <tableColumn id="1" name="Traitement"/>
     <tableColumn id="2" name="Combinaison de niveaux de facteurs"/>
-    <tableColumn id="3" name="Commentaires"/>
+    <tableColumn id="3" name="Nombre de répétition"/>
+    <tableColumn id="4" name="Commentaires"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2498,46 +2515,46 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
         <v>58</v>
       </c>
       <c r="E1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2">
@@ -2545,46 +2562,46 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
         <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="N2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3">
@@ -2592,46 +2609,46 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="I3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4">
@@ -2639,46 +2656,46 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M4" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5">
@@ -2686,31 +2703,31 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="J5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6">
@@ -2718,95 +2735,95 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L6" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7">
       <c r="C7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8">
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2834,25 +2851,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2">
@@ -2914,31 +2931,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2">
@@ -3026,37 +3043,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2">
@@ -3137,10 +3154,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
@@ -3406,10 +3423,9 @@
   <cols>
     <col min="1" max="1" width="38.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="31.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="22.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="34.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="43.71" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="18.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="34.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="43.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="18.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3428,9 +3444,6 @@
       <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -3446,9 +3459,6 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3489,13 +3499,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
         <v>35</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2">
@@ -3541,17 +3551,21 @@
   <cols>
     <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="34.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="12.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="22.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="12.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3563,6 +3577,9 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3684,31 +3701,32 @@
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="26.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="26.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="7.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="18.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="22.71" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="15.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="8.71" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="9.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="11.71" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="20.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="18.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="26.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="7.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="18.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="22.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="15.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="8.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="9.71" hidden="0" customWidth="1"/>
+    <col min="10" max="10" width="11.71" hidden="0" customWidth="1"/>
     <col min="11" max="11" width="20.71" hidden="0" customWidth="1"/>
-    <col min="12" max="12" width="12.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="7.71" hidden="0" customWidth="1"/>
-    <col min="14" max="14" width="12.71" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="22.71" hidden="0" customWidth="1"/>
-    <col min="16" max="16" width="21.71" hidden="0" customWidth="1"/>
-    <col min="17" max="17" width="22.71" hidden="0" customWidth="1"/>
-    <col min="18" max="18" width="14.71" hidden="0" customWidth="1"/>
-    <col min="19" max="19" width="16.71" hidden="0" customWidth="1"/>
-    <col min="20" max="20" width="26.71" hidden="0" customWidth="1"/>
-    <col min="21" max="21" width="18.71" hidden="0" customWidth="1"/>
-    <col min="22" max="22" width="15.71" hidden="0" customWidth="1"/>
-    <col min="23" max="23" width="21.71" hidden="0" customWidth="1"/>
-    <col min="24" max="24" width="8.71" hidden="0" customWidth="1"/>
-    <col min="25" max="25" width="21.71" hidden="0" customWidth="1"/>
-    <col min="26" max="26" width="5.71" hidden="0" customWidth="1"/>
+    <col min="12" max="12" width="20.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="12.71" hidden="0" customWidth="1"/>
+    <col min="14" max="14" width="7.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="12.71" hidden="0" customWidth="1"/>
+    <col min="16" max="16" width="22.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="21.71" hidden="0" customWidth="1"/>
+    <col min="18" max="18" width="22.71" hidden="0" customWidth="1"/>
+    <col min="19" max="19" width="14.71" hidden="0" customWidth="1"/>
+    <col min="20" max="20" width="16.71" hidden="0" customWidth="1"/>
+    <col min="21" max="21" width="26.71" hidden="0" customWidth="1"/>
+    <col min="22" max="22" width="18.71" hidden="0" customWidth="1"/>
+    <col min="23" max="23" width="15.71" hidden="0" customWidth="1"/>
+    <col min="24" max="24" width="21.71" hidden="0" customWidth="1"/>
+    <col min="25" max="25" width="8.71" hidden="0" customWidth="1"/>
+    <col min="26" max="26" width="21.71" hidden="0" customWidth="1"/>
+    <col min="27" max="27" width="5.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3790,6 +3808,9 @@
       <c r="Z1" t="s">
         <v>87</v>
       </c>
+      <c r="AA1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -3870,37 +3891,40 @@
       <c r="Z2" t="s">
         <v>3</v>
       </c>
+      <c r="AA2" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="9">
-    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G100">
+    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H100">
       <formula1>-90</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H100">
+    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I100">
       <formula1>-180</formula1>
       <formula2>180</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L100">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O100">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M100">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P100">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W2:W100">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q100">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X100">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y100">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y100">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z100">
       <formula1>0</formula1>
       <formula2>360</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z100">
+    <dataValidation type="decimal" operator="between" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA100">
       <formula1>0</formula1>
       <formula2>70</formula2>
     </dataValidation>
@@ -3918,37 +3942,37 @@
           <x14:formula1>
             <xm:f>'listes'!$E$2:$E$11</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F100</xm:sqref>
+          <xm:sqref>G2:G100</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'listes'!$F$2:$F$11</xm:f>
           </x14:formula1>
-          <xm:sqref>R2:R100</xm:sqref>
+          <xm:sqref>S2:S100</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'listes'!$G$2:$G$9</xm:f>
           </x14:formula1>
-          <xm:sqref>S2:S100</xm:sqref>
+          <xm:sqref>T2:T100</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'listes'!$H$2:$H$6</xm:f>
           </x14:formula1>
-          <xm:sqref>T2:T100</xm:sqref>
+          <xm:sqref>U2:U100</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'listes'!$I$2:$I$4</xm:f>
           </x14:formula1>
-          <xm:sqref>U2:U100</xm:sqref>
+          <xm:sqref>V2:V100</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'listes'!$J$2:$J$6</xm:f>
           </x14:formula1>
-          <xm:sqref>V2:V100</xm:sqref>
+          <xm:sqref>W2:W100</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vignevin-my.sharepoint.com/personal/xavier_delpuech_vignevin_com/Documents/AgricultureNumerique/ProjetsEnCours/VITISDATACROP/05_TRAVAIL_EN_COURS/WP1.1 Harmonisation/Expérimentation/vitisdatacrop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vignevin-my.sharepoint.com/personal/xavier_delpuech_vignevin_com/Documents/AgricultureNumerique/ProjetsEnCours/VITISDATACROP/05_TRAVAIL_EN_COURS/WP1.1 Harmonisation/Experimentation/vitisdatacrop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_8E9BF9216D9D20E8F84208582A64FBB434F82E62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_BA7F95D62406C77B4D566EC1B32706CD90DF512A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B131D67-2518-4842-BD1B-C64D566B34C9}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="listes" sheetId="1" state="veryHidden" r:id="rId1"/>
@@ -18,20 +18,22 @@
     <sheet name="project" sheetId="3" r:id="rId3"/>
     <sheet name="experimentation" sheetId="4" r:id="rId4"/>
     <sheet name="design" sheetId="5" r:id="rId5"/>
-    <sheet name="factor" sheetId="6" r:id="rId6"/>
-    <sheet name="treatment" sheetId="7" r:id="rId7"/>
+    <sheet name="moda" sheetId="6" r:id="rId6"/>
+    <sheet name="treatment_xp" sheetId="7" r:id="rId7"/>
     <sheet name="data_dictionnary" sheetId="8" r:id="rId8"/>
     <sheet name="field" sheetId="9" r:id="rId9"/>
     <sheet name="estate" sheetId="10" r:id="rId10"/>
     <sheet name="soil" sheetId="11" r:id="rId11"/>
     <sheet name="itk" sheetId="12" r:id="rId12"/>
     <sheet name="annotation" sheetId="13" r:id="rId13"/>
+    <sheet name="HELP" sheetId="14" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="annot_date">annotation!$B$2:$B$100</definedName>
     <definedName name="annot_desc">annotation!$C$2:$C$100</definedName>
     <definedName name="annot_type">annotation!$A$2:$A$100</definedName>
     <definedName name="cultivar_name">field!$N$2:$N$100</definedName>
+    <definedName name="cultivar_uri">field!$AB$2:$AB$100</definedName>
     <definedName name="data_granularity">data_dictionnary!$G$2:$G$100</definedName>
     <definedName name="data_type">data_dictionnary!$C$2:$C$100</definedName>
     <definedName name="design_desc">design!$A$2:$A$100</definedName>
@@ -49,13 +51,13 @@
     <definedName name="est_siret">estate!$D$2:$D$100</definedName>
     <definedName name="ex_funding_source">project!$H$2:$H$100</definedName>
     <definedName name="expe_end_date">experimentation!$D$2:$D$100</definedName>
-    <definedName name="expe_proj">experimentation!$G$2:$G$100</definedName>
     <definedName name="expe_start_date">experimentation!$C$2:$C$100</definedName>
     <definedName name="experiment_ID">experimentation!$A$2:$A$100</definedName>
     <definedName name="experiment_narrative">experimentation!$F$2:$F$100</definedName>
-    <definedName name="experimental_factor_comb">treatment!$B$2:$B$100</definedName>
-    <definedName name="factor_value">factor!$A$2:$A$100</definedName>
-    <definedName name="factor_value_desc">factor!$B$2:$B$100</definedName>
+    <definedName name="experimental_factor_comb">treatment_xp!$B$2:$B$100</definedName>
+    <definedName name="factor_uri">moda!$D$2:$D$100</definedName>
+    <definedName name="factor_value">moda!$A$2:$A$100</definedName>
+    <definedName name="factor_value_desc">moda!$B$2:$B$100</definedName>
     <definedName name="fertilizer_applic_method">itk!$H$2:$H$100</definedName>
     <definedName name="field_area">field!$M$2:$M$100</definedName>
     <definedName name="field_bassin">field!$G$2:$G$100</definedName>
@@ -76,11 +78,12 @@
     <definedName name="field_product_type">field!$W$2:$W$100</definedName>
     <definedName name="field_pruning">field!$S$2:$S$100</definedName>
     <definedName name="field_rootstock">field!$O$2:$O$100</definedName>
+    <definedName name="field_rootstock_uri">field!$AC$2:$AC$100</definedName>
     <definedName name="field_slope">field!$AA$2:$AA$100</definedName>
     <definedName name="field_soil_texture">soil!$D$2:$D$100</definedName>
     <definedName name="field_target_yield">field!$X$2:$X$100</definedName>
     <definedName name="field_training">field!$T$2:$T$100</definedName>
-    <definedName name="institute_name">experimentation!$H$2:$H$100</definedName>
+    <definedName name="institute_name">experimentation!$G$2:$G$100</definedName>
     <definedName name="irrigation_amount_depth">itk!$D$2:$D$100</definedName>
     <definedName name="itk_code_soil_man">itk!$I$2:$I$100</definedName>
     <definedName name="itk_end_date">itk!$C$2:$C$100</definedName>
@@ -90,10 +93,10 @@
     <definedName name="itk_n_type">itk!$F$2:$F$100</definedName>
     <definedName name="itk_soil_man">itk!$J$2:$J$100</definedName>
     <definedName name="itk_start_date">itk!$B$2:$B$100</definedName>
-    <definedName name="main_experiment_factor">factor!$C$2:$C$100</definedName>
+    <definedName name="main_experiment_factor">moda!$C$2:$C$100</definedName>
     <definedName name="N_in_applied_fertilizer">itk!$E$2:$E$100</definedName>
     <definedName name="name_of_experiment">experimentation!$B$2:$B$100</definedName>
-    <definedName name="number_of_replicates">treatment!$C$2:$C$100</definedName>
+    <definedName name="number_of_replicates">treatment_xp!$C$2:$C$100</definedName>
     <definedName name="objectives_of_study">experimentation!$E$2:$E$100</definedName>
     <definedName name="organic_carbon_conc">soil!$F$2:$F$100</definedName>
     <definedName name="person_name">person!$A$2:$A$100</definedName>
@@ -101,6 +104,7 @@
     <definedName name="plant_spacing">field!$Q$2:$Q$100</definedName>
     <definedName name="planting_year">field!$K$2:$K$100</definedName>
     <definedName name="proj_acronym">project!$C$2:$C$100</definedName>
+    <definedName name="proj_conv">project!$I$2:$I$100</definedName>
     <definedName name="proj_desc">project!$G$2:$G$100</definedName>
     <definedName name="proj_end_date">project!$E$2:$E$100</definedName>
     <definedName name="proj_obj">project!$F$2:$F$100</definedName>
@@ -116,8 +120,8 @@
     <definedName name="soil_file">soil!$I$2:$I$100</definedName>
     <definedName name="soil_ston">soil!$E$2:$E$100</definedName>
     <definedName name="soil_wc">soil!$H$2:$H$100</definedName>
-    <definedName name="tr_notes">treatment!$D$2:$D$100</definedName>
-    <definedName name="treatment_name">treatment!$A$2:$A$100</definedName>
+    <definedName name="tr_notes">treatment_xp!$D$2:$D$100</definedName>
+    <definedName name="treatment_name">treatment_xp!$A$2:$A$100</definedName>
     <definedName name="unit">data_dictionnary!$D$2:$D$100</definedName>
     <definedName name="var_desc">data_dictionnary!$B$2:$B$100</definedName>
     <definedName name="var_method">data_dictionnary!$F$2:$F$100</definedName>
@@ -144,7 +148,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Prénon, Nom de la personne</t>
         </r>
@@ -157,7 +160,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Email de la personne</t>
         </r>
@@ -170,7 +172,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Rôle de la personne dans l'expérimentation</t>
         </r>
@@ -193,7 +194,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Nom de la parcelle expérimentale</t>
         </r>
@@ -206,7 +206,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Descriptif du type de sol</t>
         </r>
@@ -219,7 +218,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Profondeur de sol accessible aux racines de la vigne, en m</t>
         </r>
@@ -232,9 +230,8 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Texture dominante du sol accessible au racine (texture 6 classes GEPPA)</t>
+          </rPr>
+          <t>Texture dominante du sol accessible au racine (texture 17 classes GEPPA)</t>
         </r>
       </text>
     </comment>
@@ -245,7 +242,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Abondance des cailloux en volume (FAO,2006)</t>
         </r>
@@ -258,7 +254,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Teneur du sol en matière organique sur l'horizon de surface en %</t>
         </r>
@@ -271,7 +266,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>pHeau du sol sur l'horizon de surface</t>
         </r>
@@ -284,7 +278,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Réservoir utile en eau du sol, en mm</t>
         </r>
@@ -297,7 +290,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Nom du fichier associé à la description du sol (analyse de sol)</t>
         </r>
@@ -320,7 +312,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Nom de la parcelle expérimentale</t>
         </r>
@@ -333,7 +324,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Année de début de validité de l'itinéraire technique</t>
         </r>
@@ -346,7 +336,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Année de fin de validité de l'itinéraire technique</t>
         </r>
@@ -359,7 +348,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Quantité d'eau apportée par irrigation sur la saison, exprimée en mm/an. 0 si aucune irrigation</t>
         </r>
@@ -372,7 +360,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Quantité apportée par ha et par an</t>
         </r>
@@ -385,7 +372,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Forme de l'azote apporté : minérale ou organique</t>
         </r>
@@ -398,7 +384,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Descriptif de la fertilisation pratiquée sur la parcelle habituellement</t>
         </r>
@@ -411,7 +396,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Mode d'apport des éléments fertilisants</t>
         </r>
@@ -424,7 +408,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Code décrivant la stratégie d'entretien du sol sur la parcelle</t>
         </r>
@@ -437,7 +420,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Description du mode d'entretien de sol sur la parcelle</t>
         </r>
@@ -450,7 +432,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Nom du fichier descriptif de l'itinéraire technique</t>
         </r>
@@ -473,7 +454,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Type d'annotation</t>
         </r>
@@ -486,7 +466,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Date de l'annotation</t>
         </r>
@@ -499,7 +478,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Description de l'annotation</t>
         </r>
@@ -522,9 +500,8 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>URI du projet</t>
+          </rPr>
+          <t>Identifiant du projet (URI ou autre)</t>
         </r>
       </text>
     </comment>
@@ -535,7 +512,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Titre du projet</t>
         </r>
@@ -548,7 +524,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Acronyme du projet</t>
         </r>
@@ -561,7 +536,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Date de début du projet. Elle est exprimée au format AAAA-MM-JJ suivant la norme internationale ISO 8601.</t>
         </r>
@@ -574,7 +548,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Date de fin du projet. Elle est exprimée au format AAAA-MM-JJ suivant la norme internationale ISO 8601.</t>
         </r>
@@ -587,7 +560,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Description des objectifs poursuivis</t>
         </r>
@@ -600,7 +572,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Description du projet</t>
         </r>
@@ -613,9 +584,20 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Support financier du projet</t>
+          </rPr>
+          <t>Financeur(s) du projet. Séparer par ";"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000009000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Identifiant de la ou des conventions administratives liées au projet. Séparer par ";"</t>
         </r>
       </text>
     </comment>
@@ -636,9 +618,8 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>URI de l'expérimentation</t>
+          </rPr>
+          <t>Identifiant de l'expérimentation (URI ou autre)</t>
         </r>
       </text>
     </comment>
@@ -649,7 +630,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Nom (ou code) usuel de l’expérimentation</t>
         </r>
@@ -662,7 +642,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Date de début de l’expérimentation. Elle est exprimée au format AAAA-MM-JJ suivant la norme internationale ISO 8601.</t>
         </r>
@@ -675,7 +654,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Date de fin de l’expérimentation. Elle est exprimée au format AAAA-MM-JJ suivant la norme internationale ISO 8601.</t>
         </r>
@@ -688,7 +666,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Description des objectifs poursuivis par l’expérimentation</t>
         </r>
@@ -701,7 +678,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Description de l’expérimentation</t>
         </r>
@@ -714,20 +690,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Acronyme du projet ou des projets associés à l'expérimentation</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Nom de l'institution responsable de l'expérimentation</t>
         </r>
@@ -750,7 +712,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Brève description du plan d'expérience. Dans certains cas, il n’y a pas de plan d’expérience, et s’il s’agit d’une compilation de différentes études, on peut préciser « données aggrégées ou réduites »</t>
         </r>
@@ -763,7 +724,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Type de plan d'expérience selon la crop ontology CO_715</t>
         </r>
@@ -776,7 +736,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Taille en m² des unités expérimentales</t>
         </r>
@@ -789,7 +748,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Brève description des unités d'observations</t>
         </r>
@@ -802,7 +760,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Descriptif des facteurs d'hétérogénéité éventuels du dispositif expérimental (sol, matériel végétal, topographie…)</t>
         </r>
@@ -825,9 +782,8 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nom ou code de la modalité (niveau du facteur)</t>
+          </rPr>
+          <t>Code de la modalité (niveau du facteur)</t>
         </r>
       </text>
     </comment>
@@ -838,7 +794,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Description de la modalité (niveau de facteur)</t>
         </r>
@@ -851,9 +806,20 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Type du facteur</t>
+          </rPr>
+          <t>Facteur de la modalité</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Identifiant (généralement de type URI) de la modalité</t>
         </r>
       </text>
     </comment>
@@ -874,9 +840,8 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nom ou code du traitement expérimental</t>
+          </rPr>
+          <t>Code du traitement expérimental</t>
         </r>
       </text>
     </comment>
@@ -887,9 +852,8 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Combinaison des niveaux de facteurs appliqués (séparés par ";").</t>
+          </rPr>
+          <t>Combinaison de modalités (ou niveaux de facteurs). Utiliser le séparateur ";" sans espace.</t>
         </r>
       </text>
     </comment>
@@ -900,7 +864,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Nombre de répétitions pour le traitement expérimental</t>
         </r>
@@ -913,7 +876,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Commentaires sur le traitement expérimental</t>
         </r>
@@ -936,7 +898,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Nom de la variable dans les fichiers de données</t>
         </r>
@@ -949,7 +910,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Description de la variable</t>
         </r>
@@ -962,7 +922,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Type de données</t>
         </r>
@@ -975,7 +934,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Unité de la variable</t>
         </r>
@@ -988,7 +946,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Caractéristique (trait) mesuré</t>
         </r>
@@ -1001,7 +958,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Méthode de mesure</t>
         </r>
@@ -1014,7 +970,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Granularité de la données dans les fichiers</t>
         </r>
@@ -1027,9 +982,8 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>URI de la variable de référence (Vitis Ontology)</t>
+          </rPr>
+          <t>Identifiant de la variable (typiquement URI de la Vitis Ontology)</t>
         </r>
       </text>
     </comment>
@@ -1040,9 +994,8 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nom de la variable de référence (nom standardisé).</t>
+          </rPr>
+          <t>Nom de la variable de référence (nom standardisé). Utilisez ceux de la Vitis Ontology.</t>
         </r>
       </text>
     </comment>
@@ -1053,7 +1006,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Facteur de conversion vers la variable de référence</t>
         </r>
@@ -1076,7 +1028,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Identifiant de la parcelle expérimentale (URI ou autre)</t>
         </r>
@@ -1089,7 +1040,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Nom (ou code) de la parcelle sur laquelle l’expérimentation a lieu</t>
         </r>
@@ -1102,7 +1052,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Brève description ou commentaire sur la parcelle expérimentale</t>
         </r>
@@ -1115,7 +1064,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Nom de la commune sur laquelle se trouve la parcelle</t>
         </r>
@@ -1128,7 +1076,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Code INSEE de la commune (5 caractères alphanumériques)</t>
         </r>
@@ -1141,7 +1088,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Référence cadastrale de la parcelle (convention DGFIP/IGN)</t>
         </r>
@@ -1154,7 +1100,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Bassin viticole dans lequel se trouve la parcelle</t>
         </r>
@@ -1167,7 +1112,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Latitude du centroïde de la parcelle  (degrés décimaux WGS84)</t>
         </r>
@@ -1180,7 +1124,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Longitude du centroïde de la parcelle (degrés décimaux WGS84)</t>
         </r>
@@ -1193,7 +1136,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Géométrie de la parcelle au format WKT dans le référentiel WGS84</t>
         </r>
@@ -1206,7 +1148,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Année de plantation de la parcelle au format AAAA</t>
         </r>
@@ -1219,7 +1160,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Précédent cultural (en particulier si jeune vigne)</t>
         </r>
@@ -1232,7 +1172,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Surface en ha de la parcelle expérimentale</t>
         </r>
@@ -1245,9 +1184,8 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nom de la variété (et clone si connu) produisant les fruits. Format de type "Syrah N Cl300" ou "Grenache B". Utiliser la liste disposnible sur https://vitioeno.mistea.inrae.fr/resource/app/germplasm</t>
+          </rPr>
+          <t>Nom de la variété (et clone si connu) produisant les fruits. Format de type "Syrah N Cl300" ou "Grenache B". Utiliser la nomenclature de https://www.plantgrape.fr/fr</t>
         </r>
       </text>
     </comment>
@@ -1258,9 +1196,8 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>Nom de la variété (et clone si connu) du porte-greffe. Utiliser la liste disposnible sur https://vitioeno.mistea.inrae.fr/resource/app/germplasm</t>
+          </rPr>
+          <t>Nom de la variété (et clone si connu) du porte-greffe. Utiliser la nomenclature de https://www.plantgrape.fr/fr</t>
         </r>
       </text>
     </comment>
@@ -1271,7 +1208,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Ecartement entre les rangs de vigne, en m</t>
         </r>
@@ -1284,7 +1220,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Ecartement entre les ceps de vigne sur le rang, en m</t>
         </r>
@@ -1297,7 +1232,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Densité de plantation (à l'origine), en nombre de plants par hectare</t>
         </r>
@@ -1310,7 +1244,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Description du mode de taille en place sur la parcelle</t>
         </r>
@@ -1323,7 +1256,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Description du mode de conduite de la végétation</t>
         </r>
@@ -1336,7 +1268,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Type de système d'irrigation équipant la parcelle</t>
         </r>
@@ -1349,7 +1280,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Mode de production</t>
         </r>
@@ -1362,7 +1292,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Type de production visée</t>
         </r>
@@ -1375,7 +1304,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Objectif de rendement du viticulteur sur la parcelle en t/ha.</t>
         </r>
@@ -1388,7 +1316,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Altitude au-dessus ne niveau de la mer du dispositif expérimental, en m</t>
         </r>
@@ -1401,7 +1328,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Orientation des rangs en degrés à partir du nord (0 degré), entre 0 et 180.</t>
         </r>
@@ -1414,9 +1340,32 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Pente moyenne du sol en %</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-00001C000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Identifiant du greffon. Utiliser les URI de https://vitioeno.mistea.inrae.fr/resource/app/germplasm</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-00001D000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Identifiant du porte-greffe. Utiliser les URI de https://vitioeno.mistea.inrae.fr/resource/app/germplasm</t>
         </r>
       </text>
     </comment>
@@ -1437,7 +1386,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Nom de l'exploitation agricole (ou domaine)</t>
         </r>
@@ -1450,7 +1398,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Adresse postale de l'exploitation</t>
         </r>
@@ -1463,7 +1410,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Numéro d'Exploitation Viti-Vinicole (E.V.V.) communément appelé numéro CVI (pour Casier Viticole Informatisé), à 10 chiffres</t>
         </r>
@@ -1476,7 +1422,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Numéro SIRET de l'exploitation</t>
         </r>
@@ -1489,7 +1434,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Description ou commentaire sur l'exploitation</t>
         </r>
@@ -1502,7 +1446,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Surface exploitée en vigne en ha</t>
         </r>
@@ -1515,7 +1458,6 @@
             <sz val="9"/>
             <color rgb="FF000000"/>
             <rFont val="Calibri"/>
-            <family val="2"/>
           </rPr>
           <t>Nom de la parcelle expérimentale</t>
         </r>
@@ -1526,7 +1468,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="434">
   <si>
     <t>Contact nom</t>
   </si>
@@ -1558,7 +1500,7 @@
     <t>responsable d'exploitation</t>
   </si>
   <si>
-    <t>URI projet</t>
+    <t>Identifiant projet</t>
   </si>
   <si>
     <t>Titre du projet</t>
@@ -1579,10 +1521,13 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Support financier</t>
-  </si>
-  <si>
-    <t>URI expérimentation</t>
+    <t>Financeurs</t>
+  </si>
+  <si>
+    <t>Identifiant convention</t>
+  </si>
+  <si>
+    <t>Identifiant expérimentation</t>
   </si>
   <si>
     <t>Nom</t>
@@ -1594,9 +1539,6 @@
     <t>Date de fin</t>
   </si>
   <si>
-    <t>Projet</t>
-  </si>
-  <si>
     <t>Organisation</t>
   </si>
   <si>
@@ -1618,505 +1560,1221 @@
     <t>design_plan</t>
   </si>
   <si>
-    <t>Randomisé</t>
+    <t>randomisé</t>
+  </si>
+  <si>
+    <t>carré latin</t>
+  </si>
+  <si>
+    <t>bloc randomisé</t>
+  </si>
+  <si>
+    <t>blocs incomplets</t>
+  </si>
+  <si>
+    <t>en bandes</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>Modalité</t>
+  </si>
+  <si>
+    <t>Description de la modalité</t>
+  </si>
+  <si>
+    <t>Facteur</t>
+  </si>
+  <si>
+    <t>Identifiant modalité</t>
+  </si>
+  <si>
+    <t>main_experiment_factor</t>
+  </si>
+  <si>
+    <t>matériel végétal</t>
+  </si>
+  <si>
+    <t>protection phytosanitaire</t>
+  </si>
+  <si>
+    <t>entretien du sol</t>
+  </si>
+  <si>
+    <t>mode de conduite</t>
+  </si>
+  <si>
+    <t>système</t>
+  </si>
+  <si>
+    <t>fertilisant</t>
+  </si>
+  <si>
+    <t>irrigation</t>
+  </si>
+  <si>
+    <t>Traitement expérimental</t>
+  </si>
+  <si>
+    <t>Combinaison de modalités</t>
+  </si>
+  <si>
+    <t>Nombre de répétition</t>
+  </si>
+  <si>
+    <t>Commentaires</t>
+  </si>
+  <si>
+    <t>Nom de variable*</t>
+  </si>
+  <si>
+    <t>Description*</t>
+  </si>
+  <si>
+    <t>Type de données</t>
+  </si>
+  <si>
+    <t>Unité*</t>
+  </si>
+  <si>
+    <t>Caractéristique</t>
+  </si>
+  <si>
+    <t>Méthode</t>
+  </si>
+  <si>
+    <t>Granularité des données</t>
+  </si>
+  <si>
+    <t>Identifiant variable</t>
+  </si>
+  <si>
+    <t>Nom référence</t>
+  </si>
+  <si>
+    <t>Conversion référence</t>
+  </si>
+  <si>
+    <t>data_type</t>
+  </si>
+  <si>
+    <t>numérique</t>
+  </si>
+  <si>
+    <t>texte</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>data_granularity</t>
+  </si>
+  <si>
+    <t>organe</t>
+  </si>
+  <si>
+    <t>cep</t>
+  </si>
+  <si>
+    <t>unité d'observation</t>
+  </si>
+  <si>
+    <t>parcelle</t>
+  </si>
+  <si>
+    <t>exploitation</t>
+  </si>
+  <si>
+    <t>région</t>
+  </si>
+  <si>
+    <t>Identifiant de la parcelle</t>
+  </si>
+  <si>
+    <t>Nom de la parcelle</t>
+  </si>
+  <si>
+    <t>Description de la parcelle</t>
+  </si>
+  <si>
+    <t>Commune</t>
+  </si>
+  <si>
+    <t>Code INSEE commune</t>
+  </si>
+  <si>
+    <t>Référence cadastrale</t>
+  </si>
+  <si>
+    <t>Bassin viticole</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Géométrie</t>
+  </si>
+  <si>
+    <t>Année de plantation</t>
+  </si>
+  <si>
+    <t>Précédent cultural</t>
+  </si>
+  <si>
+    <t>Surface (ha)</t>
+  </si>
+  <si>
+    <t>Greffon</t>
+  </si>
+  <si>
+    <t>Porte-greffe</t>
+  </si>
+  <si>
+    <t>Ecartement entre rangs</t>
+  </si>
+  <si>
+    <t>Ecartement entre ceps</t>
+  </si>
+  <si>
+    <t>Densité de plantation</t>
+  </si>
+  <si>
+    <t>Mode de taille</t>
+  </si>
+  <si>
+    <t>Mode de conduite</t>
+  </si>
+  <si>
+    <t>système d'irrigation</t>
+  </si>
+  <si>
+    <t>Mode de production</t>
+  </si>
+  <si>
+    <t>Type de produit</t>
+  </si>
+  <si>
+    <t>Objectif de rendement</t>
+  </si>
+  <si>
+    <t>Altitude</t>
+  </si>
+  <si>
+    <t>Orientation des rangs</t>
+  </si>
+  <si>
+    <t>Pente</t>
+  </si>
+  <si>
+    <t>Identifiant Greffon</t>
+  </si>
+  <si>
+    <t>Identifiant Porte-greffe</t>
+  </si>
+  <si>
+    <t>field_bassin</t>
+  </si>
+  <si>
+    <t>Alsace Est</t>
+  </si>
+  <si>
+    <t>Aquitaine</t>
+  </si>
+  <si>
+    <t>Bourgogne-Beaujolais-Savoie-Jura</t>
+  </si>
+  <si>
+    <t>Champagne</t>
+  </si>
+  <si>
+    <t>Charentes-Cognac</t>
+  </si>
+  <si>
+    <t>Corse</t>
+  </si>
+  <si>
+    <t>Languedoc-Roussillon</t>
+  </si>
+  <si>
+    <t>Sud-Ouest</t>
+  </si>
+  <si>
+    <t>Val-de-Loire-Centre</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vallée-du-Rhône-Provence</t>
+  </si>
+  <si>
+    <t>field_pruning</t>
+  </si>
+  <si>
+    <t>Taille en gobelet</t>
+  </si>
+  <si>
+    <t>Cordon de Royat</t>
+  </si>
+  <si>
+    <t>Cordon double</t>
+  </si>
+  <si>
+    <t>Guyot simple</t>
+  </si>
+  <si>
+    <t>Guyot double</t>
+  </si>
+  <si>
+    <t>Guyot Poussard</t>
+  </si>
+  <si>
+    <t>Guyot mixte</t>
+  </si>
+  <si>
+    <t>Chablis</t>
+  </si>
+  <si>
+    <t>Taille rase de précision (mécanique)</t>
+  </si>
+  <si>
+    <t>Taille minimale (non-taille)</t>
+  </si>
+  <si>
+    <t>field_training</t>
+  </si>
+  <si>
+    <t>Espalier palissé</t>
+  </si>
+  <si>
+    <t>Taille minimale</t>
+  </si>
+  <si>
+    <t>Gobelet</t>
+  </si>
+  <si>
+    <t>Echalas</t>
+  </si>
+  <si>
+    <t>Déployé (Scott-Henry/Smart-Dyson/Lys)</t>
+  </si>
+  <si>
+    <t>Lyre ouverte</t>
+  </si>
+  <si>
+    <t>Pergola</t>
+  </si>
+  <si>
+    <t>Tête de saule</t>
+  </si>
+  <si>
+    <t>field_irrigation_system</t>
+  </si>
+  <si>
+    <t>aucun</t>
+  </si>
+  <si>
+    <t>goutte-à-goutte aérien</t>
+  </si>
+  <si>
+    <t>goutte-à-goutte enterré</t>
+  </si>
+  <si>
+    <t>aspersion</t>
+  </si>
+  <si>
+    <t>submersion</t>
+  </si>
+  <si>
+    <t>field_prod_mode</t>
+  </si>
+  <si>
+    <t>Raisonnée ou conventionnelle</t>
+  </si>
+  <si>
+    <t>Agriculture Biologique</t>
+  </si>
+  <si>
+    <t>Biodynamie</t>
+  </si>
+  <si>
+    <t>field_product_type</t>
+  </si>
+  <si>
+    <t>AOP</t>
+  </si>
+  <si>
+    <t>IGP</t>
+  </si>
+  <si>
+    <t>Vins sans IG</t>
+  </si>
+  <si>
+    <t>Raisin de table</t>
+  </si>
+  <si>
+    <t>Eau de vie</t>
+  </si>
+  <si>
+    <t>Nom de l'exploitation</t>
+  </si>
+  <si>
+    <t>Adresse de l'exploitation</t>
+  </si>
+  <si>
+    <t>Numéro CVI</t>
+  </si>
+  <si>
+    <t>SIRET</t>
+  </si>
+  <si>
+    <t>Surface en vigne (ha)</t>
+  </si>
+  <si>
+    <t>Parcelle</t>
+  </si>
+  <si>
+    <t>Description sol</t>
+  </si>
+  <si>
+    <t>Profondeur du sol</t>
+  </si>
+  <si>
+    <t>Texture dominante du sol</t>
+  </si>
+  <si>
+    <t>Pierrosité du sol</t>
+  </si>
+  <si>
+    <t>Teneur en MO</t>
+  </si>
+  <si>
+    <t>pH sol</t>
+  </si>
+  <si>
+    <t>RU du sol</t>
+  </si>
+  <si>
+    <t>Fichier associé</t>
+  </si>
+  <si>
+    <t>field_soil_texture</t>
+  </si>
+  <si>
+    <t>AA:Argile lourde</t>
+  </si>
+  <si>
+    <t>A:Argileux</t>
+  </si>
+  <si>
+    <t>As:Argile sableuse</t>
+  </si>
+  <si>
+    <t>Als:Argile limono-sableuse</t>
+  </si>
+  <si>
+    <t>Al:Argilo-limoneux</t>
+  </si>
+  <si>
+    <t>AS:Argilo sableux</t>
+  </si>
+  <si>
+    <t>LAS:Limon argilo-sableux</t>
+  </si>
+  <si>
+    <t>La:Limon argileux</t>
+  </si>
+  <si>
+    <t>Sa:Sable argileux</t>
+  </si>
+  <si>
+    <t>Sal:Sable limono-argileux</t>
+  </si>
+  <si>
+    <t>Lsa: Limon sablo-argileux</t>
+  </si>
+  <si>
+    <t>L:limon</t>
+  </si>
+  <si>
+    <t>Sl:sable limoneux</t>
+  </si>
+  <si>
+    <t>S:Sableux</t>
+  </si>
+  <si>
+    <t>SS:Sable</t>
+  </si>
+  <si>
+    <t>Ls:Limon sableux</t>
+  </si>
+  <si>
+    <t>LL:Limon pur</t>
+  </si>
+  <si>
+    <t>soil_ston</t>
+  </si>
+  <si>
+    <t>N:aucun cailloux</t>
+  </si>
+  <si>
+    <t>V:très peu (0-2%)</t>
+  </si>
+  <si>
+    <t>F:peu 2-5%</t>
+  </si>
+  <si>
+    <t>C:fréquent 5-15%</t>
+  </si>
+  <si>
+    <t>M:beaucoup 15-40%</t>
+  </si>
+  <si>
+    <t>A:abondant 40-80%</t>
+  </si>
+  <si>
+    <t>D:majoritaire &gt;80%</t>
+  </si>
+  <si>
+    <t>S:concentré sur une couche</t>
+  </si>
+  <si>
+    <t>Année de début</t>
+  </si>
+  <si>
+    <t>Année de fin</t>
+  </si>
+  <si>
+    <t>Irrigation</t>
+  </si>
+  <si>
+    <t>Fertilisation azotée</t>
+  </si>
+  <si>
+    <t>Forme azote</t>
+  </si>
+  <si>
+    <t>Description fertilisation</t>
+  </si>
+  <si>
+    <t>Mode d'apport</t>
+  </si>
+  <si>
+    <t>Code entretien sol</t>
+  </si>
+  <si>
+    <t>Description de l'entretien du sol</t>
+  </si>
+  <si>
+    <t>itk_n_type</t>
+  </si>
+  <si>
+    <t>minérale</t>
+  </si>
+  <si>
+    <t>organique</t>
+  </si>
+  <si>
+    <t>organo-minérale</t>
+  </si>
+  <si>
+    <t>fertilizer_applic_method</t>
+  </si>
+  <si>
+    <t>au sol</t>
+  </si>
+  <si>
+    <t>fertirrigation</t>
+  </si>
+  <si>
+    <t>foliaire</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>annot_type</t>
+  </si>
+  <si>
+    <t>Remarque</t>
+  </si>
+  <si>
+    <t>Résultat</t>
+  </si>
+  <si>
+    <t>Evénement</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>label_fr</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>annotation</t>
+  </si>
+  <si>
+    <t>Description de l'annotation</t>
+  </si>
+  <si>
+    <t>Forte attaque de mildiou en 2008, avec 30% de pertes de récolte</t>
+  </si>
+  <si>
+    <t>Type d'annotation</t>
+  </si>
+  <si>
+    <t>événement</t>
+  </si>
+  <si>
+    <t>Date de l'annotation</t>
+  </si>
+  <si>
+    <t>2008-06-21</t>
+  </si>
+  <si>
+    <t>data_dictionnary</t>
+  </si>
+  <si>
+    <t>Nom de variable</t>
+  </si>
+  <si>
+    <t>Nom de la variable dans les fichiers de données</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Description de la variable</t>
+  </si>
+  <si>
+    <t>pH mesuré à maturité sur baies</t>
+  </si>
+  <si>
+    <t>Caractéristique (trait) mesuré</t>
+  </si>
+  <si>
+    <t>pH du moût</t>
+  </si>
+  <si>
+    <t>Méthode de mesure</t>
+  </si>
+  <si>
+    <t>pHmètre</t>
+  </si>
+  <si>
+    <t>Granularité de la données dans les fichiers</t>
+  </si>
+  <si>
+    <t>Unité</t>
+  </si>
+  <si>
+    <t>Unité de la variable</t>
+  </si>
+  <si>
+    <t>sans unité</t>
+  </si>
+  <si>
+    <t>Identifiant de la variable (typiquement URI de la Vitis Ontology)</t>
+  </si>
+  <si>
+    <t>https://cropontology.org/term/CO_356:1000185</t>
+  </si>
+  <si>
+    <t>https://cropontology.org/term/CO_356:ROOT ou https://vitioeno.mistea.inrae.fr/resource/app/</t>
+  </si>
+  <si>
+    <t>Facteur de conversion vers la variable de référence</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>par exemple, si la variable utilisateur est exprimé en g et la variable de référence en kg, le facteur de conversion est égal à 0.001</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>Brève description du plan d'expérience. Dans certains cas, il n’y a pas de plan d’expérience, et s’il s’agit d’une compilation de différentes études, on peut préciser « données aggrégées ou réduites »</t>
+  </si>
+  <si>
+    <t>Dispositif en carré latin à 3 répétitions. 10 ceps sont suivis sur chaque unité expérimentale de 3 inter-rangs de large</t>
+  </si>
+  <si>
+    <t>Type de plan d'expérience selon la crop ontology CO_715</t>
   </si>
   <si>
     <t>Carré latin</t>
   </si>
   <si>
-    <t>Bloc randomisé</t>
-  </si>
-  <si>
-    <t>Blocs incomplets</t>
-  </si>
-  <si>
-    <t>Modalité</t>
-  </si>
-  <si>
-    <t>Description de la modalité</t>
-  </si>
-  <si>
-    <t>Catégorie de facteur</t>
-  </si>
-  <si>
-    <t>main_experiment_factor</t>
-  </si>
-  <si>
-    <t>matériel végétal</t>
-  </si>
-  <si>
-    <t>protection phytosanitaire</t>
-  </si>
-  <si>
-    <t>entretien du sol</t>
-  </si>
-  <si>
-    <t>mode de conduite</t>
-  </si>
-  <si>
-    <t>système</t>
-  </si>
-  <si>
-    <t>fertilisant</t>
-  </si>
-  <si>
-    <t>irrigation</t>
-  </si>
-  <si>
-    <t>Traitement</t>
-  </si>
-  <si>
-    <t>Combinaison de niveaux de facteurs</t>
-  </si>
-  <si>
-    <t>Nombre de répétition</t>
-  </si>
-  <si>
-    <t>Commentaires</t>
-  </si>
-  <si>
-    <t>Nom de variable*</t>
-  </si>
-  <si>
-    <t>Description*</t>
-  </si>
-  <si>
-    <t>Type de données</t>
-  </si>
-  <si>
-    <t>Unité*</t>
-  </si>
-  <si>
-    <t>Caractéristique</t>
-  </si>
-  <si>
-    <t>Méthode</t>
-  </si>
-  <si>
-    <t>Granularité des données</t>
-  </si>
-  <si>
-    <t>URI référence</t>
-  </si>
-  <si>
-    <t>Nom référence</t>
-  </si>
-  <si>
-    <t>Conversion référence</t>
-  </si>
-  <si>
-    <t>data_type</t>
-  </si>
-  <si>
-    <t>numérique</t>
-  </si>
-  <si>
-    <t>texte</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>data_granularity</t>
-  </si>
-  <si>
-    <t>organe</t>
-  </si>
-  <si>
-    <t>cep</t>
-  </si>
-  <si>
-    <t>unité d'observation</t>
-  </si>
-  <si>
-    <t>parcelle</t>
-  </si>
-  <si>
-    <t>exploitation</t>
-  </si>
-  <si>
-    <t>région</t>
-  </si>
-  <si>
-    <t>Identifiant de la parcelle</t>
-  </si>
-  <si>
-    <t>Nom de la parcelle</t>
-  </si>
-  <si>
-    <t>Description de la parcelle</t>
-  </si>
-  <si>
-    <t>Commune</t>
-  </si>
-  <si>
-    <t>Code INSEE commune</t>
-  </si>
-  <si>
-    <t>Référence cadastrale</t>
-  </si>
-  <si>
-    <t>Bassin viticole</t>
-  </si>
-  <si>
-    <t>Latitude</t>
-  </si>
-  <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Géométrie</t>
-  </si>
-  <si>
-    <t>Année de plantation</t>
-  </si>
-  <si>
-    <t>Précédent cultural</t>
-  </si>
-  <si>
-    <t>Surface (ha)</t>
-  </si>
-  <si>
-    <t>Greffon</t>
-  </si>
-  <si>
-    <t>Porte-greffe</t>
-  </si>
-  <si>
-    <t>Ecartement entre rangs</t>
-  </si>
-  <si>
-    <t>Ecartement entre ceps</t>
-  </si>
-  <si>
-    <t>Densité de plantation</t>
-  </si>
-  <si>
-    <t>Mode de taille</t>
-  </si>
-  <si>
-    <t>Mode de conduite</t>
-  </si>
-  <si>
-    <t>système d'irrigation</t>
-  </si>
-  <si>
-    <t>Mode de production</t>
-  </si>
-  <si>
-    <t>Type de produit</t>
-  </si>
-  <si>
-    <t>Objectif de rendement</t>
-  </si>
-  <si>
-    <t>Altitude</t>
-  </si>
-  <si>
-    <t>Orientation des rangs</t>
-  </si>
-  <si>
-    <t>Pente</t>
-  </si>
-  <si>
-    <t>field_bassin</t>
-  </si>
-  <si>
-    <t>Alsace Est</t>
-  </si>
-  <si>
-    <t>Aquitaine</t>
-  </si>
-  <si>
-    <t>Bourgogne-Beaujolais-Savoie-Jura</t>
-  </si>
-  <si>
-    <t>Champagne</t>
-  </si>
-  <si>
-    <t>Charentes-Cognac</t>
-  </si>
-  <si>
-    <t>Corse</t>
-  </si>
-  <si>
-    <t>Languedoc-Roussillon</t>
-  </si>
-  <si>
-    <t>Sud-Ouest</t>
-  </si>
-  <si>
-    <t>Val-de-Loire-Centre</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Vallée-du-Rhône-Provence</t>
-  </si>
-  <si>
-    <t>field_pruning</t>
-  </si>
-  <si>
-    <t>Taille en gobelet</t>
-  </si>
-  <si>
-    <t>Cordon de Royat</t>
-  </si>
-  <si>
-    <t>Cordon double</t>
-  </si>
-  <si>
-    <t>Guyot simple</t>
-  </si>
-  <si>
-    <t>Guyot double</t>
-  </si>
-  <si>
-    <t>Guyot Poussard</t>
-  </si>
-  <si>
-    <t>Guyot mixte</t>
-  </si>
-  <si>
-    <t>Chablis</t>
-  </si>
-  <si>
-    <t>Taille rase de précision (mécanique)</t>
-  </si>
-  <si>
-    <t>Taille minimale (non-taille)</t>
-  </si>
-  <si>
-    <t>field_training</t>
-  </si>
-  <si>
-    <t>Espalier palissé</t>
-  </si>
-  <si>
-    <t>Taille minimale</t>
-  </si>
-  <si>
-    <t>Gobelet</t>
-  </si>
-  <si>
-    <t>Echalas</t>
-  </si>
-  <si>
-    <t>Déployé (Scott-Henry/Smart-Dyson/Lys)</t>
-  </si>
-  <si>
-    <t>Lyre ouverte</t>
-  </si>
-  <si>
-    <t>Pergola</t>
-  </si>
-  <si>
-    <t>Tête de saule</t>
-  </si>
-  <si>
-    <t>field_irrigation_system</t>
-  </si>
-  <si>
-    <t>aucun</t>
-  </si>
-  <si>
-    <t>goutte-à-goutte aérien</t>
-  </si>
-  <si>
-    <t>goutte-à-goutte enterré</t>
-  </si>
-  <si>
-    <t>aspersion</t>
-  </si>
-  <si>
-    <t>submersion</t>
-  </si>
-  <si>
-    <t>field_prod_mode</t>
-  </si>
-  <si>
-    <t>Raisonnée ou conventionnelle</t>
-  </si>
-  <si>
-    <t>Agriculture Biologique</t>
-  </si>
-  <si>
-    <t>Biodynamie</t>
-  </si>
-  <si>
-    <t>field_product_type</t>
-  </si>
-  <si>
-    <t>AOP</t>
-  </si>
-  <si>
-    <t>IGP</t>
-  </si>
-  <si>
-    <t>Vins sans IG</t>
-  </si>
-  <si>
-    <t>Raisin de table</t>
-  </si>
-  <si>
-    <t>Eau de vie</t>
-  </si>
-  <si>
-    <t>Nom de l'exploitation</t>
-  </si>
-  <si>
-    <t>Adresse de l'exploitation</t>
-  </si>
-  <si>
-    <t>Numéro CVI</t>
-  </si>
-  <si>
-    <t>SIRET</t>
-  </si>
-  <si>
-    <t>Surface en vigne (ha)</t>
-  </si>
-  <si>
-    <t>Parcelle</t>
-  </si>
-  <si>
-    <t>Description sol</t>
-  </si>
-  <si>
-    <t>Profondeur du sol</t>
-  </si>
-  <si>
-    <t>Texture dominante du sol</t>
-  </si>
-  <si>
-    <t>Pierrosité du sol</t>
-  </si>
-  <si>
-    <t>Teneur en MO</t>
-  </si>
-  <si>
-    <t>pH sol</t>
-  </si>
-  <si>
-    <t>RU du sol</t>
-  </si>
-  <si>
-    <t>Fichier associé</t>
-  </si>
-  <si>
-    <t>field_soil_texture</t>
-  </si>
-  <si>
-    <t>A:argileux</t>
-  </si>
-  <si>
-    <t>Al:argilo-limoneux</t>
-  </si>
-  <si>
-    <t>As:argile sableuse</t>
+    <t>treatment_xp</t>
+  </si>
+  <si>
+    <t>Nombre de répétitions pour le traitement expérimental</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Taille en m² des unités expérimentales</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>Brève description des unités d'observations</t>
+  </si>
+  <si>
+    <t>placette de 10 ceps située au centre de chaque unité expérimentale</t>
+  </si>
+  <si>
+    <t>Descriptif des facteurs d'hétérogénéité éventuels du dispositif expérimental (sol, matériel végétal, topographie…)</t>
+  </si>
+  <si>
+    <t>gradient NS de fertilité du sol</t>
+  </si>
+  <si>
+    <t>estate</t>
+  </si>
+  <si>
+    <t>Nom de la parcelle expérimentale</t>
+  </si>
+  <si>
+    <t>Nom de l'exploitation agricole (ou domaine)</t>
+  </si>
+  <si>
+    <t>Domaine Cabanis</t>
+  </si>
+  <si>
+    <t>Adresse postale de l'exploitation</t>
+  </si>
+  <si>
+    <t>Mas Madagascar, 30600 Vauvert</t>
+  </si>
+  <si>
+    <t>Surface exploitée en vigne en ha</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Numéro d'Exploitation Viti-Vinicole (E.V.V.) communément appelé numéro CVI (pour Casier Viticole Informatisé), à 10 chiffres</t>
+  </si>
+  <si>
+    <t>Description ou commentaire sur l'exploitation</t>
+  </si>
+  <si>
+    <t>Numéro SIRET de l'exploitation</t>
+  </si>
+  <si>
+    <t>78320402700032</t>
+  </si>
+  <si>
+    <t>experimentation</t>
+  </si>
+  <si>
+    <t>Identifiant de l'expérimentation (URI ou autre)</t>
+  </si>
+  <si>
+    <t>Nom (ou code) usuel de l’expérimentation</t>
+  </si>
+  <si>
+    <t>MO-Vauvert</t>
+  </si>
+  <si>
+    <t>Date de début de l’expérimentation. Elle est exprimée au format AAAA-MM-JJ suivant la norme internationale ISO 8601.</t>
+  </si>
+  <si>
+    <t>2009-03-01</t>
+  </si>
+  <si>
+    <t>Date de fin de l’expérimentation. Elle est exprimée au format AAAA-MM-JJ suivant la norme internationale ISO 8601.</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>Description des objectifs poursuivis par l’expérimentation</t>
+  </si>
+  <si>
+    <t>L’objectif de cette action est d’améliorer le conseil en terme de gestion de la matière organique, par une meilleure connaissance du type de produit à apporter en liaison avec les besoins au niveau du sol et les effets attendus, tout en prenant en compte les conditions pédo-climatiques et les conditions d’entretien du sol ainsi que les exigences régionales en terme de vin à élaborer. Le choix des produits organiques apportés répond à une offre locale en compost de marc provenant de la distillerie de la commune ou en déchets verts provenant d’une plate-forme de compostage à proximité.</t>
+  </si>
+  <si>
+    <t>Description de l’expérimentation</t>
+  </si>
+  <si>
+    <t>Sur la parcelle gérée par l’IFV en Languedoc-Roussillon, les modalités mises en place sont les suivantes :
+- Témoin sans apports (TEM)
+- Apport compost déchets verts (DV)
+- Apport compost de marc (MARC)
+Les modalités ont été mises en place le 17 mars et le 23 mars 2009, avec un dispositif expérimental en carré latin, avec 3 répétitions pour chaque modalité. Les apports ont été renouvelés en avril 2013</t>
+  </si>
+  <si>
+    <t>Nom de l'institution responsable de l'expérimentation</t>
+  </si>
+  <si>
+    <t>IFV Pôle Rhône-Méditerranée</t>
+  </si>
+  <si>
+    <t>moda</t>
+  </si>
+  <si>
+    <t>Facteur de la modalité</t>
+  </si>
+  <si>
+    <t>Code de la modalité (niveau du facteur)</t>
+  </si>
+  <si>
+    <t>DV</t>
+  </si>
+  <si>
+    <t>Description de la modalité (niveau de facteur)</t>
+  </si>
+  <si>
+    <t>Apport de compost de déchets verts à 30T/ha</t>
+  </si>
+  <si>
+    <t>Identifiant (généralement de type URI) de la modalité</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>Identifiant de la parcelle expérimentale (URI ou autre)</t>
+  </si>
+  <si>
+    <t>http://sinfonia.vignevin.com/id/scientific-object/so-30mo_vauvert</t>
+  </si>
+  <si>
+    <t>Précédent cultural (en particulier si jeune vigne)</t>
+  </si>
+  <si>
+    <t>vigne</t>
+  </si>
+  <si>
+    <t>Brève description ou commentaire sur la parcelle expérimentale</t>
+  </si>
+  <si>
+    <t>Parcelle de syrah d'environ, sur un sol fersiallitique typique des Costières de Nîmes.</t>
+  </si>
+  <si>
+    <t>Nom de la commune sur laquelle se trouve la parcelle</t>
+  </si>
+  <si>
+    <t>Vauvert</t>
+  </si>
+  <si>
+    <t>https://www.insee.fr/fr/recherche/recherche-geographique?debut=0</t>
+  </si>
+  <si>
+    <t>Code INSEE de la commune (5 caractères alphanumériques)</t>
+  </si>
+  <si>
+    <t>30341</t>
+  </si>
+  <si>
+    <t>Référence cadastrale de la parcelle (convention DGFIP/IGN)</t>
+  </si>
+  <si>
+    <t>30341000BN0059</t>
+  </si>
+  <si>
+    <t>Code commune INSEE + prefixe section + code section + numero de parcelle cadastrale</t>
+  </si>
+  <si>
+    <t>Bassin viticole dans lequel se trouve la parcelle</t>
+  </si>
+  <si>
+    <t>https://www.legifrance.gouv.fr/codes/section_lc/LEGITEXT000006071367/LEGISCTA000036441436/2020-07-02/?anchor=LEGIARTI000036441438#LEGIARTI000036441438</t>
+  </si>
+  <si>
+    <t>Latitude du centroïde de la parcelle  (degrés décimaux WGS84)</t>
+  </si>
+  <si>
+    <t>43.6930</t>
+  </si>
+  <si>
+    <t>Longitude du centroïde de la parcelle (degrés décimaux WGS84)</t>
+  </si>
+  <si>
+    <t>4.2784</t>
+  </si>
+  <si>
+    <t>Géométrie de la parcelle au format WKT dans le référentiel WGS84</t>
+  </si>
+  <si>
+    <t>POLYGON((4.3040 43.6990,4.3032 43.6990,4.3031 43.6975,4.3044 43.6975,4.3040 43.6990))</t>
+  </si>
+  <si>
+    <t>https://clydedacruz.github.io/openstreetmap-wkt-playground/</t>
+  </si>
+  <si>
+    <t>Année de plantation de la parcelle au format AAAA</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>Surface en ha de la parcelle expérimentale</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Nom de la variété (et clone si connu) produisant les fruits. Format de type "Syrah N Cl300" ou "Grenache B". Utiliser la nomenclature de https://www.plantgrape.fr/fr</t>
+  </si>
+  <si>
+    <t>Syrah N Cl300</t>
+  </si>
+  <si>
+    <t>https://www.plantgrape.fr/fr</t>
+  </si>
+  <si>
+    <t>Nom de la variété (et clone si connu) du porte-greffe. Utiliser la nomenclature de https://www.plantgrape.fr/fr</t>
+  </si>
+  <si>
+    <t>110R</t>
+  </si>
+  <si>
+    <t>Identifiant du greffon. Utiliser les URI de https://vitioeno.mistea.inrae.fr/resource/app/germplasm</t>
+  </si>
+  <si>
+    <t>http://opensilex.vitioeno/variety/FRA/150</t>
+  </si>
+  <si>
+    <t>https://vitioeno.mistea.inrae.fr/resource/app/</t>
+  </si>
+  <si>
+    <t>Identifiant du porte-greffe. Utiliser les URI de https://vitioeno.mistea.inrae.fr/resource/app/germplasm</t>
+  </si>
+  <si>
+    <t>http://opensilex.vitioeno/variety/FRA/9159</t>
+  </si>
+  <si>
+    <t>Ecartement entre les rangs de vigne, en m</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>Ecartement entre les ceps de vigne sur le rang, en m</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Densité de plantation (à l'origine), en nombre de plants par hectare</t>
+  </si>
+  <si>
+    <t>3500</t>
+  </si>
+  <si>
+    <t>Description du mode de taille en place sur la parcelle</t>
+  </si>
+  <si>
+    <t>Description du mode de conduite de la végétation</t>
+  </si>
+  <si>
+    <t>Espalier</t>
+  </si>
+  <si>
+    <t>Type de système d'irrigation équipant la parcelle</t>
+  </si>
+  <si>
+    <t>Type de production visée</t>
+  </si>
+  <si>
+    <t>Objectif de rendement du viticulteur sur la parcelle en t/ha.</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>Altitude au-dessus ne niveau de la mer du dispositif expérimental, en m</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Orientation des rangs en degrés à partir du nord (0 degré), entre 0 et 180.</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>Pente moyenne du sol en %</t>
+  </si>
+  <si>
+    <t>Le site geoportail permet de tracer un profil de pente sur la parcelle.</t>
+  </si>
+  <si>
+    <t>field,measure</t>
+  </si>
+  <si>
+    <t>Nom (ou code) de la parcelle sur laquelle l’expérimentation a lieu</t>
+  </si>
+  <si>
+    <t>Syrah prestige</t>
+  </si>
+  <si>
+    <t>itk</t>
+  </si>
+  <si>
+    <t>Année de début de validité de l'itinéraire technique</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>Année de fin de validité de l'itinéraire technique</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>Quantité d'eau apportée par irrigation sur la saison, exprimée en mm/an. 0 si aucune irrigation</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Quantité apportée par ha et par an</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Forme de l'azote apporté : minérale ou organique</t>
+  </si>
+  <si>
+    <t>Descriptif de la fertilisation pratiquée sur la parcelle habituellement</t>
+  </si>
+  <si>
+    <t>suivant protocole</t>
+  </si>
+  <si>
+    <t>Mode d'apport des éléments fertilisants</t>
+  </si>
+  <si>
+    <t>Code décrivant la stratégie d'entretien du sol sur la parcelle</t>
+  </si>
+  <si>
+    <t>Sp2T2</t>
+  </si>
+  <si>
+    <t>https://vignevin.github.io/standard_guide/soilManagementCode.html</t>
+  </si>
+  <si>
+    <t>Description du mode d'entretien de sol sur la parcelle</t>
+  </si>
+  <si>
+    <t>Enherbé semé permanent alterné avec du désherbage mécanique un inter-rang sur deux, combiné à du désherbage mécanique sous le rang</t>
+  </si>
+  <si>
+    <t>Nom du fichier descriptif de l'itinéraire technique</t>
+  </si>
+  <si>
+    <t>Fiche de suivi parcellaire2021.pdf</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>Prénon, Nom de la personne</t>
+  </si>
+  <si>
+    <t>Jean, Durand</t>
+  </si>
+  <si>
+    <t>Email de la personne</t>
+  </si>
+  <si>
+    <t>jean.durand@myemail.com</t>
+  </si>
+  <si>
+    <t>Rôle de la personne dans l'expérimentation</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>Identifiant du projet (URI ou autre)</t>
+  </si>
+  <si>
+    <t>Elaboration d’un outil d’aide à la décision pour la gestion du patrimoine organique des sols viticoles. Paramétrage et validation du modèle AMG</t>
+  </si>
+  <si>
+    <t>Acronyme du projet</t>
+  </si>
+  <si>
+    <t>OAD MO</t>
+  </si>
+  <si>
+    <t>Date de début du projet. Elle est exprimée au format AAAA-MM-JJ suivant la norme internationale ISO 8601.</t>
+  </si>
+  <si>
+    <t>2016-07-01</t>
+  </si>
+  <si>
+    <t>Date de fin du projet. Elle est exprimée au format AAAA-MM-JJ suivant la norme internationale ISO 8601.</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>Description des objectifs poursuivis</t>
+  </si>
+  <si>
+    <t>L'objectif de cette action est d'améliorer le conseil en termes de gestion de la matière organique, par une meilleure connaissance du type de produit à apporter en liaison avec les besoins au niveau du sol et les effets attendus, tout en prenant en compte les conditions pédo-climatiques et les conditions d'entretien du sol ainsi que les exigences régionales en terme de vin à élaborer. Le calage du modèle AMG, qui calcule l'évolution du stock de carbone organique, et donc de matière organique, du sol, permettrait la validation d'un outil capable de générer différents scénarios (notamment en fonction d'une typologie de produit et de doses à apporter). Dans ce sens, cela aboutirait à terme à un progrès significatif dans la gestion de la matière organique.</t>
+  </si>
+  <si>
+    <t>Description du projet</t>
+  </si>
+  <si>
+    <t>Un réseau de 6 parcelles a été mis en place à l'échelle nationale. Sur ce réseau, il s’agit d’acquérir les données concernant le sol, la plante et les produits épandus (variables selon les sites).
+Les parcelles d’expérimentation ont été mises en place l’hiver 2008-2009 pour certaines et l’hiver 2009-2010 pour d’autres.</t>
+  </si>
+  <si>
+    <t>Financeur(s) du projet. Séparer par ";"</t>
+  </si>
+  <si>
+    <t>FranceAgriMer;CNIV</t>
+  </si>
+  <si>
+    <t>Identifiant de la ou des conventions administratives liées au projet. Séparer par ";"</t>
+  </si>
+  <si>
+    <t>GARP:2069;GARP:2051</t>
+  </si>
+  <si>
+    <t>soil</t>
+  </si>
+  <si>
+    <t>Descriptif du type de sol</t>
+  </si>
+  <si>
+    <t>sol fersiallitique typique des costières de Nîmes</t>
+  </si>
+  <si>
+    <t>Profondeur de sol accessible aux racines de la vigne, en m</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>Texture dominante du sol accessible au racine (texture 17 classes GEPPA)</t>
   </si>
   <si>
     <t>L:limoneux</t>
   </si>
   <si>
-    <t>Sl:sablo-limoneux</t>
-  </si>
-  <si>
-    <t>S:Sableux</t>
-  </si>
-  <si>
-    <t>soil_ston</t>
-  </si>
-  <si>
-    <t>N:aucun cailloux</t>
-  </si>
-  <si>
-    <t>V:très peu (0-2%)</t>
-  </si>
-  <si>
-    <t>F:peu 2-5%</t>
-  </si>
-  <si>
-    <t>C:fréquent 5-15%</t>
-  </si>
-  <si>
-    <t>M:beaucoup 15-40%</t>
-  </si>
-  <si>
-    <t>A:abondant 40-80%</t>
-  </si>
-  <si>
-    <t>D:majoritaire &gt;80%</t>
-  </si>
-  <si>
-    <t>S:concentré sur une couche</t>
-  </si>
-  <si>
-    <t>Année de début</t>
-  </si>
-  <si>
-    <t>Année de fin</t>
-  </si>
-  <si>
-    <t>Irrigation</t>
-  </si>
-  <si>
-    <t>Fertilisation azotée</t>
-  </si>
-  <si>
-    <t>Forme azote</t>
-  </si>
-  <si>
-    <t>Description fertilisation</t>
-  </si>
-  <si>
-    <t>Mode d'apport</t>
-  </si>
-  <si>
-    <t>Code entretien sol</t>
-  </si>
-  <si>
-    <t>Description de l'entretien du sol</t>
-  </si>
-  <si>
-    <t>itk_n_type</t>
-  </si>
-  <si>
-    <t>minérale</t>
-  </si>
-  <si>
-    <t>organique</t>
-  </si>
-  <si>
-    <t>organo-minérale</t>
-  </si>
-  <si>
-    <t>fertilizer_applic_method</t>
-  </si>
-  <si>
-    <t>au sol</t>
-  </si>
-  <si>
-    <t>fertirrigation</t>
-  </si>
-  <si>
-    <t>foliaire</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>annot_type</t>
-  </si>
-  <si>
-    <t>Remarque</t>
-  </si>
-  <si>
-    <t>Résultat</t>
-  </si>
-  <si>
-    <t>Evénement</t>
+    <t>Outil de calcul de la texture du sol : https://www.nrcs.usda.gov/wps/portal/nrcs/detailfull/soils/research/guide/?cid=NRCS142P2_054167</t>
+  </si>
+  <si>
+    <t>Abondance des cailloux en volume (FAO,2006)</t>
+  </si>
+  <si>
+    <t>Teneur du sol en matière organique sur l'horizon de surface en %</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>pHeau du sol sur l'horizon de surface</t>
+  </si>
+  <si>
+    <t>6.5</t>
+  </si>
+  <si>
+    <t>Réservoir utile en eau du sol, en mm</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>Nom du fichier associé à la description du sol (analyse de sol)</t>
+  </si>
+  <si>
+    <t>analyse0-15.pdf</t>
+  </si>
+  <si>
+    <t>Code du traitement expérimental</t>
+  </si>
+  <si>
+    <t>N-IR</t>
+  </si>
+  <si>
+    <t>Combinaison de modalités (ou niveaux de facteurs). Utiliser le séparateur ";" sans espace.</t>
+  </si>
+  <si>
+    <t>N;IR</t>
+  </si>
+  <si>
+    <t>Commentaires sur le traitement expérimental</t>
+  </si>
+  <si>
+    <t>Fertilisé (30U N/ha) et irrigué en goutte-à-goutte</t>
+  </si>
+  <si>
+    <t>Nom de la variable de référence (nom standardisé). Utilisez ceux de la Vitis Ontology.</t>
+  </si>
+  <si>
+    <t>MUST_pH</t>
+  </si>
+  <si>
+    <t>measure</t>
+  </si>
+  <si>
+    <t>Code traitement expérimental</t>
+  </si>
+  <si>
+    <t>Code du traitement expérimental appliqué</t>
+  </si>
+  <si>
+    <t>Répétition</t>
+  </si>
+  <si>
+    <t>Code de la répétition du traitement expérimental (bloc, numéro...)</t>
+  </si>
+  <si>
+    <t>measure,wine</t>
+  </si>
+  <si>
+    <t>Millésime</t>
+  </si>
+  <si>
+    <t>Année au cours de laquelle les raisins ont été récoltés</t>
+  </si>
+  <si>
+    <t>Date de mesure</t>
+  </si>
+  <si>
+    <t>Date de réalisation de la mesure. Format AAAA-MM-JJ</t>
+  </si>
+  <si>
+    <t>2023-06-13</t>
+  </si>
+  <si>
+    <t>Stade phénologique</t>
+  </si>
+  <si>
+    <t>Stade phénologique lors de la mesure (échelle BBCH)</t>
+  </si>
+  <si>
+    <t>BBCH 57</t>
   </si>
 </sst>
 </file>
@@ -2135,7 +2793,6 @@
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2175,6 +2832,46 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4680000" cy="4320000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2239,35 +2936,49 @@
 </table>
 </file>
 
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table15" displayName="Table15" ref="A1:E107" totalsRowShown="0">
+  <autoFilter ref="A1:E107" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="label_fr"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0C00-000003000000}" name="description"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="example"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="help"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:H2" totalsRowShown="0">
-  <autoFilter ref="A1:H2" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="URI projet"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table4" displayName="Table4" ref="A1:I2" totalsRowShown="0">
+  <autoFilter ref="A1:I2" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Identifiant projet"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Titre du projet"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Acronyme"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Date début"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Date fin"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Objectif"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Description"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Support financier"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Financeurs"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Identifiant convention"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="A1:H2" totalsRowShown="0">
-  <autoFilter ref="A1:H2" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="URI expérimentation"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table5" displayName="Table5" ref="A1:G2" totalsRowShown="0">
+  <autoFilter ref="A1:G2" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Identifiant expérimentation"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Nom"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Date de début"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Date de fin"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Objectif"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Description"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Projet"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Organisation"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Organisation"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2288,12 +2999,13 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table7" displayName="Table7" ref="A1:C2" totalsRowShown="0">
-  <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table7" displayName="Table7" ref="A1:D2" totalsRowShown="0">
+  <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Modalité"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Description de la modalité"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Catégorie de facteur"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Facteur"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Identifiant modalité"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2303,8 +3015,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table8" displayName="Table8" ref="A1:D2" totalsRowShown="0">
   <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Traitement"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Combinaison de niveaux de facteurs"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Traitement expérimental"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Combinaison de modalités"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Nombre de répétition"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Commentaires"/>
   </tableColumns>
@@ -2323,7 +3035,7 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Caractéristique"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="Méthode"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Granularité des données"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="URI référence"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Identifiant variable"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="Nom référence"/>
     <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="Conversion référence"/>
   </tableColumns>
@@ -2332,9 +3044,9 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table10" displayName="Table10" ref="A1:AA2" totalsRowShown="0">
-  <autoFilter ref="A1:AA2" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
-  <tableColumns count="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table10" displayName="Table10" ref="A1:AC2" totalsRowShown="0">
+  <autoFilter ref="A1:AC2" xr:uid="{00000000-0009-0000-0100-00000A000000}"/>
+  <tableColumns count="29">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Identifiant de la parcelle"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Nom de la parcelle"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Description de la parcelle"/>
@@ -2362,6 +3074,8 @@
     <tableColumn id="25" xr3:uid="{00000000-0010-0000-0700-000019000000}" name="Altitude"/>
     <tableColumn id="26" xr3:uid="{00000000-0010-0000-0700-00001A000000}" name="Orientation des rangs"/>
     <tableColumn id="27" xr3:uid="{00000000-0010-0000-0700-00001B000000}" name="Pente"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0700-00001C000000}" name="Identifiant Greffon"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0700-00001D000000}" name="Identifiant Porte-greffe"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2662,7 +3376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2676,46 +3390,46 @@
         <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="H1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="J1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="L1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="M1" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="N1" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="O1" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="P1" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -2726,46 +3440,46 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="H2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="J2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="K2" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="M2" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="N2" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="O2" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="P2" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -2776,46 +3490,46 @@
         <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="H3" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I3" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="J3" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="K3" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L3" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M3" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="N3" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="O3" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="P3" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -2826,46 +3540,46 @@
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="H4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I4" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="J4" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="K4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L4" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="M4" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="N4" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="O4" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="P4" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -2876,133 +3590,186 @@
         <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="G5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I5" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="K5" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="L5" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="M5" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F6" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="H6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I6" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="K6" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="L6" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M6" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="H7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="L7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="M7" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="H8" t="s">
-        <v>126</v>
+        <v>131</v>
+      </c>
+      <c r="L8" t="s">
+        <v>170</v>
       </c>
       <c r="M8" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="H9" t="s">
-        <v>127</v>
+        <v>132</v>
+      </c>
+      <c r="L9" t="s">
+        <v>171</v>
       </c>
       <c r="M9" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>117</v>
+        <v>122</v>
+      </c>
+      <c r="L10" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>118</v>
+        <v>123</v>
+      </c>
+      <c r="L11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L13" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L18" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3030,25 +3797,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -3110,31 +3877,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="E1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="F1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="G1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="H1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -3174,16 +3941,17 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0A00-000001000000}">
           <x14:formula1>
-            <xm:f>listes!$L$2:$L$7</xm:f>
+            <xm:f>listes!$L$2:$L$18</xm:f>
           </x14:formula1>
           <xm:sqref>D2:D100</xm:sqref>
         </x14:dataValidation>
@@ -3221,37 +3989,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B1" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="C1" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="D1" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="E1" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="F1" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="G1" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="H1" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="I1" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="J1" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="K1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -3331,10 +4099,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="B1" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
@@ -3370,6 +4138,1538 @@
       </x14:dataValidations>
     </ext>
   </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+  <dimension ref="A1:E107"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G114" sqref="G114"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C4" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>229</v>
+      </c>
+      <c r="D6" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D9" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>235</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" t="s">
+        <v>237</v>
+      </c>
+      <c r="D11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" t="s">
+        <v>242</v>
+      </c>
+      <c r="D13" t="s">
+        <v>243</v>
+      </c>
+      <c r="E13" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>246</v>
+      </c>
+      <c r="D14" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>245</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" t="s">
+        <v>251</v>
+      </c>
+      <c r="D16" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>245</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>245</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>255</v>
+      </c>
+      <c r="D18" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>245</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>257</v>
+      </c>
+      <c r="D19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>259</v>
+      </c>
+      <c r="B20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>259</v>
+      </c>
+      <c r="B21" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>259</v>
+      </c>
+      <c r="B22" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" t="s">
+        <v>263</v>
+      </c>
+      <c r="D22" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>259</v>
+      </c>
+      <c r="B23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" t="s">
+        <v>265</v>
+      </c>
+      <c r="D23" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>259</v>
+      </c>
+      <c r="B24" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>259</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>259</v>
+      </c>
+      <c r="B26" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" t="s">
+        <v>269</v>
+      </c>
+      <c r="D26" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>271</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>271</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>273</v>
+      </c>
+      <c r="D28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>271</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>275</v>
+      </c>
+      <c r="D29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>271</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>277</v>
+      </c>
+      <c r="D30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>271</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" t="s">
+        <v>279</v>
+      </c>
+      <c r="D31" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>271</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>281</v>
+      </c>
+      <c r="D32" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>271</v>
+      </c>
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>283</v>
+      </c>
+      <c r="D33" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>285</v>
+      </c>
+      <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>286</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>285</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>287</v>
+      </c>
+      <c r="D35" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>285</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36" t="s">
+        <v>289</v>
+      </c>
+      <c r="D36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>285</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>292</v>
+      </c>
+      <c r="B38" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" t="s">
+        <v>293</v>
+      </c>
+      <c r="D38" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>292</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" t="s">
+        <v>295</v>
+      </c>
+      <c r="D39" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>292</v>
+      </c>
+      <c r="B40" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" t="s">
+        <v>297</v>
+      </c>
+      <c r="D40" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>292</v>
+      </c>
+      <c r="B41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" t="s">
+        <v>299</v>
+      </c>
+      <c r="D41" t="s">
+        <v>300</v>
+      </c>
+      <c r="E41" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>292</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
+        <v>302</v>
+      </c>
+      <c r="D42" t="s">
+        <v>303</v>
+      </c>
+      <c r="E42" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>292</v>
+      </c>
+      <c r="B43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" t="s">
+        <v>304</v>
+      </c>
+      <c r="D43" t="s">
+        <v>305</v>
+      </c>
+      <c r="E43" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>292</v>
+      </c>
+      <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" t="s">
+        <v>307</v>
+      </c>
+      <c r="D44" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>292</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
+        <v>309</v>
+      </c>
+      <c r="D45" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>292</v>
+      </c>
+      <c r="B46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" t="s">
+        <v>311</v>
+      </c>
+      <c r="D46" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>292</v>
+      </c>
+      <c r="B47" t="s">
+        <v>82</v>
+      </c>
+      <c r="C47" t="s">
+        <v>313</v>
+      </c>
+      <c r="D47" t="s">
+        <v>314</v>
+      </c>
+      <c r="E47" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>292</v>
+      </c>
+      <c r="B48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" t="s">
+        <v>316</v>
+      </c>
+      <c r="D48" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>292</v>
+      </c>
+      <c r="B49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C49" t="s">
+        <v>318</v>
+      </c>
+      <c r="D49" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>292</v>
+      </c>
+      <c r="B50" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" t="s">
+        <v>320</v>
+      </c>
+      <c r="D50" t="s">
+        <v>321</v>
+      </c>
+      <c r="E50" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>292</v>
+      </c>
+      <c r="B51" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" t="s">
+        <v>323</v>
+      </c>
+      <c r="D51" t="s">
+        <v>324</v>
+      </c>
+      <c r="E51" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>292</v>
+      </c>
+      <c r="B52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" t="s">
+        <v>325</v>
+      </c>
+      <c r="D52" t="s">
+        <v>326</v>
+      </c>
+      <c r="E52" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>292</v>
+      </c>
+      <c r="B53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" t="s">
+        <v>328</v>
+      </c>
+      <c r="D53" t="s">
+        <v>329</v>
+      </c>
+      <c r="E53" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>292</v>
+      </c>
+      <c r="B54" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" t="s">
+        <v>330</v>
+      </c>
+      <c r="D54" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>292</v>
+      </c>
+      <c r="B55" t="s">
+        <v>89</v>
+      </c>
+      <c r="C55" t="s">
+        <v>332</v>
+      </c>
+      <c r="D55" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>292</v>
+      </c>
+      <c r="B56" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" t="s">
+        <v>334</v>
+      </c>
+      <c r="D56" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>292</v>
+      </c>
+      <c r="B57" t="s">
+        <v>91</v>
+      </c>
+      <c r="C57" t="s">
+        <v>336</v>
+      </c>
+      <c r="D57" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>292</v>
+      </c>
+      <c r="B58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C58" t="s">
+        <v>337</v>
+      </c>
+      <c r="D58" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>292</v>
+      </c>
+      <c r="B59" t="s">
+        <v>93</v>
+      </c>
+      <c r="C59" t="s">
+        <v>339</v>
+      </c>
+      <c r="D59" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>292</v>
+      </c>
+      <c r="B60" t="s">
+        <v>94</v>
+      </c>
+      <c r="C60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D60" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>292</v>
+      </c>
+      <c r="B61" t="s">
+        <v>95</v>
+      </c>
+      <c r="C61" t="s">
+        <v>340</v>
+      </c>
+      <c r="D61" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>292</v>
+      </c>
+      <c r="B62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" t="s">
+        <v>341</v>
+      </c>
+      <c r="D62" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>292</v>
+      </c>
+      <c r="B63" t="s">
+        <v>97</v>
+      </c>
+      <c r="C63" t="s">
+        <v>343</v>
+      </c>
+      <c r="D63" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>292</v>
+      </c>
+      <c r="B64" t="s">
+        <v>98</v>
+      </c>
+      <c r="C64" t="s">
+        <v>345</v>
+      </c>
+      <c r="D64" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>292</v>
+      </c>
+      <c r="B65" t="s">
+        <v>99</v>
+      </c>
+      <c r="C65" t="s">
+        <v>347</v>
+      </c>
+      <c r="D65" t="s">
+        <v>346</v>
+      </c>
+      <c r="E65" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>349</v>
+      </c>
+      <c r="B66" t="s">
+        <v>74</v>
+      </c>
+      <c r="C66" t="s">
+        <v>350</v>
+      </c>
+      <c r="D66" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>352</v>
+      </c>
+      <c r="B67" t="s">
+        <v>154</v>
+      </c>
+      <c r="C67" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>352</v>
+      </c>
+      <c r="B68" t="s">
+        <v>190</v>
+      </c>
+      <c r="C68" t="s">
+        <v>353</v>
+      </c>
+      <c r="D68" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>352</v>
+      </c>
+      <c r="B69" t="s">
+        <v>191</v>
+      </c>
+      <c r="C69" t="s">
+        <v>355</v>
+      </c>
+      <c r="D69" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>352</v>
+      </c>
+      <c r="B70" t="s">
+        <v>192</v>
+      </c>
+      <c r="C70" t="s">
+        <v>357</v>
+      </c>
+      <c r="D70" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>352</v>
+      </c>
+      <c r="B71" t="s">
+        <v>193</v>
+      </c>
+      <c r="C71" t="s">
+        <v>359</v>
+      </c>
+      <c r="D71" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>352</v>
+      </c>
+      <c r="B72" t="s">
+        <v>194</v>
+      </c>
+      <c r="C72" t="s">
+        <v>361</v>
+      </c>
+      <c r="D72" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>352</v>
+      </c>
+      <c r="B73" t="s">
+        <v>195</v>
+      </c>
+      <c r="C73" t="s">
+        <v>362</v>
+      </c>
+      <c r="D73" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>352</v>
+      </c>
+      <c r="B74" t="s">
+        <v>196</v>
+      </c>
+      <c r="C74" t="s">
+        <v>364</v>
+      </c>
+      <c r="D74" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>352</v>
+      </c>
+      <c r="B75" t="s">
+        <v>197</v>
+      </c>
+      <c r="C75" t="s">
+        <v>365</v>
+      </c>
+      <c r="D75" t="s">
+        <v>366</v>
+      </c>
+      <c r="E75" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>352</v>
+      </c>
+      <c r="B76" t="s">
+        <v>198</v>
+      </c>
+      <c r="C76" t="s">
+        <v>368</v>
+      </c>
+      <c r="D76" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>352</v>
+      </c>
+      <c r="B77" t="s">
+        <v>162</v>
+      </c>
+      <c r="C77" t="s">
+        <v>370</v>
+      </c>
+      <c r="D77" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>372</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>373</v>
+      </c>
+      <c r="D78" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>372</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>375</v>
+      </c>
+      <c r="D79" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>372</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>377</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>378</v>
+      </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>378</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>378</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" t="s">
+        <v>381</v>
+      </c>
+      <c r="D83" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>378</v>
+      </c>
+      <c r="B84" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84" t="s">
+        <v>383</v>
+      </c>
+      <c r="D84" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>378</v>
+      </c>
+      <c r="B85" t="s">
+        <v>14</v>
+      </c>
+      <c r="C85" t="s">
+        <v>385</v>
+      </c>
+      <c r="D85" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>378</v>
+      </c>
+      <c r="B86" t="s">
+        <v>15</v>
+      </c>
+      <c r="C86" t="s">
+        <v>387</v>
+      </c>
+      <c r="D86" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>378</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" t="s">
+        <v>389</v>
+      </c>
+      <c r="D87" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>378</v>
+      </c>
+      <c r="B88" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" t="s">
+        <v>391</v>
+      </c>
+      <c r="D88" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>378</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" t="s">
+        <v>393</v>
+      </c>
+      <c r="D89" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>395</v>
+      </c>
+      <c r="B90" t="s">
+        <v>154</v>
+      </c>
+      <c r="C90" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>395</v>
+      </c>
+      <c r="B91" t="s">
+        <v>155</v>
+      </c>
+      <c r="C91" t="s">
+        <v>396</v>
+      </c>
+      <c r="D91" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>395</v>
+      </c>
+      <c r="B92" t="s">
+        <v>156</v>
+      </c>
+      <c r="C92" t="s">
+        <v>398</v>
+      </c>
+      <c r="D92" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>395</v>
+      </c>
+      <c r="B93" t="s">
+        <v>157</v>
+      </c>
+      <c r="C93" t="s">
+        <v>400</v>
+      </c>
+      <c r="D93" t="s">
+        <v>401</v>
+      </c>
+      <c r="E93" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>395</v>
+      </c>
+      <c r="B94" t="s">
+        <v>158</v>
+      </c>
+      <c r="C94" t="s">
+        <v>403</v>
+      </c>
+      <c r="D94" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>395</v>
+      </c>
+      <c r="B95" t="s">
+        <v>159</v>
+      </c>
+      <c r="C95" t="s">
+        <v>404</v>
+      </c>
+      <c r="D95" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>395</v>
+      </c>
+      <c r="B96" t="s">
+        <v>160</v>
+      </c>
+      <c r="C96" t="s">
+        <v>406</v>
+      </c>
+      <c r="D96" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>395</v>
+      </c>
+      <c r="B97" t="s">
+        <v>161</v>
+      </c>
+      <c r="C97" t="s">
+        <v>408</v>
+      </c>
+      <c r="D97" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>395</v>
+      </c>
+      <c r="B98" t="s">
+        <v>162</v>
+      </c>
+      <c r="C98" t="s">
+        <v>410</v>
+      </c>
+      <c r="D98" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>250</v>
+      </c>
+      <c r="B99" t="s">
+        <v>48</v>
+      </c>
+      <c r="C99" t="s">
+        <v>412</v>
+      </c>
+      <c r="D99" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>250</v>
+      </c>
+      <c r="B100" t="s">
+        <v>49</v>
+      </c>
+      <c r="C100" t="s">
+        <v>414</v>
+      </c>
+      <c r="D100" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>250</v>
+      </c>
+      <c r="B101" t="s">
+        <v>51</v>
+      </c>
+      <c r="C101" t="s">
+        <v>416</v>
+      </c>
+      <c r="D101" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>225</v>
+      </c>
+      <c r="B102" t="s">
+        <v>60</v>
+      </c>
+      <c r="C102" t="s">
+        <v>418</v>
+      </c>
+      <c r="D102" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>420</v>
+      </c>
+      <c r="B103" t="s">
+        <v>421</v>
+      </c>
+      <c r="C103" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>420</v>
+      </c>
+      <c r="B104" t="s">
+        <v>423</v>
+      </c>
+      <c r="C104" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>425</v>
+      </c>
+      <c r="B105" t="s">
+        <v>426</v>
+      </c>
+      <c r="C105" t="s">
+        <v>427</v>
+      </c>
+      <c r="D105" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>420</v>
+      </c>
+      <c r="B106" t="s">
+        <v>428</v>
+      </c>
+      <c r="C106" t="s">
+        <v>429</v>
+      </c>
+      <c r="D106" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>420</v>
+      </c>
+      <c r="B107" t="s">
+        <v>431</v>
+      </c>
+      <c r="C107" t="s">
+        <v>432</v>
+      </c>
+      <c r="D107" t="s">
+        <v>433</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -3432,22 +5732,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
     <col min="3" max="3" width="8.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="11.7109375" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -3472,8 +5775,11 @@
       <c r="H1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3496,6 +5802,9 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3511,34 +5820,33 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="2" max="2" width="3.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>15</v>
@@ -3547,13 +5855,10 @@
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3573,9 +5878,6 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3650,7 +5952,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
-            <xm:f>listes!$B$2:$B$5</xm:f>
+            <xm:f>listes!$B$2:$B$7</xm:f>
           </x14:formula1>
           <xm:sqref>B2:B100</xm:sqref>
         </x14:dataValidation>
@@ -3662,7 +5964,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3670,21 +5972,25 @@
   <cols>
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -3692,6 +5998,9 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3725,24 +6034,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.7109375" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -3773,9 +6082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3786,40 +6093,41 @@
     <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="7" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="9" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.7109375" customWidth="1"/>
     <col min="10" max="10" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -3884,7 +6192,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:AA2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3916,92 +6224,100 @@
     <col min="25" max="25" width="8.7109375" customWidth="1"/>
     <col min="26" max="26" width="21.7109375" customWidth="1"/>
     <col min="27" max="27" width="5.7109375" customWidth="1"/>
+    <col min="28" max="28" width="19.7109375" customWidth="1"/>
+    <col min="29" max="29" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="L1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="N1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="O1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="Q1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="R1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="S1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="T1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="U1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="V1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="W1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="X1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Y1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Z1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AA1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -4081,6 +6397,12 @@
         <v>3</v>
       </c>
       <c r="AA2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" t="s">
         <v>3</v>
       </c>
     </row>

--- a/template.xlsx
+++ b/template.xlsx
@@ -13,7 +13,7 @@
     <sheet name="design" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="moda" sheetId="6" state="visible" r:id="rId6"/>
     <sheet name="treatment_xp" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="data_dictionnary" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="data_dictionary" sheetId="8" state="visible" r:id="rId8"/>
     <sheet name="field" sheetId="9" state="visible" r:id="rId9"/>
     <sheet name="estate" sheetId="10" state="visible" r:id="rId10"/>
     <sheet name="soil" sheetId="11" state="visible" r:id="rId11"/>
@@ -50,27 +50,28 @@
     <definedName name="factor_value_desc">'moda'!$B$2:$B$100</definedName>
     <definedName name="main_experiment_factor">'moda'!$C$2:$C$100</definedName>
     <definedName name="factor_uri">'moda'!$D$2:$D$100</definedName>
-    <definedName name="treatment_name">'treatment_xp'!$A$2:$A$100</definedName>
-    <definedName name="experimental_factor_comb">'treatment_xp'!$B$2:$B$100</definedName>
-    <definedName name="number_of_replicates">'treatment_xp'!$C$2:$C$100</definedName>
-    <definedName name="tr_notes">'treatment_xp'!$D$2:$D$100</definedName>
-    <definedName name="variable_name">'data_dictionnary'!$A$2:$A$100</definedName>
-    <definedName name="var_desc">'data_dictionnary'!$B$2:$B$100</definedName>
-    <definedName name="data_type">'data_dictionnary'!$C$2:$C$100</definedName>
-    <definedName name="unit">'data_dictionnary'!$D$2:$D$100</definedName>
-    <definedName name="var_trait">'data_dictionnary'!$E$2:$E$100</definedName>
-    <definedName name="var_method">'data_dictionnary'!$F$2:$F$100</definedName>
-    <definedName name="data_granularity">'data_dictionnary'!$G$2:$G$100</definedName>
-    <definedName name="var_ref_uri">'data_dictionnary'!$H$2:$H$100</definedName>
-    <definedName name="var_ref_name">'data_dictionnary'!$I$2:$I$100</definedName>
-    <definedName name="var_ref_conv">'data_dictionnary'!$J$2:$J$100</definedName>
+    <definedName name="tr_field">'treatment_xp'!$A$2:$A$100</definedName>
+    <definedName name="treatment_name">'treatment_xp'!$B$2:$B$100</definedName>
+    <definedName name="experimental_factor_comb">'treatment_xp'!$C$2:$C$100</definedName>
+    <definedName name="number_of_replicates">'treatment_xp'!$D$2:$D$100</definedName>
+    <definedName name="tr_notes">'treatment_xp'!$E$2:$E$100</definedName>
+    <definedName name="variable_name">'data_dictionary'!$A$2:$A$100</definedName>
+    <definedName name="var_desc">'data_dictionary'!$B$2:$B$100</definedName>
+    <definedName name="data_type">'data_dictionary'!$C$2:$C$100</definedName>
+    <definedName name="unit">'data_dictionary'!$D$2:$D$100</definedName>
+    <definedName name="var_trait">'data_dictionary'!$E$2:$E$100</definedName>
+    <definedName name="var_method">'data_dictionary'!$F$2:$F$100</definedName>
+    <definedName name="data_granularity">'data_dictionary'!$G$2:$G$100</definedName>
+    <definedName name="var_ref_uri">'data_dictionary'!$H$2:$H$100</definedName>
+    <definedName name="var_ref_name">'data_dictionary'!$I$2:$I$100</definedName>
+    <definedName name="var_ref_conv">'data_dictionary'!$J$2:$J$100</definedName>
     <definedName name="field_id">'field'!$A$2:$A$100</definedName>
     <definedName name="field_name">'field'!$B$2:$B$100</definedName>
     <definedName name="field_notes">'field'!$C$2:$C$100</definedName>
     <definedName name="field_commune">'field'!$D$2:$D$100</definedName>
     <definedName name="field_insee_commune">'field'!$E$2:$E$100</definedName>
     <definedName name="field_cadas">'field'!$F$2:$F$100</definedName>
-    <definedName name="field_bassin">'field'!$G$2:$G$100</definedName>
+    <definedName name="field_wine_area">'field'!$G$2:$G$100</definedName>
     <definedName name="field_latitude">'field'!$H$2:$H$100</definedName>
     <definedName name="field_longitude">'field'!$I$2:$I$100</definedName>
     <definedName name="field_geometry">'field'!$J$2:$J$100</definedName>
@@ -927,11 +928,23 @@
             <color rgb="FF000000"/>
             <name val="Tahoma"/>
           </rPr>
+          <t xml:space="preserve">Parcelle sur laquelle est mis en place le traitement expérimental</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <name val="Tahoma"/>
+          </rPr>
           <t xml:space="preserve">Code du traitement expérimental</t>
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -943,7 +956,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -955,7 +968,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1460,7 +1473,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="438">
   <si>
     <t xml:space="preserve">Contact nom</t>
   </si>
@@ -1606,6 +1619,9 @@
     <t xml:space="preserve">irrigation</t>
   </si>
   <si>
+    <t xml:space="preserve">Parcelle</t>
+  </si>
+  <si>
     <t xml:space="preserve">Traitement expérimental</t>
   </si>
   <si>
@@ -1768,7 +1784,7 @@
     <t xml:space="preserve">Identifiant Porte-greffe</t>
   </si>
   <si>
-    <t xml:space="preserve">field_bassin</t>
+    <t xml:space="preserve">field_wine_area</t>
   </si>
   <si>
     <t xml:space="preserve">Alsace Est</t>
@@ -1798,7 +1814,7 @@
     <t xml:space="preserve">Val-de-Loire-Centre</t>
   </si>
   <si>
-    <t xml:space="preserve"> Vallée-du-Rhône-Provence</t>
+    <t xml:space="preserve">Vallée-du-Rhône-Provence</t>
   </si>
   <si>
     <t xml:space="preserve">field_pruning</t>
@@ -1924,9 +1940,6 @@
     <t xml:space="preserve">Surface en vigne (ha)</t>
   </si>
   <si>
-    <t xml:space="preserve">Parcelle</t>
-  </si>
-  <si>
     <t xml:space="preserve">Description sol</t>
   </si>
   <si>
@@ -2137,7 +2150,7 @@
     <t xml:space="preserve">2008-06-21</t>
   </si>
   <si>
-    <t xml:space="preserve">data_dictionnary</t>
+    <t xml:space="preserve">data_dictionary</t>
   </si>
   <si>
     <t xml:space="preserve">Nom de variable</t>
@@ -2243,6 +2256,9 @@
   </si>
   <si>
     <t xml:space="preserve">Nom de la parcelle expérimentale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Mas</t>
   </si>
   <si>
     <t xml:space="preserve">Nom de l'exploitation agricole (ou domaine)</t>
@@ -2725,6 +2741,9 @@
   </si>
   <si>
     <t xml:space="preserve">Fertilisé (30U N/ha) et irrigué en goutte-à-goutte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcelle sur laquelle est mis en place le traitement expérimental</t>
   </si>
   <si>
     <t xml:space="preserve">Nom de la variable de référence (nom standardisé). Utilisez ceux de la Vitis Ontology.</t>
@@ -2959,8 +2978,8 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A1:E107" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:E107"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A1:E108" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:E108"/>
   <tableColumns count="5">
     <tableColumn id="1" name="name"/>
     <tableColumn id="2" name="label_fr"/>
@@ -3046,13 +3065,14 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:D2" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:D2"/>
-  <tableColumns count="4">
-    <tableColumn id="1" name="Traitement expérimental"/>
-    <tableColumn id="2" name="Combinaison de modalités"/>
-    <tableColumn id="3" name="Nombre de répétition"/>
-    <tableColumn id="4" name="Commentaires"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:E2" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:E2"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Parcelle"/>
+    <tableColumn id="2" name="Traitement expérimental"/>
+    <tableColumn id="3" name="Combinaison de modalités"/>
+    <tableColumn id="4" name="Nombre de répétition"/>
+    <tableColumn id="5" name="Commentaires"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3373,28 +3393,28 @@
         <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L1" t="s">
         <v>163</v>
@@ -3423,28 +3443,28 @@
         <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L2" t="s">
         <v>164</v>
@@ -3473,28 +3493,28 @@
         <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L3" t="s">
         <v>165</v>
@@ -3523,28 +3543,28 @@
         <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L4" t="s">
         <v>166</v>
@@ -3573,22 +3593,22 @@
         <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H5" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L5" t="s">
         <v>167</v>
@@ -3608,22 +3628,22 @@
         <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I6" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L6" t="s">
         <v>168</v>
@@ -3640,16 +3660,16 @@
         <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L7" t="s">
         <v>169</v>
@@ -3663,13 +3683,13 @@
         <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H8" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L8" t="s">
         <v>170</v>
@@ -3680,13 +3700,13 @@
     </row>
     <row r="9">
       <c r="F9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H9" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L9" t="s">
         <v>171</v>
@@ -3697,10 +3717,10 @@
     </row>
     <row r="10">
       <c r="F10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s">
         <v>172</v>
@@ -3708,10 +3728,10 @@
     </row>
     <row r="11">
       <c r="F11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L11" t="s">
         <v>173</v>
@@ -3777,25 +3797,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
       </c>
       <c r="F1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G1" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -3857,7 +3877,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
         <v>155</v>
@@ -3970,7 +3990,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
         <v>190</v>
@@ -4228,13 +4248,13 @@
         <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E7"/>
     </row>
@@ -4243,7 +4263,7 @@
         <v>225</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
         <v>231</v>
@@ -4258,7 +4278,7 @@
         <v>225</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
         <v>233</v>
@@ -4273,13 +4293,13 @@
         <v>225</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
         <v>235</v>
       </c>
       <c r="D10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10"/>
     </row>
@@ -4303,7 +4323,7 @@
         <v>225</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
         <v>239</v>
@@ -4320,7 +4340,7 @@
         <v>225</v>
       </c>
       <c r="B13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
         <v>242</v>
@@ -4367,7 +4387,7 @@
         <v>250</v>
       </c>
       <c r="B16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" t="s">
         <v>251</v>
@@ -4427,12 +4447,14 @@
         <v>259</v>
       </c>
       <c r="B20" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="C20" t="s">
         <v>260</v>
       </c>
-      <c r="D20"/>
+      <c r="D20" t="s">
+        <v>261</v>
+      </c>
       <c r="E20"/>
     </row>
     <row r="21">
@@ -4440,13 +4462,13 @@
         <v>259</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D21" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E21"/>
     </row>
@@ -4455,13 +4477,13 @@
         <v>259</v>
       </c>
       <c r="B22" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D22" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="E22"/>
     </row>
@@ -4470,13 +4492,13 @@
         <v>259</v>
       </c>
       <c r="B23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D23" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E23"/>
     </row>
@@ -4485,10 +4507,10 @@
         <v>259</v>
       </c>
       <c r="B24" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C24" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
@@ -4501,7 +4523,7 @@
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D25"/>
       <c r="E25"/>
@@ -4511,128 +4533,128 @@
         <v>259</v>
       </c>
       <c r="B26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C26" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D26" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B27" t="s">
         <v>19</v>
       </c>
       <c r="C27" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D27"/>
       <c r="E27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B28" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C28" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D28" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
       </c>
       <c r="C29" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D29" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s">
         <v>22</v>
       </c>
       <c r="C30" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D30" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D32" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B33" t="s">
         <v>23</v>
       </c>
       <c r="C33" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D33" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B34" t="s">
         <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D34" t="s">
         <v>46</v>
@@ -4641,508 +4663,508 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D35" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D36" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B37" t="s">
         <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D37"/>
       <c r="E37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D38" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D39" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D40" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D41" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E41" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C42" t="s">
+        <v>304</v>
+      </c>
+      <c r="D42" t="s">
+        <v>305</v>
+      </c>
+      <c r="E42" t="s">
         <v>303</v>
-      </c>
-      <c r="D42" t="s">
-        <v>304</v>
-      </c>
-      <c r="E42" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D43" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E43" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E44" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D45" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D46" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D47" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E47" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D48" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D49" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D50" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E50" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C51" t="s">
+        <v>325</v>
+      </c>
+      <c r="D51" t="s">
+        <v>326</v>
+      </c>
+      <c r="E51" t="s">
         <v>324</v>
-      </c>
-      <c r="D51" t="s">
-        <v>325</v>
-      </c>
-      <c r="E51" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D52" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E52" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C53" t="s">
+        <v>330</v>
+      </c>
+      <c r="D53" t="s">
+        <v>331</v>
+      </c>
+      <c r="E53" t="s">
         <v>329</v>
-      </c>
-      <c r="D53" t="s">
-        <v>330</v>
-      </c>
-      <c r="E53" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C54" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D54" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C55" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D55" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C56" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D56" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="E56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C57" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D57" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C58" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D58" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B59" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C59" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="D59" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B60" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D60" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B61" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C61" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D61" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B62" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C62" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="D62" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B63" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C63" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D63" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B64" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C64" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="D64" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="E64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B65" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C65" t="s">
+        <v>349</v>
+      </c>
+      <c r="D65" t="s">
         <v>348</v>
       </c>
-      <c r="D65" t="s">
-        <v>347</v>
-      </c>
       <c r="E65" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B66" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C66" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D66" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B67" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="C67" t="s">
         <v>260</v>
@@ -5152,73 +5174,73 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B68" t="s">
         <v>190</v>
       </c>
       <c r="C68" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D68" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="E68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B69" t="s">
         <v>191</v>
       </c>
       <c r="C69" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D69" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B70" t="s">
         <v>192</v>
       </c>
       <c r="C70" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D70" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="E70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B71" t="s">
         <v>193</v>
       </c>
       <c r="C71" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D71" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B72" t="s">
         <v>194</v>
       </c>
       <c r="C72" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D72" t="s">
         <v>200</v>
@@ -5227,28 +5249,28 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B73" t="s">
         <v>195</v>
       </c>
       <c r="C73" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="D73" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B74" t="s">
         <v>196</v>
       </c>
       <c r="C74" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D74" t="s">
         <v>204</v>
@@ -5257,90 +5279,90 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B75" t="s">
         <v>197</v>
       </c>
       <c r="C75" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D75" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E75" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B76" t="s">
         <v>198</v>
       </c>
       <c r="C76" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="D76" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="E76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B77" t="s">
         <v>162</v>
       </c>
       <c r="C77" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="D77" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B78" t="s">
         <v>0</v>
       </c>
       <c r="C78" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D78" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B79" t="s">
         <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D79" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B80" t="s">
         <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D80" t="s">
         <v>6</v>
@@ -5349,20 +5371,20 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B81" t="s">
         <v>10</v>
       </c>
       <c r="C81" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D81"/>
       <c r="E81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B82" t="s">
         <v>11</v>
@@ -5371,121 +5393,121 @@
         <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B83" t="s">
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D83" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B84" t="s">
         <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D84" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B85" t="s">
         <v>14</v>
       </c>
       <c r="C85" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D85" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="E85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B86" t="s">
         <v>15</v>
       </c>
       <c r="C86" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D86" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B87" t="s">
         <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D87" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B88" t="s">
         <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D88" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B89" t="s">
         <v>18</v>
       </c>
       <c r="C89" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D89" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B90" t="s">
-        <v>154</v>
+        <v>48</v>
       </c>
       <c r="C90" t="s">
         <v>260</v>
@@ -5495,60 +5517,60 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B91" t="s">
         <v>155</v>
       </c>
       <c r="C91" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D91" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="E91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B92" t="s">
         <v>156</v>
       </c>
       <c r="C92" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D92" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B93" t="s">
         <v>157</v>
       </c>
       <c r="C93" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D93" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E93" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B94" t="s">
         <v>158</v>
       </c>
       <c r="C94" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D94" t="s">
         <v>187</v>
@@ -5557,61 +5579,61 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B95" t="s">
         <v>159</v>
       </c>
       <c r="C95" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D95" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="E95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B96" t="s">
         <v>160</v>
       </c>
       <c r="C96" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D96" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B97" t="s">
         <v>161</v>
       </c>
       <c r="C97" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D97" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B98" t="s">
         <v>162</v>
       </c>
       <c r="C98" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D98" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="E98"/>
     </row>
@@ -5620,13 +5642,13 @@
         <v>250</v>
       </c>
       <c r="B99" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C99" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D99" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E99"/>
     </row>
@@ -5635,13 +5657,13 @@
         <v>250</v>
       </c>
       <c r="B100" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C100" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D100" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E100"/>
     </row>
@@ -5650,47 +5672,49 @@
         <v>250</v>
       </c>
       <c r="B101" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C101" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D101" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="E101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="B102" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C102" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D102" t="s">
-        <v>421</v>
+        <v>261</v>
       </c>
       <c r="E102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
+        <v>225</v>
+      </c>
+      <c r="B103" t="s">
+        <v>61</v>
+      </c>
+      <c r="C103" t="s">
         <v>422</v>
       </c>
-      <c r="B103" t="s">
+      <c r="D103" t="s">
         <v>423</v>
       </c>
-      <c r="C103" t="s">
-        <v>424</v>
-      </c>
-      <c r="D103"/>
       <c r="E103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B104" t="s">
         <v>425</v>
@@ -5703,22 +5727,20 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
+        <v>424</v>
+      </c>
+      <c r="B105" t="s">
         <v>427</v>
       </c>
-      <c r="B105" t="s">
+      <c r="C105" t="s">
         <v>428</v>
       </c>
-      <c r="C105" t="s">
-        <v>429</v>
-      </c>
-      <c r="D105" t="s">
-        <v>356</v>
-      </c>
+      <c r="D105"/>
       <c r="E105"/>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="B106" t="s">
         <v>430</v>
@@ -5727,24 +5749,39 @@
         <v>431</v>
       </c>
       <c r="D106" t="s">
-        <v>432</v>
+        <v>357</v>
       </c>
       <c r="E106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B107" t="s">
+        <v>432</v>
+      </c>
+      <c r="C107" t="s">
         <v>433</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>434</v>
       </c>
-      <c r="D107" t="s">
+      <c r="E107"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>424</v>
+      </c>
+      <c r="B108" t="s">
         <v>435</v>
       </c>
-      <c r="E107"/>
+      <c r="C108" t="s">
+        <v>436</v>
+      </c>
+      <c r="D108" t="s">
+        <v>437</v>
+      </c>
+      <c r="E108"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6115,10 +6152,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="24.71" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="25.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="22.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="12.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="24.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="25.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="22.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="12.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6134,6 +6172,9 @@
       <c r="D1" t="s">
         <v>51</v>
       </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
@@ -6146,6 +6187,9 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -6181,34 +6225,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
@@ -6312,91 +6356,91 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="O1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="R1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="T1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="U1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="W1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="X1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Z1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AA1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AB1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AC1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">

--- a/template.xlsx
+++ b/template.xlsx
@@ -22,108 +22,108 @@
     <sheet name="HELP" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="person_name">'person'!$A$2:$A$100</definedName>
-    <definedName name="e_mail_adress">'person'!$B$2:$B$100</definedName>
-    <definedName name="researcher_role">'person'!$C$2:$C$100</definedName>
-    <definedName name="proj_uri">'project'!$A$2:$A$100</definedName>
-    <definedName name="proj_title">'project'!$B$2:$B$100</definedName>
-    <definedName name="proj_acronym">'project'!$C$2:$C$100</definedName>
-    <definedName name="proj_start_date">'project'!$D$2:$D$100</definedName>
-    <definedName name="proj_end_date">'project'!$E$2:$E$100</definedName>
-    <definedName name="proj_obj">'project'!$F$2:$F$100</definedName>
-    <definedName name="proj_desc">'project'!$G$2:$G$100</definedName>
-    <definedName name="ex_funding_source">'project'!$H$2:$H$100</definedName>
-    <definedName name="proj_conv">'project'!$I$2:$I$100</definedName>
-    <definedName name="experiment_ID">'experimentation'!$A$2:$A$100</definedName>
-    <definedName name="name_of_experiment">'experimentation'!$B$2:$B$100</definedName>
-    <definedName name="expe_start_date">'experimentation'!$C$2:$C$100</definedName>
-    <definedName name="expe_end_date">'experimentation'!$D$2:$D$100</definedName>
-    <definedName name="objectives_of_study">'experimentation'!$E$2:$E$100</definedName>
-    <definedName name="experiment_narrative">'experimentation'!$F$2:$F$100</definedName>
-    <definedName name="institute_name">'experimentation'!$G$2:$G$100</definedName>
-    <definedName name="design_desc">'design'!$A$2:$A$100</definedName>
-    <definedName name="design_plan">'design'!$B$2:$B$100</definedName>
-    <definedName name="design_size">'design'!$C$2:$C$100</definedName>
-    <definedName name="design_unit_desc">'design'!$D$2:$D$100</definedName>
-    <definedName name="design_hete">'design'!$E$2:$E$100</definedName>
-    <definedName name="factor_value">'moda'!$A$2:$A$100</definedName>
-    <definedName name="factor_value_desc">'moda'!$B$2:$B$100</definedName>
-    <definedName name="main_experiment_factor">'moda'!$C$2:$C$100</definedName>
-    <definedName name="factor_uri">'moda'!$D$2:$D$100</definedName>
-    <definedName name="tr_field">'treatment_xp'!$A$2:$A$100</definedName>
-    <definedName name="treatment_name">'treatment_xp'!$B$2:$B$100</definedName>
-    <definedName name="experimental_factor_comb">'treatment_xp'!$C$2:$C$100</definedName>
-    <definedName name="number_of_replicates">'treatment_xp'!$D$2:$D$100</definedName>
-    <definedName name="tr_notes">'treatment_xp'!$E$2:$E$100</definedName>
-    <definedName name="variable_name">'data_dictionary'!$A$2:$A$100</definedName>
-    <definedName name="var_desc">'data_dictionary'!$B$2:$B$100</definedName>
-    <definedName name="data_type">'data_dictionary'!$C$2:$C$100</definedName>
-    <definedName name="unit">'data_dictionary'!$D$2:$D$100</definedName>
-    <definedName name="var_trait">'data_dictionary'!$E$2:$E$100</definedName>
-    <definedName name="var_method">'data_dictionary'!$F$2:$F$100</definedName>
-    <definedName name="data_granularity">'data_dictionary'!$G$2:$G$100</definedName>
-    <definedName name="var_ref_uri">'data_dictionary'!$H$2:$H$100</definedName>
-    <definedName name="var_ref_name">'data_dictionary'!$I$2:$I$100</definedName>
-    <definedName name="var_ref_conv">'data_dictionary'!$J$2:$J$100</definedName>
-    <definedName name="field_id">'field'!$A$2:$A$100</definedName>
-    <definedName name="field_name">'field'!$B$2:$B$100</definedName>
-    <definedName name="field_notes">'field'!$C$2:$C$100</definedName>
-    <definedName name="field_commune">'field'!$D$2:$D$100</definedName>
-    <definedName name="field_insee_commune">'field'!$E$2:$E$100</definedName>
-    <definedName name="field_cadas">'field'!$F$2:$F$100</definedName>
-    <definedName name="field_wine_area">'field'!$G$2:$G$100</definedName>
-    <definedName name="field_latitude">'field'!$H$2:$H$100</definedName>
-    <definedName name="field_longitude">'field'!$I$2:$I$100</definedName>
-    <definedName name="field_geometry">'field'!$J$2:$J$100</definedName>
-    <definedName name="planting_year">'field'!$K$2:$K$100</definedName>
-    <definedName name="field_previous_crop">'field'!$L$2:$L$100</definedName>
-    <definedName name="field_area">'field'!$M$2:$M$100</definedName>
-    <definedName name="cultivar_name">'field'!$N$2:$N$100</definedName>
-    <definedName name="field_rootstock">'field'!$O$2:$O$100</definedName>
-    <definedName name="row_spacing">'field'!$P$2:$P$100</definedName>
-    <definedName name="plant_spacing">'field'!$Q$2:$Q$100</definedName>
-    <definedName name="field_density">'field'!$R$2:$R$100</definedName>
-    <definedName name="field_pruning">'field'!$S$2:$S$100</definedName>
-    <definedName name="field_training">'field'!$T$2:$T$100</definedName>
-    <definedName name="field_irrigation_system">'field'!$U$2:$U$100</definedName>
-    <definedName name="field_prod_mode">'field'!$V$2:$V$100</definedName>
-    <definedName name="field_product_type">'field'!$W$2:$W$100</definedName>
-    <definedName name="field_target_yield">'field'!$X$2:$X$100</definedName>
-    <definedName name="field_elevation">'field'!$Y$2:$Y$100</definedName>
-    <definedName name="row_direction">'field'!$Z$2:$Z$100</definedName>
-    <definedName name="field_slope">'field'!$AA$2:$AA$100</definedName>
-    <definedName name="cultivar_uri">'field'!$AB$2:$AB$100</definedName>
-    <definedName name="field_rootstock_uri">'field'!$AC$2:$AC$100</definedName>
-    <definedName name="est_name">'estate'!$A$2:$A$100</definedName>
-    <definedName name="est_adress">'estate'!$B$2:$B$100</definedName>
-    <definedName name="est_cvi">'estate'!$C$2:$C$100</definedName>
-    <definedName name="est_siret">'estate'!$D$2:$D$100</definedName>
-    <definedName name="est_desc">'estate'!$E$2:$E$100</definedName>
-    <definedName name="est_area_vine">'estate'!$F$2:$F$100</definedName>
-    <definedName name="est_field">'estate'!$G$2:$G$100</definedName>
-    <definedName name="soil_field">'soil'!$A$2:$A$100</definedName>
-    <definedName name="soil_desc">'soil'!$B$2:$B$100</definedName>
-    <definedName name="soil_depth">'soil'!$C$2:$C$100</definedName>
-    <definedName name="field_soil_texture">'soil'!$D$2:$D$100</definedName>
-    <definedName name="soil_ston">'soil'!$E$2:$E$100</definedName>
-    <definedName name="organic_carbon_conc">'soil'!$F$2:$F$100</definedName>
-    <definedName name="pH_in_water">'soil'!$G$2:$G$100</definedName>
-    <definedName name="soil_wc">'soil'!$H$2:$H$100</definedName>
-    <definedName name="soil_file">'soil'!$I$2:$I$100</definedName>
-    <definedName name="itk_field">'itk'!$A$2:$A$100</definedName>
-    <definedName name="itk_start_date">'itk'!$B$2:$B$100</definedName>
-    <definedName name="itk_end_date">'itk'!$C$2:$C$100</definedName>
-    <definedName name="irrigation_amount_depth">'itk'!$D$2:$D$100</definedName>
-    <definedName name="N_in_applied_fertilizer">'itk'!$E$2:$E$100</definedName>
-    <definedName name="itk_n_type">'itk'!$F$2:$F$100</definedName>
-    <definedName name="itk_ferti_desc">'itk'!$G$2:$G$100</definedName>
-    <definedName name="fertilizer_applic_method">'itk'!$H$2:$H$100</definedName>
-    <definedName name="itk_code_soil_man">'itk'!$I$2:$I$100</definedName>
-    <definedName name="itk_soil_man">'itk'!$J$2:$J$100</definedName>
-    <definedName name="itk_file">'itk'!$K$2:$K$100</definedName>
-    <definedName name="annot_type">'annotation'!$A$2:$A$100</definedName>
-    <definedName name="annot_date">'annotation'!$B$2:$B$100</definedName>
-    <definedName name="annot_desc">'annotation'!$C$2:$C$100</definedName>
+    <definedName name="person.person_name">'person'!$A$2:$A$100</definedName>
+    <definedName name="person.e_mail_adress">'person'!$B$2:$B$100</definedName>
+    <definedName name="person.researcher_role">'person'!$C$2:$C$100</definedName>
+    <definedName name="project.proj_uri">'project'!$A$2:$A$100</definedName>
+    <definedName name="project.proj_title">'project'!$B$2:$B$100</definedName>
+    <definedName name="project.proj_acronym">'project'!$C$2:$C$100</definedName>
+    <definedName name="project.proj_start_date">'project'!$D$2:$D$100</definedName>
+    <definedName name="project.proj_end_date">'project'!$E$2:$E$100</definedName>
+    <definedName name="project.proj_obj">'project'!$F$2:$F$100</definedName>
+    <definedName name="project.proj_desc">'project'!$G$2:$G$100</definedName>
+    <definedName name="project.ex_funding_source">'project'!$H$2:$H$100</definedName>
+    <definedName name="project.proj_conv">'project'!$I$2:$I$100</definedName>
+    <definedName name="experimentation.experiment_ID">'experimentation'!$A$2:$A$100</definedName>
+    <definedName name="experimentation.name_of_experiment">'experimentation'!$B$2:$B$100</definedName>
+    <definedName name="experimentation.expe_start_date">'experimentation'!$C$2:$C$100</definedName>
+    <definedName name="experimentation.expe_end_date">'experimentation'!$D$2:$D$100</definedName>
+    <definedName name="experimentation.objectives_of_study">'experimentation'!$E$2:$E$100</definedName>
+    <definedName name="experimentation.experiment_narrative">'experimentation'!$F$2:$F$100</definedName>
+    <definedName name="experimentation.institute_name">'experimentation'!$G$2:$G$100</definedName>
+    <definedName name="design.design_desc">'design'!$A$2:$A$100</definedName>
+    <definedName name="design.design_plan">'design'!$B$2:$B$100</definedName>
+    <definedName name="design.design_size">'design'!$C$2:$C$100</definedName>
+    <definedName name="design.design_unit_desc">'design'!$D$2:$D$100</definedName>
+    <definedName name="design.design_hete">'design'!$E$2:$E$100</definedName>
+    <definedName name="moda.factor_value">'moda'!$A$2:$A$100</definedName>
+    <definedName name="moda.factor_value_desc">'moda'!$B$2:$B$100</definedName>
+    <definedName name="moda.main_experiment_factor">'moda'!$C$2:$C$100</definedName>
+    <definedName name="moda.factor_uri">'moda'!$D$2:$D$100</definedName>
+    <definedName name="treatment_xp.field_name">'treatment_xp'!$A$2:$A$100</definedName>
+    <definedName name="treatment_xp.treatment_name">'treatment_xp'!$B$2:$B$100</definedName>
+    <definedName name="treatment_xp.experimental_factor_comb">'treatment_xp'!$C$2:$C$100</definedName>
+    <definedName name="treatment_xp.number_of_replicates">'treatment_xp'!$D$2:$D$100</definedName>
+    <definedName name="treatment_xp.tr_notes">'treatment_xp'!$E$2:$E$100</definedName>
+    <definedName name="data_dictionary.variable_name">'data_dictionary'!$A$2:$A$100</definedName>
+    <definedName name="data_dictionary.var_desc">'data_dictionary'!$B$2:$B$100</definedName>
+    <definedName name="data_dictionary.data_type">'data_dictionary'!$C$2:$C$100</definedName>
+    <definedName name="data_dictionary.unit">'data_dictionary'!$D$2:$D$100</definedName>
+    <definedName name="data_dictionary.var_trait">'data_dictionary'!$E$2:$E$100</definedName>
+    <definedName name="data_dictionary.var_method">'data_dictionary'!$F$2:$F$100</definedName>
+    <definedName name="data_dictionary.data_granularity">'data_dictionary'!$G$2:$G$100</definedName>
+    <definedName name="data_dictionary.var_ref_uri">'data_dictionary'!$H$2:$H$100</definedName>
+    <definedName name="data_dictionary.var_ref_name">'data_dictionary'!$I$2:$I$100</definedName>
+    <definedName name="data_dictionary.var_ref_conv">'data_dictionary'!$J$2:$J$100</definedName>
+    <definedName name="field.field_id">'field'!$A$2:$A$100</definedName>
+    <definedName name="field.field_name">'field'!$B$2:$B$100</definedName>
+    <definedName name="field.field_notes">'field'!$C$2:$C$100</definedName>
+    <definedName name="field.commune">'field'!$D$2:$D$100</definedName>
+    <definedName name="field.commune_code_INSEE">'field'!$E$2:$E$100</definedName>
+    <definedName name="field.cadastral_ref">'field'!$F$2:$F$100</definedName>
+    <definedName name="field.wine_area">'field'!$G$2:$G$100</definedName>
+    <definedName name="field.field_latitude">'field'!$H$2:$H$100</definedName>
+    <definedName name="field.field_longitude">'field'!$I$2:$I$100</definedName>
+    <definedName name="field.field_geometry">'field'!$J$2:$J$100</definedName>
+    <definedName name="field.planting_year">'field'!$K$2:$K$100</definedName>
+    <definedName name="field.previous_crop">'field'!$L$2:$L$100</definedName>
+    <definedName name="field.field_area">'field'!$M$2:$M$100</definedName>
+    <definedName name="field.cultivar_name">'field'!$N$2:$N$100</definedName>
+    <definedName name="field.rootstock">'field'!$O$2:$O$100</definedName>
+    <definedName name="field.row_spacing">'field'!$P$2:$P$100</definedName>
+    <definedName name="field.plant_spacing">'field'!$Q$2:$Q$100</definedName>
+    <definedName name="field.planting_density">'field'!$R$2:$R$100</definedName>
+    <definedName name="field.pruning_system">'field'!$S$2:$S$100</definedName>
+    <definedName name="field.training_system">'field'!$T$2:$T$100</definedName>
+    <definedName name="field.irrigation_system">'field'!$U$2:$U$100</definedName>
+    <definedName name="field.prod_mode">'field'!$V$2:$V$100</definedName>
+    <definedName name="field.product_type">'field'!$W$2:$W$100</definedName>
+    <definedName name="field.target_yield">'field'!$X$2:$X$100</definedName>
+    <definedName name="field.elevation">'field'!$Y$2:$Y$100</definedName>
+    <definedName name="field.row_direction">'field'!$Z$2:$Z$100</definedName>
+    <definedName name="field.field_slope">'field'!$AA$2:$AA$100</definedName>
+    <definedName name="field.cultivar_uri">'field'!$AB$2:$AB$100</definedName>
+    <definedName name="field.rootstock_uri">'field'!$AC$2:$AC$100</definedName>
+    <definedName name="estate.estate_name">'estate'!$A$2:$A$100</definedName>
+    <definedName name="estate.estate_adress">'estate'!$B$2:$B$100</definedName>
+    <definedName name="estate.field_name">'estate'!$C$2:$C$100</definedName>
+    <definedName name="estate.estate_cvi">'estate'!$D$2:$D$100</definedName>
+    <definedName name="estate.estate_siret">'estate'!$E$2:$E$100</definedName>
+    <definedName name="estate.estate_desc">'estate'!$F$2:$F$100</definedName>
+    <definedName name="estate.estate_area_vine">'estate'!$G$2:$G$100</definedName>
+    <definedName name="soil.field_name">'soil'!$A$2:$A$100</definedName>
+    <definedName name="soil.soil_desc">'soil'!$B$2:$B$100</definedName>
+    <definedName name="soil.soil_depth">'soil'!$C$2:$C$100</definedName>
+    <definedName name="soil.soil_texture">'soil'!$D$2:$D$100</definedName>
+    <definedName name="soil.soil_ston">'soil'!$E$2:$E$100</definedName>
+    <definedName name="soil.organic_carbon_conc">'soil'!$F$2:$F$100</definedName>
+    <definedName name="soil.pH_in_water">'soil'!$G$2:$G$100</definedName>
+    <definedName name="soil.soil_wc">'soil'!$H$2:$H$100</definedName>
+    <definedName name="soil.soil_file">'soil'!$I$2:$I$100</definedName>
+    <definedName name="itk.field_name">'itk'!$A$2:$A$100</definedName>
+    <definedName name="itk.itk_start_date">'itk'!$B$2:$B$100</definedName>
+    <definedName name="itk.itk_end_date">'itk'!$C$2:$C$100</definedName>
+    <definedName name="itk.irrigation_amount_depth">'itk'!$D$2:$D$100</definedName>
+    <definedName name="itk.N_in_applied_fertilizer">'itk'!$E$2:$E$100</definedName>
+    <definedName name="itk.N_type">'itk'!$F$2:$F$100</definedName>
+    <definedName name="itk.fertilization_desc">'itk'!$G$2:$G$100</definedName>
+    <definedName name="itk.fertilizer_applic_method">'itk'!$H$2:$H$100</definedName>
+    <definedName name="itk.soil_management_code">'itk'!$I$2:$I$100</definedName>
+    <definedName name="itk.soil_management">'itk'!$J$2:$J$100</definedName>
+    <definedName name="itk.itk_file">'itk'!$K$2:$K$100</definedName>
+    <definedName name="annotation.annot_type">'annotation'!$A$2:$A$100</definedName>
+    <definedName name="annotation.annot_date">'annotation'!$B$2:$B$100</definedName>
+    <definedName name="annotation.annot_desc">'annotation'!$C$2:$C$100</definedName>
   </definedNames>
 </workbook>
 </file>
@@ -166,11 +166,23 @@
             <color rgb="FF000000"/>
             <name val="Tahoma"/>
           </rPr>
+          <t xml:space="preserve">Nom (ou code) de la parcelle sur laquelle l’expérimentation a lieu</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color rgb="FF000000"/>
+            <name val="Tahoma"/>
+          </rPr>
           <t xml:space="preserve">Numéro d'Exploitation Viti-Vinicole (E.V.V.) communément appelé numéro CVI (pour Casier Viticole Informatisé), à 10 chiffres</t>
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -194,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -203,18 +215,6 @@
             <name val="Tahoma"/>
           </rPr>
           <t xml:space="preserve">Surface exploitée en vigne en ha</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color rgb="FF000000"/>
-            <name val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">Nom de la parcelle expérimentale</t>
         </r>
       </text>
     </comment>
@@ -236,7 +236,7 @@
             <color rgb="FF000000"/>
             <name val="Tahoma"/>
           </rPr>
-          <t xml:space="preserve">Nom de la parcelle expérimentale</t>
+          <t xml:space="preserve">Nom (ou code) de la parcelle sur laquelle l’expérimentation a lieu</t>
         </r>
       </text>
     </comment>
@@ -354,7 +354,7 @@
             <color rgb="FF000000"/>
             <name val="Tahoma"/>
           </rPr>
-          <t xml:space="preserve">Nom de la parcelle expérimentale</t>
+          <t xml:space="preserve">Nom (ou code) de la parcelle sur laquelle l’expérimentation a lieu</t>
         </r>
       </text>
     </comment>
@@ -928,7 +928,7 @@
             <color rgb="FF000000"/>
             <name val="Tahoma"/>
           </rPr>
-          <t xml:space="preserve">Parcelle sur laquelle est mis en place le traitement expérimental</t>
+          <t xml:space="preserve">Nom (ou code) de la parcelle sur laquelle l’expérimentation a lieu</t>
         </r>
       </text>
     </comment>
@@ -1473,7 +1473,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="433">
   <si>
     <t xml:space="preserve">Contact nom</t>
   </si>
@@ -1619,7 +1619,7 @@
     <t xml:space="preserve">irrigation</t>
   </si>
   <si>
-    <t xml:space="preserve">Parcelle</t>
+    <t xml:space="preserve">Nom de la parcelle*</t>
   </si>
   <si>
     <t xml:space="preserve">Traitement expérimental</t>
@@ -1700,9 +1700,6 @@
     <t xml:space="preserve">Identifiant de la parcelle</t>
   </si>
   <si>
-    <t xml:space="preserve">Nom de la parcelle*</t>
-  </si>
-  <si>
     <t xml:space="preserve">Description de la parcelle</t>
   </si>
   <si>
@@ -1784,7 +1781,7 @@
     <t xml:space="preserve">Identifiant Porte-greffe</t>
   </si>
   <si>
-    <t xml:space="preserve">field_wine_area</t>
+    <t xml:space="preserve">wine_area</t>
   </si>
   <si>
     <t xml:space="preserve">Alsace Est</t>
@@ -1817,7 +1814,7 @@
     <t xml:space="preserve">Vallée-du-Rhône-Provence</t>
   </si>
   <si>
-    <t xml:space="preserve">field_pruning</t>
+    <t xml:space="preserve">pruning_system</t>
   </si>
   <si>
     <t xml:space="preserve">Taille en gobelet</t>
@@ -1850,7 +1847,7 @@
     <t xml:space="preserve">Taille minimale (non-taille)</t>
   </si>
   <si>
-    <t xml:space="preserve">field_training</t>
+    <t xml:space="preserve">training_system</t>
   </si>
   <si>
     <t xml:space="preserve">Espalier palissé</t>
@@ -1877,7 +1874,7 @@
     <t xml:space="preserve">Tête de saule</t>
   </si>
   <si>
-    <t xml:space="preserve">field_irrigation_system</t>
+    <t xml:space="preserve">irrigation_system</t>
   </si>
   <si>
     <t xml:space="preserve">aucun</t>
@@ -1895,7 +1892,7 @@
     <t xml:space="preserve">submersion</t>
   </si>
   <si>
-    <t xml:space="preserve">field_prod_mode</t>
+    <t xml:space="preserve">prod_mode</t>
   </si>
   <si>
     <t xml:space="preserve">Raisonnée ou conventionnelle</t>
@@ -1907,7 +1904,7 @@
     <t xml:space="preserve">Biodynamie</t>
   </si>
   <si>
-    <t xml:space="preserve">field_product_type</t>
+    <t xml:space="preserve">product_type</t>
   </si>
   <si>
     <t xml:space="preserve">AOP</t>
@@ -1964,7 +1961,7 @@
     <t xml:space="preserve">Fichier associé</t>
   </si>
   <si>
-    <t xml:space="preserve">field_soil_texture</t>
+    <t xml:space="preserve">soil_texture</t>
   </si>
   <si>
     <t xml:space="preserve">AA:Argile lourde</t>
@@ -2072,7 +2069,7 @@
     <t xml:space="preserve">Description de l'entretien du sol</t>
   </si>
   <si>
-    <t xml:space="preserve">itk_n_type</t>
+    <t xml:space="preserve">N_type</t>
   </si>
   <si>
     <t xml:space="preserve">minérale</t>
@@ -2253,12 +2250,6 @@
   </si>
   <si>
     <t xml:space="preserve">estate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nom de la parcelle expérimentale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Le Mas</t>
   </si>
   <si>
     <t xml:space="preserve">Nom de l'exploitation agricole (ou domaine)</t>
@@ -2532,7 +2523,7 @@
     <t xml:space="preserve">Le site geoportail permet de tracer un profil de pente sur la parcelle.</t>
   </si>
   <si>
-    <t xml:space="preserve">field,measure</t>
+    <t xml:space="preserve">field,measure,soil,treatment_xp,estate,itk</t>
   </si>
   <si>
     <t xml:space="preserve">Nom de la parcelle</t>
@@ -2725,6 +2716,9 @@
     <t xml:space="preserve">analyse0-15.pdf</t>
   </si>
   <si>
+    <t xml:space="preserve">treatment_xp,measure,plot,wine</t>
+  </si>
+  <si>
     <t xml:space="preserve">Code du traitement expérimental</t>
   </si>
   <si>
@@ -2743,9 +2737,6 @@
     <t xml:space="preserve">Fertilisé (30U N/ha) et irrigué en goutte-à-goutte</t>
   </si>
   <si>
-    <t xml:space="preserve">Parcelle sur laquelle est mis en place le traitement expérimental</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nom de la variable de référence (nom standardisé). Utilisez ceux de la Vitis Ontology.</t>
   </si>
   <si>
@@ -2753,12 +2744,6 @@
   </si>
   <si>
     <t xml:space="preserve">measure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code traitement expérimental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code du traitement expérimental appliqué</t>
   </si>
   <si>
     <t xml:space="preserve">Répétition</t>
@@ -2917,11 +2902,11 @@
   <tableColumns count="7">
     <tableColumn id="1" name="Nom de l'exploitation"/>
     <tableColumn id="2" name="Adresse de l'exploitation"/>
-    <tableColumn id="3" name="Numéro CVI"/>
-    <tableColumn id="4" name="SIRET"/>
-    <tableColumn id="5" name="Description"/>
-    <tableColumn id="6" name="Surface en vigne (ha)"/>
-    <tableColumn id="7" name="Parcelle"/>
+    <tableColumn id="3" name="Nom de la parcelle*"/>
+    <tableColumn id="4" name="Numéro CVI"/>
+    <tableColumn id="5" name="SIRET"/>
+    <tableColumn id="6" name="Description"/>
+    <tableColumn id="7" name="Surface en vigne (ha)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2931,7 +2916,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A1:I2" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="A1:I2"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Parcelle"/>
+    <tableColumn id="1" name="Nom de la parcelle*"/>
     <tableColumn id="2" name="Description sol"/>
     <tableColumn id="3" name="Profondeur du sol"/>
     <tableColumn id="4" name="Texture dominante du sol"/>
@@ -2949,7 +2934,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table13" displayName="Table13" ref="A1:K2" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="A1:K2"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="Parcelle"/>
+    <tableColumn id="1" name="Nom de la parcelle*"/>
     <tableColumn id="2" name="Année de début"/>
     <tableColumn id="3" name="Année de fin"/>
     <tableColumn id="4" name="Irrigation"/>
@@ -2978,8 +2963,8 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A1:E108" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:E108"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A1:E103" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:E103"/>
   <tableColumns count="5">
     <tableColumn id="1" name="name"/>
     <tableColumn id="2" name="label_fr"/>
@@ -3068,7 +3053,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:E2" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="A1:E2"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Parcelle"/>
+    <tableColumn id="1" name="Nom de la parcelle*"/>
     <tableColumn id="2" name="Traitement expérimental"/>
     <tableColumn id="3" name="Combinaison de modalités"/>
     <tableColumn id="4" name="Nombre de répétition"/>
@@ -3399,37 +3384,37 @@
         <v>67</v>
       </c>
       <c r="F1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="K1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="L1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="M1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="N1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="O1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2">
@@ -3449,37 +3434,37 @@
         <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="N2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="O2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
@@ -3499,37 +3484,37 @@
         <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="P3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4">
@@ -3549,37 +3534,37 @@
         <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="M4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="O4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
@@ -3596,25 +3581,25 @@
         <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="M5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6">
@@ -3631,25 +3616,25 @@
         <v>72</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="K6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="L6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="M6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7">
@@ -3663,19 +3648,19 @@
         <v>73</v>
       </c>
       <c r="F7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="L7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8">
@@ -3683,93 +3668,93 @@
         <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="M8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9">
       <c r="F9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10">
       <c r="F10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11">
       <c r="F11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12">
       <c r="L12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13">
       <c r="L13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14">
       <c r="L14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15">
       <c r="L15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16">
       <c r="L16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="L17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="L18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3788,34 +3773,34 @@
   <cols>
     <col min="1" max="1" width="26.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="30.71" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="11.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="5.71" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="11.71" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="21.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="8.71" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="19.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="11.71" hidden="0" customWidth="1"/>
+    <col min="5" max="5" width="5.71" hidden="0" customWidth="1"/>
+    <col min="6" max="6" width="11.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="21.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" t="s">
         <v>150</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
         <v>151</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>152</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
         <v>153</v>
-      </c>
-      <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -3843,7 +3828,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F100">
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G100">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
@@ -3864,7 +3849,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="19.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="15.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="17.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="24.71" hidden="0" customWidth="1"/>
@@ -3880,28 +3865,28 @@
         <v>48</v>
       </c>
       <c r="B1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" t="s">
         <v>155</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>156</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>157</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>158</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>159</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>160</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>161</v>
-      </c>
-      <c r="I1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2">
@@ -3975,7 +3960,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="19.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="16.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="13.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="10.71" hidden="0" customWidth="1"/>
@@ -3993,34 +3978,34 @@
         <v>48</v>
       </c>
       <c r="B1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C1" t="s">
         <v>190</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>191</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>192</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>193</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>194</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>195</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>196</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>197</v>
       </c>
-      <c r="J1" t="s">
-        <v>198</v>
-      </c>
       <c r="K1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2">
@@ -4101,10 +4086,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" t="s">
         <v>207</v>
-      </c>
-      <c r="B1" t="s">
-        <v>208</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
@@ -4153,99 +4138,99 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B1" t="s">
         <v>213</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>214</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>215</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>216</v>
-      </c>
-      <c r="E1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" t="s">
         <v>219</v>
-      </c>
-      <c r="D2" t="s">
-        <v>220</v>
       </c>
       <c r="E2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D3" t="s">
         <v>221</v>
-      </c>
-      <c r="D3" t="s">
-        <v>222</v>
       </c>
       <c r="E3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" t="s">
         <v>223</v>
-      </c>
-      <c r="D4" t="s">
-        <v>224</v>
       </c>
       <c r="E4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B5" t="s">
         <v>225</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>226</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>227</v>
-      </c>
-      <c r="D5" t="s">
-        <v>228</v>
       </c>
       <c r="E5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" t="s">
         <v>229</v>
-      </c>
-      <c r="D6" t="s">
-        <v>230</v>
       </c>
       <c r="E6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -4260,43 +4245,43 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D8" t="s">
         <v>231</v>
-      </c>
-      <c r="D8" t="s">
-        <v>232</v>
       </c>
       <c r="E8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
       </c>
       <c r="C9" t="s">
+        <v>232</v>
+      </c>
+      <c r="D9" t="s">
         <v>233</v>
-      </c>
-      <c r="D9" t="s">
-        <v>234</v>
       </c>
       <c r="E9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
@@ -4305,453 +4290,455 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" t="s">
         <v>236</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>237</v>
-      </c>
-      <c r="D11" t="s">
-        <v>238</v>
       </c>
       <c r="E11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
       </c>
       <c r="C12" t="s">
+        <v>238</v>
+      </c>
+      <c r="D12" t="s">
         <v>239</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>240</v>
-      </c>
-      <c r="E12" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
       </c>
       <c r="C13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D13" t="s">
         <v>242</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>243</v>
-      </c>
-      <c r="E13" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" t="s">
         <v>246</v>
-      </c>
-      <c r="D14" t="s">
-        <v>247</v>
       </c>
       <c r="E14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
+        <v>247</v>
+      </c>
+      <c r="D15" t="s">
         <v>248</v>
-      </c>
-      <c r="D15" t="s">
-        <v>249</v>
       </c>
       <c r="E15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B16" t="s">
         <v>51</v>
       </c>
       <c r="C16" t="s">
+        <v>250</v>
+      </c>
+      <c r="D16" t="s">
         <v>251</v>
-      </c>
-      <c r="D16" t="s">
-        <v>252</v>
       </c>
       <c r="E16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17" t="s">
+        <v>252</v>
+      </c>
+      <c r="D17" t="s">
         <v>253</v>
-      </c>
-      <c r="D17" t="s">
-        <v>254</v>
       </c>
       <c r="E17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
       <c r="C18" t="s">
+        <v>254</v>
+      </c>
+      <c r="D18" t="s">
         <v>255</v>
-      </c>
-      <c r="D18" t="s">
-        <v>256</v>
       </c>
       <c r="E18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
       <c r="C19" t="s">
+        <v>256</v>
+      </c>
+      <c r="D19" t="s">
         <v>257</v>
-      </c>
-      <c r="D19" t="s">
-        <v>258</v>
       </c>
       <c r="E19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>258</v>
+      </c>
+      <c r="B20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" t="s">
         <v>259</v>
       </c>
-      <c r="B20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>260</v>
-      </c>
-      <c r="D20" t="s">
-        <v>261</v>
       </c>
       <c r="E20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B21" t="s">
         <v>150</v>
       </c>
       <c r="C21" t="s">
+        <v>261</v>
+      </c>
+      <c r="D21" t="s">
         <v>262</v>
-      </c>
-      <c r="D21" t="s">
-        <v>263</v>
       </c>
       <c r="E21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C22" t="s">
+        <v>263</v>
+      </c>
+      <c r="D22" t="s">
         <v>264</v>
-      </c>
-      <c r="D22" t="s">
-        <v>265</v>
       </c>
       <c r="E22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C23" t="s">
-        <v>266</v>
-      </c>
-      <c r="D23" t="s">
-        <v>267</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="D23"/>
       <c r="E23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B24" t="s">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D24"/>
       <c r="E24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B25" t="s">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="C25" t="s">
-        <v>269</v>
-      </c>
-      <c r="D25"/>
+        <v>267</v>
+      </c>
+      <c r="D25" t="s">
+        <v>268</v>
+      </c>
       <c r="E25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B26" t="s">
-        <v>153</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
         <v>270</v>
       </c>
-      <c r="D26" t="s">
-        <v>271</v>
-      </c>
+      <c r="D26"/>
       <c r="E26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>269</v>
+      </c>
+      <c r="B27" t="s">
+        <v>271</v>
+      </c>
+      <c r="C27" t="s">
         <v>272</v>
       </c>
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>273</v>
       </c>
-      <c r="D27"/>
       <c r="E27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
         <v>274</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>275</v>
-      </c>
-      <c r="D28" t="s">
-        <v>276</v>
       </c>
       <c r="E28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
+        <v>276</v>
+      </c>
+      <c r="D29" t="s">
         <v>277</v>
-      </c>
-      <c r="D29" t="s">
-        <v>278</v>
       </c>
       <c r="E29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C30" t="s">
+        <v>278</v>
+      </c>
+      <c r="D30" t="s">
         <v>279</v>
-      </c>
-      <c r="D30" t="s">
-        <v>280</v>
       </c>
       <c r="E30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
+        <v>280</v>
+      </c>
+      <c r="D31" t="s">
         <v>281</v>
-      </c>
-      <c r="D31" t="s">
-        <v>282</v>
       </c>
       <c r="E31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C32" t="s">
+        <v>282</v>
+      </c>
+      <c r="D32" t="s">
         <v>283</v>
-      </c>
-      <c r="D32" t="s">
-        <v>284</v>
       </c>
       <c r="E32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
         <v>285</v>
       </c>
       <c r="D33" t="s">
-        <v>286</v>
+        <v>46</v>
       </c>
       <c r="E33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>286</v>
+      </c>
+      <c r="D34" t="s">
         <v>287</v>
-      </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s">
-        <v>288</v>
-      </c>
-      <c r="D34" t="s">
-        <v>46</v>
       </c>
       <c r="E34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
+        <v>288</v>
+      </c>
+      <c r="D35" t="s">
         <v>289</v>
-      </c>
-      <c r="D35" t="s">
-        <v>290</v>
       </c>
       <c r="E35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>291</v>
-      </c>
-      <c r="D36" t="s">
-        <v>292</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="D36"/>
       <c r="E36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B37" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
+        <v>292</v>
+      </c>
+      <c r="D37" t="s">
         <v>293</v>
       </c>
-      <c r="D37"/>
       <c r="E37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>291</v>
+      </c>
+      <c r="B38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" t="s">
         <v>294</v>
       </c>
-      <c r="B38" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>295</v>
-      </c>
-      <c r="D38" t="s">
-        <v>296</v>
       </c>
       <c r="E38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="C39" t="s">
+        <v>296</v>
+      </c>
+      <c r="D39" t="s">
         <v>297</v>
-      </c>
-      <c r="D39" t="s">
-        <v>298</v>
       </c>
       <c r="E39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B40" t="s">
         <v>76</v>
       </c>
       <c r="C40" t="s">
+        <v>298</v>
+      </c>
+      <c r="D40" t="s">
         <v>299</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>300</v>
       </c>
-      <c r="E40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B41" t="s">
         <v>77</v>
@@ -4763,29 +4750,29 @@
         <v>302</v>
       </c>
       <c r="E41" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B42" t="s">
         <v>78</v>
       </c>
       <c r="C42" t="s">
+        <v>303</v>
+      </c>
+      <c r="D42" t="s">
         <v>304</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>305</v>
-      </c>
-      <c r="E42" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B43" t="s">
         <v>79</v>
@@ -4794,62 +4781,62 @@
         <v>306</v>
       </c>
       <c r="D43" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" t="s">
         <v>307</v>
-      </c>
-      <c r="E43" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B44" t="s">
         <v>80</v>
       </c>
       <c r="C44" t="s">
+        <v>308</v>
+      </c>
+      <c r="D44" t="s">
         <v>309</v>
       </c>
-      <c r="D44" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" t="s">
-        <v>310</v>
-      </c>
+      <c r="E44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B45" t="s">
         <v>81</v>
       </c>
       <c r="C45" t="s">
+        <v>310</v>
+      </c>
+      <c r="D45" t="s">
         <v>311</v>
-      </c>
-      <c r="D45" t="s">
-        <v>312</v>
       </c>
       <c r="E45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B46" t="s">
         <v>82</v>
       </c>
       <c r="C46" t="s">
+        <v>312</v>
+      </c>
+      <c r="D46" t="s">
         <v>313</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>314</v>
       </c>
-      <c r="E46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B47" t="s">
         <v>83</v>
@@ -4860,43 +4847,43 @@
       <c r="D47" t="s">
         <v>316</v>
       </c>
-      <c r="E47" t="s">
-        <v>317</v>
-      </c>
+      <c r="E47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
+        <v>317</v>
+      </c>
+      <c r="D48" t="s">
         <v>318</v>
-      </c>
-      <c r="D48" t="s">
-        <v>319</v>
       </c>
       <c r="E48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B49" t="s">
         <v>86</v>
       </c>
       <c r="C49" t="s">
+        <v>319</v>
+      </c>
+      <c r="D49" t="s">
         <v>320</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>321</v>
       </c>
-      <c r="E49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B50" t="s">
         <v>87</v>
@@ -4908,29 +4895,29 @@
         <v>323</v>
       </c>
       <c r="E50" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B51" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C51" t="s">
+        <v>324</v>
+      </c>
+      <c r="D51" t="s">
         <v>325</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>326</v>
-      </c>
-      <c r="E51" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B52" t="s">
         <v>101</v>
@@ -4942,214 +4929,212 @@
         <v>328</v>
       </c>
       <c r="E52" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="C53" t="s">
+        <v>329</v>
+      </c>
+      <c r="D53" t="s">
         <v>330</v>
       </c>
-      <c r="D53" t="s">
-        <v>331</v>
-      </c>
-      <c r="E53" t="s">
-        <v>329</v>
-      </c>
+      <c r="E53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B54" t="s">
         <v>89</v>
       </c>
       <c r="C54" t="s">
+        <v>331</v>
+      </c>
+      <c r="D54" t="s">
         <v>332</v>
-      </c>
-      <c r="D54" t="s">
-        <v>333</v>
       </c>
       <c r="E54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B55" t="s">
         <v>90</v>
       </c>
       <c r="C55" t="s">
+        <v>333</v>
+      </c>
+      <c r="D55" t="s">
         <v>334</v>
-      </c>
-      <c r="D55" t="s">
-        <v>335</v>
       </c>
       <c r="E55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B56" t="s">
         <v>91</v>
       </c>
       <c r="C56" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D56" t="s">
-        <v>337</v>
+        <v>115</v>
       </c>
       <c r="E56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B57" t="s">
         <v>92</v>
       </c>
       <c r="C57" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>337</v>
       </c>
       <c r="E57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B58" t="s">
         <v>93</v>
       </c>
       <c r="C58" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D58" t="s">
-        <v>340</v>
+        <v>135</v>
       </c>
       <c r="E58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B59" t="s">
         <v>94</v>
       </c>
       <c r="C59" t="s">
-        <v>341</v>
+        <v>94</v>
       </c>
       <c r="D59" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B60" t="s">
         <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>95</v>
+        <v>339</v>
       </c>
       <c r="D60" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B61" t="s">
         <v>96</v>
       </c>
       <c r="C61" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D61" t="s">
-        <v>145</v>
+        <v>341</v>
       </c>
       <c r="E61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B62" t="s">
         <v>97</v>
       </c>
       <c r="C62" t="s">
+        <v>342</v>
+      </c>
+      <c r="D62" t="s">
         <v>343</v>
-      </c>
-      <c r="D62" t="s">
-        <v>344</v>
       </c>
       <c r="E62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B63" t="s">
         <v>98</v>
       </c>
       <c r="C63" t="s">
+        <v>344</v>
+      </c>
+      <c r="D63" t="s">
         <v>345</v>
-      </c>
-      <c r="D63" t="s">
-        <v>346</v>
       </c>
       <c r="E63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B64" t="s">
         <v>99</v>
       </c>
       <c r="C64" t="s">
+        <v>346</v>
+      </c>
+      <c r="D64" t="s">
+        <v>345</v>
+      </c>
+      <c r="E64" t="s">
         <v>347</v>
       </c>
-      <c r="D64" t="s">
-        <v>348</v>
-      </c>
-      <c r="E64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>294</v>
+        <v>348</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>349</v>
       </c>
       <c r="C65" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="D65" t="s">
-        <v>348</v>
-      </c>
-      <c r="E65" t="s">
-        <v>350</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="E65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B66" t="s">
-        <v>352</v>
+        <v>189</v>
       </c>
       <c r="C66" t="s">
         <v>353</v>
@@ -5161,68 +5146,70 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>352</v>
+      </c>
+      <c r="B67" t="s">
+        <v>190</v>
+      </c>
+      <c r="C67" t="s">
         <v>355</v>
       </c>
-      <c r="B67" t="s">
-        <v>48</v>
-      </c>
-      <c r="C67" t="s">
-        <v>260</v>
-      </c>
-      <c r="D67"/>
+      <c r="D67" t="s">
+        <v>356</v>
+      </c>
       <c r="E67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B68" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C68" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D68" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B69" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C69" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D69" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B70" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C70" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D70" t="s">
-        <v>361</v>
+        <v>199</v>
       </c>
       <c r="E70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B71" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C71" t="s">
         <v>362</v>
@@ -5234,25 +5221,25 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B72" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C72" t="s">
         <v>364</v>
       </c>
       <c r="D72" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="E72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B73" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C73" t="s">
         <v>365</v>
@@ -5260,528 +5247,457 @@
       <c r="D73" t="s">
         <v>366</v>
       </c>
-      <c r="E73"/>
+      <c r="E73" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B74" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C74" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="D74" t="s">
-        <v>204</v>
+        <v>369</v>
       </c>
       <c r="E74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B75" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="C75" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D75" t="s">
-        <v>369</v>
-      </c>
-      <c r="E75" t="s">
-        <v>370</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="E75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="B76" t="s">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D76" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D77" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B78" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D78" t="s">
-        <v>377</v>
+        <v>6</v>
       </c>
       <c r="E78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B79" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>378</v>
-      </c>
-      <c r="D79" t="s">
         <v>379</v>
       </c>
+      <c r="D79"/>
       <c r="E79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="B80" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C80" t="s">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s">
         <v>380</v>
-      </c>
-      <c r="D80" t="s">
-        <v>6</v>
       </c>
       <c r="E80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>378</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" t="s">
         <v>381</v>
       </c>
-      <c r="B81" t="s">
-        <v>10</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>382</v>
       </c>
-      <c r="D81"/>
       <c r="E81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B82" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>383</v>
       </c>
       <c r="D82" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="E82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D83" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D84" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B85" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D85" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C86" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D86" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B87" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D87" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="B88" t="s">
-        <v>17</v>
+        <v>154</v>
       </c>
       <c r="C88" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D88" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="B89" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="C89" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D89" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B90" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="C90" t="s">
-        <v>260</v>
-      </c>
-      <c r="D90"/>
-      <c r="E90"/>
+        <v>400</v>
+      </c>
+      <c r="D90" t="s">
+        <v>401</v>
+      </c>
+      <c r="E90" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B91" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C91" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D91" t="s">
-        <v>400</v>
+        <v>186</v>
       </c>
       <c r="E91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B92" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C92" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D92" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="E92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B93" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C93" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D93" t="s">
-        <v>404</v>
-      </c>
-      <c r="E93" t="s">
-        <v>405</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="E93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B94" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C94" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="D94" t="s">
-        <v>187</v>
+        <v>409</v>
       </c>
       <c r="E94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B95" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C95" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D95" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="E95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="B96" t="s">
-        <v>160</v>
+        <v>49</v>
       </c>
       <c r="C96" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="D96" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="E96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>398</v>
+        <v>249</v>
       </c>
       <c r="B97" t="s">
-        <v>161</v>
+        <v>50</v>
       </c>
       <c r="C97" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="D97" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="E97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>398</v>
+        <v>249</v>
       </c>
       <c r="B98" t="s">
-        <v>162</v>
+        <v>52</v>
       </c>
       <c r="C98" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="D98" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="E98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="B99" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C99" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="D99" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="E99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="B100" t="s">
-        <v>50</v>
+        <v>422</v>
       </c>
       <c r="C100" t="s">
-        <v>417</v>
-      </c>
-      <c r="D100" t="s">
-        <v>418</v>
-      </c>
+        <v>423</v>
+      </c>
+      <c r="D100"/>
       <c r="E100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>250</v>
+        <v>424</v>
       </c>
       <c r="B101" t="s">
-        <v>52</v>
+        <v>425</v>
       </c>
       <c r="C101" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="D101" t="s">
-        <v>420</v>
+        <v>354</v>
       </c>
       <c r="E101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="B102" t="s">
-        <v>48</v>
+        <v>427</v>
       </c>
       <c r="C102" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="D102" t="s">
-        <v>261</v>
+        <v>429</v>
       </c>
       <c r="E102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>225</v>
+        <v>421</v>
       </c>
       <c r="B103" t="s">
-        <v>61</v>
+        <v>430</v>
       </c>
       <c r="C103" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="D103" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="E103"/>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>424</v>
-      </c>
-      <c r="B104" t="s">
-        <v>425</v>
-      </c>
-      <c r="C104" t="s">
-        <v>426</v>
-      </c>
-      <c r="D104"/>
-      <c r="E104"/>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>424</v>
-      </c>
-      <c r="B105" t="s">
-        <v>427</v>
-      </c>
-      <c r="C105" t="s">
-        <v>428</v>
-      </c>
-      <c r="D105"/>
-      <c r="E105"/>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>429</v>
-      </c>
-      <c r="B106" t="s">
-        <v>430</v>
-      </c>
-      <c r="C106" t="s">
-        <v>431</v>
-      </c>
-      <c r="D106" t="s">
-        <v>357</v>
-      </c>
-      <c r="E106"/>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>424</v>
-      </c>
-      <c r="B107" t="s">
-        <v>432</v>
-      </c>
-      <c r="C107" t="s">
-        <v>433</v>
-      </c>
-      <c r="D107" t="s">
-        <v>434</v>
-      </c>
-      <c r="E107"/>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>424</v>
-      </c>
-      <c r="B108" t="s">
-        <v>435</v>
-      </c>
-      <c r="C108" t="s">
-        <v>436</v>
-      </c>
-      <c r="D108" t="s">
-        <v>437</v>
-      </c>
-      <c r="E108"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6152,7 +6068,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
-    <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="19.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="24.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="25.71" hidden="0" customWidth="1"/>
     <col min="4" max="4" width="22.71" hidden="0" customWidth="1"/>
@@ -6359,88 +6275,88 @@
         <v>74</v>
       </c>
       <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
         <v>75</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>77</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>78</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>79</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>80</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>81</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>82</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>83</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>84</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>85</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>86</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>87</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>88</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>89</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>90</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>91</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>92</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>93</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>94</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>95</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>96</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>97</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>98</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>99</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>100</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>101</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2">

--- a/template.xlsx
+++ b/template.xlsx
@@ -1473,7 +1473,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="428">
   <si>
     <t xml:space="preserve">Contact nom</t>
   </si>
@@ -1895,7 +1895,10 @@
     <t xml:space="preserve">prod_mode</t>
   </si>
   <si>
-    <t xml:space="preserve">Raisonnée ou conventionnelle</t>
+    <t xml:space="preserve">Raisonnée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conventionnelle</t>
   </si>
   <si>
     <t xml:space="preserve">Agriculture Biologique</t>
@@ -2123,7 +2126,10 @@
     <t xml:space="preserve">example</t>
   </si>
   <si>
-    <t xml:space="preserve">help</t>
+    <t xml:space="preserve">link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">comment</t>
   </si>
   <si>
     <t xml:space="preserve">annotation</t>
@@ -2195,16 +2201,13 @@
     <t xml:space="preserve">https://cropontology.org/term/CO_356:1000185</t>
   </si>
   <si>
-    <t xml:space="preserve">https://cropontology.org/term/CO_356:ROOT ou https://vitioeno.mistea.inrae.fr/resource/app/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Facteur de conversion vers la variable de référence</t>
   </si>
   <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
-    <t xml:space="preserve">par exemple, si la variable utilisateur est exprimé en g et la variable de référence en kg, le facteur de conversion est égal à 0.001</t>
+    <t xml:space="preserve">par exemple, si la variable utilisateur est exprimé en g et la variable de référence en kg, le facteur de conversion est égal à 0.002</t>
   </si>
   <si>
     <t xml:space="preserve">design</t>
@@ -2379,9 +2382,6 @@
     <t xml:space="preserve">Vauvert</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.insee.fr/fr/recherche/recherche-geographique?debut=0</t>
-  </si>
-  <si>
     <t xml:space="preserve">Code INSEE de la commune (5 caractères alphanumériques)</t>
   </si>
   <si>
@@ -2400,9 +2400,6 @@
     <t xml:space="preserve">Bassin viticole dans lequel se trouve la parcelle</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.legifrance.gouv.fr/codes/section_lc/LEGITEXT000006071367/LEGISCTA000036441436/2020-07-02/?anchor=LEGIARTI000036441438#LEGIARTI000036441438</t>
-  </si>
-  <si>
     <t xml:space="preserve">Latitude du centroïde de la parcelle  (degrés décimaux WGS84)</t>
   </si>
   <si>
@@ -2421,9 +2418,6 @@
     <t xml:space="preserve">POLYGON((4.3040 43.6990,4.3032 43.6990,4.3031 43.6975,4.3044 43.6975,4.3040 43.6990))</t>
   </si>
   <si>
-    <t xml:space="preserve">https://clydedacruz.github.io/openstreetmap-wkt-playground/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Année de plantation de la parcelle au format AAAA</t>
   </si>
   <si>
@@ -2442,9 +2436,6 @@
     <t xml:space="preserve">Syrah N Cl300</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.plantgrape.fr/fr</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nom de la variété (et clone si connu) du porte-greffe. Utiliser la nomenclature de https://www.plantgrape.fr/fr</t>
   </si>
   <si>
@@ -2457,9 +2448,6 @@
     <t xml:space="preserve">http://opensilex.vitioeno/variety/FRA/150</t>
   </si>
   <si>
-    <t xml:space="preserve">https://vitioeno.mistea.inrae.fr/resource/app/</t>
-  </si>
-  <si>
     <t xml:space="preserve">Identifiant du porte-greffe. Utiliser les URI de https://vitioeno.mistea.inrae.fr/resource/app/germplasm</t>
   </si>
   <si>
@@ -2578,9 +2566,6 @@
   </si>
   <si>
     <t xml:space="preserve">Sp2T2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://vignevin.github.io/standard_guide/soilManagementCode.html</t>
   </si>
   <si>
     <t xml:space="preserve">Description du mode d'entretien de sol sur la parcelle</t>
@@ -2686,9 +2671,6 @@
     <t xml:space="preserve">L:limoneux</t>
   </si>
   <si>
-    <t xml:space="preserve">Outil de calcul de la texture du sol : https://www.nrcs.usda.gov/wps/portal/nrcs/detailfull/soils/research/guide/?cid=NRCS142P2_054167</t>
-  </si>
-  <si>
     <t xml:space="preserve">Abondance des cailloux en volume (FAO,2006)</t>
   </si>
   <si>
@@ -2708,6 +2690,9 @@
   </si>
   <si>
     <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attention, suivant le mode d'évaluation de la réserve utile, les résultats peuvent être variables</t>
   </si>
   <si>
     <t xml:space="preserve">Nom du fichier associé à la description du sol (analyse de sol)</t>
@@ -2963,14 +2948,15 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A1:E103" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:E103"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table15" displayName="Table15" ref="A1:F103" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:F103"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="name"/>
     <tableColumn id="2" name="label_fr"/>
     <tableColumn id="3" name="description"/>
     <tableColumn id="4" name="example"/>
-    <tableColumn id="5" name="help"/>
+    <tableColumn id="5" name="link"/>
+    <tableColumn id="6" name="comment"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3399,22 +3385,22 @@
         <v>139</v>
       </c>
       <c r="K1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
@@ -3449,22 +3435,22 @@
         <v>140</v>
       </c>
       <c r="K2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="O2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3">
@@ -3499,22 +3485,22 @@
         <v>141</v>
       </c>
       <c r="K3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P3" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
@@ -3549,22 +3535,22 @@
         <v>142</v>
       </c>
       <c r="K4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N4" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="5">
@@ -3592,14 +3578,17 @@
       <c r="I5" t="s">
         <v>137</v>
       </c>
+      <c r="J5" t="s">
+        <v>143</v>
+      </c>
       <c r="K5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
@@ -3628,13 +3617,13 @@
         <v>138</v>
       </c>
       <c r="K6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7">
@@ -3657,10 +3646,10 @@
         <v>130</v>
       </c>
       <c r="L7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8">
@@ -3677,10 +3666,10 @@
         <v>131</v>
       </c>
       <c r="L8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M8" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9">
@@ -3694,10 +3683,10 @@
         <v>132</v>
       </c>
       <c r="L9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10">
@@ -3708,7 +3697,7 @@
         <v>122</v>
       </c>
       <c r="L10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11">
@@ -3719,42 +3708,42 @@
         <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12">
       <c r="L12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13">
       <c r="L13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14">
       <c r="L14" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15">
       <c r="L15" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16">
       <c r="L16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17">
       <c r="L17" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="L18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3782,25 +3771,25 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C1" t="s">
         <v>48</v>
       </c>
       <c r="D1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F1" t="s">
         <v>16</v>
       </c>
       <c r="G1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
@@ -3865,28 +3854,28 @@
         <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2">
@@ -3978,34 +3967,34 @@
         <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="H1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="J1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2">
@@ -4086,10 +4075,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
@@ -4138,99 +4127,117 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E1" t="s">
-        <v>216</v>
+        <v>217</v>
+      </c>
+      <c r="F1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E2"/>
+        <v>221</v>
+      </c>
+      <c r="E2" t="str">
+        <f/>
+      </c>
+      <c r="F2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E3"/>
+        <v>223</v>
+      </c>
+      <c r="E3" t="str">
+        <f/>
+      </c>
+      <c r="F3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E4"/>
+        <v>225</v>
+      </c>
+      <c r="E4" t="str">
+        <f/>
+      </c>
+      <c r="F4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E5"/>
+        <v>229</v>
+      </c>
+      <c r="E5" t="str">
+        <f/>
+      </c>
+      <c r="F5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E6"/>
+        <v>231</v>
+      </c>
+      <c r="E6" t="str">
+        <f/>
+      </c>
+      <c r="F6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B7" t="s">
         <v>55</v>
@@ -4241,504 +4248,602 @@
       <c r="D7" t="s">
         <v>64</v>
       </c>
-      <c r="E7"/>
+      <c r="E7" t="str">
+        <f/>
+      </c>
+      <c r="F7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B8" t="s">
         <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E8"/>
+        <v>233</v>
+      </c>
+      <c r="E8" t="str">
+        <f/>
+      </c>
+      <c r="F8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B9" t="s">
         <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D9" t="s">
-        <v>233</v>
-      </c>
-      <c r="E9"/>
+        <v>235</v>
+      </c>
+      <c r="E9" t="str">
+        <f/>
+      </c>
+      <c r="F9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D10" t="s">
         <v>69</v>
       </c>
-      <c r="E10"/>
+      <c r="E10" t="str">
+        <f/>
+      </c>
+      <c r="F10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C11" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D11" t="s">
-        <v>237</v>
-      </c>
-      <c r="E11"/>
+        <v>239</v>
+      </c>
+      <c r="E11" t="str">
+        <f/>
+      </c>
+      <c r="F11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D12" t="s">
-        <v>239</v>
-      </c>
-      <c r="E12" t="s">
-        <v>240</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="E12" t="str">
+        <f>HYPERLINK("https://vitioeno.mistea.inrae.fr/resource/app/", "https://vitioeno.mistea.inrae.fr/resource/app/")</f>
+      </c>
+      <c r="F12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s">
         <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D13" t="s">
-        <v>242</v>
-      </c>
-      <c r="E13" t="s">
         <v>243</v>
+      </c>
+      <c r="E13" t="str">
+        <f/>
+      </c>
+      <c r="F13" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D14" t="s">
-        <v>246</v>
-      </c>
-      <c r="E14"/>
+        <v>247</v>
+      </c>
+      <c r="E14" t="str">
+        <f/>
+      </c>
+      <c r="F14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D15" t="s">
-        <v>248</v>
-      </c>
-      <c r="E15"/>
+        <v>249</v>
+      </c>
+      <c r="E15" t="str">
+        <f/>
+      </c>
+      <c r="F15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B16" t="s">
         <v>51</v>
       </c>
       <c r="C16" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D16" t="s">
-        <v>251</v>
-      </c>
-      <c r="E16"/>
+        <v>252</v>
+      </c>
+      <c r="E16" t="str">
+        <f/>
+      </c>
+      <c r="F16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D17" t="s">
-        <v>253</v>
-      </c>
-      <c r="E17"/>
+        <v>254</v>
+      </c>
+      <c r="E17" t="str">
+        <f/>
+      </c>
+      <c r="F17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D18" t="s">
-        <v>255</v>
-      </c>
-      <c r="E18"/>
+        <v>256</v>
+      </c>
+      <c r="E18" t="str">
+        <f/>
+      </c>
+      <c r="F18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D19" t="s">
-        <v>257</v>
-      </c>
-      <c r="E19"/>
+        <v>258</v>
+      </c>
+      <c r="E19" t="str">
+        <f/>
+      </c>
+      <c r="F19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C20" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D20" t="s">
-        <v>260</v>
-      </c>
-      <c r="E20"/>
+        <v>261</v>
+      </c>
+      <c r="E20" t="str">
+        <f/>
+      </c>
+      <c r="F20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B21" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C21" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D21" t="s">
-        <v>262</v>
-      </c>
-      <c r="E21"/>
+        <v>263</v>
+      </c>
+      <c r="E21" t="str">
+        <f/>
+      </c>
+      <c r="F21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B22" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C22" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D22" t="s">
-        <v>264</v>
-      </c>
-      <c r="E22"/>
+        <v>265</v>
+      </c>
+      <c r="E22" t="str">
+        <f/>
+      </c>
+      <c r="F22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D23"/>
-      <c r="E23"/>
+      <c r="E23" t="str">
+        <f/>
+      </c>
+      <c r="F23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D24"/>
-      <c r="E24"/>
+      <c r="E24" t="str">
+        <f/>
+      </c>
+      <c r="F24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B25" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C25" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D25" t="s">
-        <v>268</v>
-      </c>
-      <c r="E25"/>
+        <v>269</v>
+      </c>
+      <c r="E25" t="str">
+        <f/>
+      </c>
+      <c r="F25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B26" t="s">
         <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D26"/>
-      <c r="E26"/>
+      <c r="E26" t="str">
+        <f/>
+      </c>
+      <c r="F26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B27" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C27" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="D27" t="s">
-        <v>273</v>
-      </c>
-      <c r="E27"/>
+        <v>274</v>
+      </c>
+      <c r="E27" t="str">
+        <f/>
+      </c>
+      <c r="F27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B28" t="s">
         <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D28" t="s">
-        <v>275</v>
-      </c>
-      <c r="E28"/>
+        <v>276</v>
+      </c>
+      <c r="E28" t="str">
+        <f/>
+      </c>
+      <c r="F28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B29" t="s">
         <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D29" t="s">
-        <v>277</v>
-      </c>
-      <c r="E29"/>
+        <v>278</v>
+      </c>
+      <c r="E29" t="str">
+        <f/>
+      </c>
+      <c r="F29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="C30" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D30" t="s">
-        <v>279</v>
-      </c>
-      <c r="E30"/>
+        <v>280</v>
+      </c>
+      <c r="E30" t="str">
+        <f/>
+      </c>
+      <c r="F30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D31" t="s">
-        <v>281</v>
-      </c>
-      <c r="E31"/>
+        <v>282</v>
+      </c>
+      <c r="E31" t="str">
+        <f/>
+      </c>
+      <c r="F31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B32" t="s">
         <v>23</v>
       </c>
       <c r="C32" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D32" t="s">
-        <v>283</v>
-      </c>
-      <c r="E32"/>
+        <v>284</v>
+      </c>
+      <c r="E32" t="str">
+        <f/>
+      </c>
+      <c r="F32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D33" t="s">
         <v>46</v>
       </c>
-      <c r="E33"/>
+      <c r="E33" t="str">
+        <f/>
+      </c>
+      <c r="F33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B34" t="s">
         <v>36</v>
       </c>
       <c r="C34" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D34" t="s">
-        <v>287</v>
-      </c>
-      <c r="E34"/>
+        <v>288</v>
+      </c>
+      <c r="E34" t="str">
+        <f/>
+      </c>
+      <c r="F34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D35" t="s">
-        <v>289</v>
-      </c>
-      <c r="E35"/>
+        <v>290</v>
+      </c>
+      <c r="E35" t="str">
+        <f/>
+      </c>
+      <c r="F35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B36" t="s">
         <v>39</v>
       </c>
       <c r="C36" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D36"/>
-      <c r="E36"/>
+      <c r="E36" t="str">
+        <f/>
+      </c>
+      <c r="F36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B37" t="s">
         <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D37" t="s">
-        <v>293</v>
-      </c>
-      <c r="E37"/>
+        <v>294</v>
+      </c>
+      <c r="E37" t="str">
+        <f/>
+      </c>
+      <c r="F37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B38" t="s">
         <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D38" t="s">
-        <v>295</v>
-      </c>
-      <c r="E38"/>
+        <v>296</v>
+      </c>
+      <c r="E38" t="str">
+        <f/>
+      </c>
+      <c r="F38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B39" t="s">
         <v>75</v>
       </c>
       <c r="C39" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D39" t="s">
-        <v>297</v>
-      </c>
-      <c r="E39"/>
+        <v>298</v>
+      </c>
+      <c r="E39" t="str">
+        <f/>
+      </c>
+      <c r="F39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B40" t="s">
         <v>76</v>
       </c>
       <c r="C40" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D40" t="s">
-        <v>299</v>
-      </c>
-      <c r="E40" t="s">
         <v>300</v>
       </c>
+      <c r="E40" t="str">
+        <f>HYPERLINK("https://www.insee.fr/fr/recherche/recherche-geographique?debut=0", "https://www.insee.fr/fr/recherche/recherche-geographique?debut=0")</f>
+      </c>
+      <c r="F40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B41" t="s">
         <v>77</v>
@@ -4749,13 +4854,14 @@
       <c r="D41" t="s">
         <v>302</v>
       </c>
-      <c r="E41" t="s">
-        <v>300</v>
-      </c>
+      <c r="E41" t="str">
+        <f>HYPERLINK("https://www.insee.fr/fr/recherche/recherche-geographique?debut=0", "https://www.insee.fr/fr/recherche/recherche-geographique?debut=0")</f>
+      </c>
+      <c r="F41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B42" t="s">
         <v>78</v>
@@ -4766,13 +4872,16 @@
       <c r="D42" t="s">
         <v>304</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" t="str">
+        <f/>
+      </c>
+      <c r="F42" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B43" t="s">
         <v>79</v>
@@ -4783,248 +4892,284 @@
       <c r="D43" t="s">
         <v>109</v>
       </c>
-      <c r="E43" t="s">
-        <v>307</v>
-      </c>
+      <c r="E43" t="str">
+        <f>HYPERLINK("https://www.legifrance.gouv.fr/codes/section_lc/LEGITEXT000006071367/LEGISCTA000036441436/2020-07-02/?anchor=LEGIARTI000036441438#LEGIARTI000036441438", "https://www.legifrance.gouv.fr/codes/section_lc/LEGITEXT000006071367/LEGISCTA000036441436/2020-07-02/?anchor=LEGIARTI000036441438#LEGIARTI000036441438")</f>
+      </c>
+      <c r="F43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B44" t="s">
         <v>80</v>
       </c>
       <c r="C44" t="s">
+        <v>307</v>
+      </c>
+      <c r="D44" t="s">
         <v>308</v>
       </c>
-      <c r="D44" t="s">
-        <v>309</v>
-      </c>
-      <c r="E44"/>
+      <c r="E44" t="str">
+        <f/>
+      </c>
+      <c r="F44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B45" t="s">
         <v>81</v>
       </c>
       <c r="C45" t="s">
+        <v>309</v>
+      </c>
+      <c r="D45" t="s">
         <v>310</v>
       </c>
-      <c r="D45" t="s">
-        <v>311</v>
-      </c>
-      <c r="E45"/>
+      <c r="E45" t="str">
+        <f/>
+      </c>
+      <c r="F45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s">
         <v>82</v>
       </c>
       <c r="C46" t="s">
+        <v>311</v>
+      </c>
+      <c r="D46" t="s">
         <v>312</v>
       </c>
-      <c r="D46" t="s">
-        <v>313</v>
-      </c>
-      <c r="E46" t="s">
-        <v>314</v>
-      </c>
+      <c r="E46" t="str">
+        <f>HYPERLINK("https://clydedacruz.github.io/openstreetmap-wkt-playground/", "https://clydedacruz.github.io/openstreetmap-wkt-playground/")</f>
+      </c>
+      <c r="F46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B47" t="s">
         <v>83</v>
       </c>
       <c r="C47" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D47" t="s">
-        <v>316</v>
-      </c>
-      <c r="E47"/>
+        <v>314</v>
+      </c>
+      <c r="E47" t="str">
+        <f/>
+      </c>
+      <c r="F47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B48" t="s">
         <v>85</v>
       </c>
       <c r="C48" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D48" t="s">
-        <v>318</v>
-      </c>
-      <c r="E48"/>
+        <v>316</v>
+      </c>
+      <c r="E48" t="str">
+        <f/>
+      </c>
+      <c r="F48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B49" t="s">
         <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D49" t="s">
-        <v>320</v>
-      </c>
-      <c r="E49" t="s">
-        <v>321</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="E49" t="str">
+        <f>HYPERLINK("https://www.plantgrape.fr/fr", "https://www.plantgrape.fr/fr")</f>
+      </c>
+      <c r="F49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B50" t="s">
         <v>87</v>
       </c>
       <c r="C50" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D50" t="s">
-        <v>323</v>
-      </c>
-      <c r="E50" t="s">
-        <v>321</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="E50" t="str">
+        <f>HYPERLINK("https://www.plantgrape.fr/fr", "https://www.plantgrape.fr/fr")</f>
+      </c>
+      <c r="F50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B51" t="s">
         <v>100</v>
       </c>
       <c r="C51" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D51" t="s">
-        <v>325</v>
-      </c>
-      <c r="E51" t="s">
-        <v>326</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="E51" t="str">
+        <f>HYPERLINK("https://vitioeno.mistea.inrae.fr/resource/app/", "https://vitioeno.mistea.inrae.fr/resource/app/")</f>
+      </c>
+      <c r="F51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B52" t="s">
         <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D52" t="s">
-        <v>328</v>
-      </c>
-      <c r="E52" t="s">
-        <v>326</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="E52" t="str">
+        <f>HYPERLINK("https://vitioeno.mistea.inrae.fr/resource/app/", "https://vitioeno.mistea.inrae.fr/resource/app/")</f>
+      </c>
+      <c r="F52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B53" t="s">
         <v>88</v>
       </c>
       <c r="C53" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D53" t="s">
-        <v>330</v>
-      </c>
-      <c r="E53"/>
+        <v>326</v>
+      </c>
+      <c r="E53" t="str">
+        <f/>
+      </c>
+      <c r="F53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B54" t="s">
         <v>89</v>
       </c>
       <c r="C54" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D54" t="s">
-        <v>332</v>
-      </c>
-      <c r="E54"/>
+        <v>328</v>
+      </c>
+      <c r="E54" t="str">
+        <f/>
+      </c>
+      <c r="F54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B55" t="s">
         <v>90</v>
       </c>
       <c r="C55" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D55" t="s">
-        <v>334</v>
-      </c>
-      <c r="E55"/>
+        <v>330</v>
+      </c>
+      <c r="E55" t="str">
+        <f/>
+      </c>
+      <c r="F55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B56" t="s">
         <v>91</v>
       </c>
       <c r="C56" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D56" t="s">
         <v>115</v>
       </c>
-      <c r="E56"/>
+      <c r="E56" t="str">
+        <f/>
+      </c>
+      <c r="F56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B57" t="s">
         <v>92</v>
       </c>
       <c r="C57" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D57" t="s">
-        <v>337</v>
-      </c>
-      <c r="E57"/>
+        <v>333</v>
+      </c>
+      <c r="E57" t="str">
+        <f/>
+      </c>
+      <c r="F57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B58" t="s">
         <v>93</v>
       </c>
       <c r="C58" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D58" t="s">
         <v>135</v>
       </c>
-      <c r="E58"/>
+      <c r="E58" t="str">
+        <f/>
+      </c>
+      <c r="F58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B59" t="s">
         <v>94</v>
@@ -5033,315 +5178,376 @@
         <v>94</v>
       </c>
       <c r="D59" t="s">
-        <v>141</v>
-      </c>
-      <c r="E59"/>
+        <v>142</v>
+      </c>
+      <c r="E59" t="str">
+        <f/>
+      </c>
+      <c r="F59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B60" t="s">
         <v>95</v>
       </c>
       <c r="C60" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D60" t="s">
-        <v>144</v>
-      </c>
-      <c r="E60"/>
+        <v>145</v>
+      </c>
+      <c r="E60" t="str">
+        <f/>
+      </c>
+      <c r="F60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B61" t="s">
         <v>96</v>
       </c>
       <c r="C61" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D61" t="s">
-        <v>341</v>
-      </c>
-      <c r="E61"/>
+        <v>337</v>
+      </c>
+      <c r="E61" t="str">
+        <f/>
+      </c>
+      <c r="F61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B62" t="s">
         <v>97</v>
       </c>
       <c r="C62" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D62" t="s">
-        <v>343</v>
-      </c>
-      <c r="E62"/>
+        <v>339</v>
+      </c>
+      <c r="E62" t="str">
+        <f/>
+      </c>
+      <c r="F62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B63" t="s">
         <v>98</v>
       </c>
       <c r="C63" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D63" t="s">
-        <v>345</v>
-      </c>
-      <c r="E63"/>
+        <v>341</v>
+      </c>
+      <c r="E63" t="str">
+        <f/>
+      </c>
+      <c r="F63"/>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B64" t="s">
         <v>99</v>
       </c>
       <c r="C64" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D64" t="s">
-        <v>345</v>
-      </c>
-      <c r="E64" t="s">
-        <v>347</v>
+        <v>341</v>
+      </c>
+      <c r="E64" t="str">
+        <f>HYPERLINK("https://www.geoportail.gouv.fr/", "https://www.geoportail.gouv.fr/")</f>
+      </c>
+      <c r="F64" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B65" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C65" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D65" t="s">
-        <v>351</v>
-      </c>
-      <c r="E65"/>
+        <v>347</v>
+      </c>
+      <c r="E65" t="str">
+        <f/>
+      </c>
+      <c r="F65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B66" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C66" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D66" t="s">
-        <v>354</v>
-      </c>
-      <c r="E66"/>
+        <v>350</v>
+      </c>
+      <c r="E66" t="str">
+        <f/>
+      </c>
+      <c r="F66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>348</v>
+      </c>
+      <c r="B67" t="s">
+        <v>191</v>
+      </c>
+      <c r="C67" t="s">
+        <v>351</v>
+      </c>
+      <c r="D67" t="s">
         <v>352</v>
       </c>
-      <c r="B67" t="s">
-        <v>190</v>
-      </c>
-      <c r="C67" t="s">
-        <v>355</v>
-      </c>
-      <c r="D67" t="s">
-        <v>356</v>
-      </c>
-      <c r="E67"/>
+      <c r="E67" t="str">
+        <f/>
+      </c>
+      <c r="F67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B68" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C68" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D68" t="s">
-        <v>358</v>
-      </c>
-      <c r="E68"/>
+        <v>354</v>
+      </c>
+      <c r="E68" t="str">
+        <f/>
+      </c>
+      <c r="F68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B69" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C69" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D69" t="s">
-        <v>360</v>
-      </c>
-      <c r="E69"/>
+        <v>356</v>
+      </c>
+      <c r="E69" t="str">
+        <f/>
+      </c>
+      <c r="F69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B70" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C70" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D70" t="s">
-        <v>199</v>
-      </c>
-      <c r="E70"/>
+        <v>200</v>
+      </c>
+      <c r="E70" t="str">
+        <f/>
+      </c>
+      <c r="F70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B71" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C71" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D71" t="s">
-        <v>363</v>
-      </c>
-      <c r="E71"/>
+        <v>359</v>
+      </c>
+      <c r="E71" t="str">
+        <f/>
+      </c>
+      <c r="F71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B72" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C72" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D72" t="s">
-        <v>203</v>
-      </c>
-      <c r="E72"/>
+        <v>204</v>
+      </c>
+      <c r="E72" t="str">
+        <f/>
+      </c>
+      <c r="F72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B73" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C73" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D73" t="s">
-        <v>366</v>
-      </c>
-      <c r="E73" t="s">
-        <v>367</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="E73" t="str">
+        <f>HYPERLINK("https://vignevin.github.io/standard_guide/soilManagementCode.html", "https://vignevin.github.io/standard_guide/soilManagementCode.html")</f>
+      </c>
+      <c r="F73"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B74" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C74" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="D74" t="s">
-        <v>369</v>
-      </c>
-      <c r="E74"/>
+        <v>364</v>
+      </c>
+      <c r="E74" t="str">
+        <f/>
+      </c>
+      <c r="F74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B75" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C75" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D75" t="s">
-        <v>371</v>
-      </c>
-      <c r="E75"/>
+        <v>366</v>
+      </c>
+      <c r="E75" t="str">
+        <f/>
+      </c>
+      <c r="F75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B76" t="s">
         <v>0</v>
       </c>
       <c r="C76" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="D76" t="s">
-        <v>374</v>
-      </c>
-      <c r="E76"/>
+        <v>369</v>
+      </c>
+      <c r="E76" t="str">
+        <f/>
+      </c>
+      <c r="F76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B77" t="s">
         <v>1</v>
       </c>
       <c r="C77" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D77" t="s">
-        <v>376</v>
-      </c>
-      <c r="E77"/>
+        <v>371</v>
+      </c>
+      <c r="E77" t="str">
+        <f/>
+      </c>
+      <c r="F77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B78" t="s">
         <v>2</v>
       </c>
       <c r="C78" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D78" t="s">
         <v>6</v>
       </c>
-      <c r="E78"/>
+      <c r="E78" t="str">
+        <f/>
+      </c>
+      <c r="F78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
       </c>
       <c r="C79" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D79"/>
-      <c r="E79"/>
+      <c r="E79" t="str">
+        <f/>
+      </c>
+      <c r="F79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B80" t="s">
         <v>11</v>
@@ -5350,354 +5556,426 @@
         <v>11</v>
       </c>
       <c r="D80" t="s">
-        <v>380</v>
-      </c>
-      <c r="E80"/>
+        <v>375</v>
+      </c>
+      <c r="E80" t="str">
+        <f/>
+      </c>
+      <c r="F80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B81" t="s">
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D81" t="s">
-        <v>382</v>
-      </c>
-      <c r="E81"/>
+        <v>377</v>
+      </c>
+      <c r="E81" t="str">
+        <f/>
+      </c>
+      <c r="F81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B82" t="s">
         <v>13</v>
       </c>
       <c r="C82" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D82" t="s">
-        <v>384</v>
-      </c>
-      <c r="E82"/>
+        <v>379</v>
+      </c>
+      <c r="E82" t="str">
+        <f/>
+      </c>
+      <c r="F82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B83" t="s">
         <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="D83" t="s">
-        <v>386</v>
-      </c>
-      <c r="E83"/>
+        <v>381</v>
+      </c>
+      <c r="E83" t="str">
+        <f/>
+      </c>
+      <c r="F83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B84" t="s">
         <v>15</v>
       </c>
       <c r="C84" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D84" t="s">
-        <v>388</v>
-      </c>
-      <c r="E84"/>
+        <v>383</v>
+      </c>
+      <c r="E84" t="str">
+        <f/>
+      </c>
+      <c r="F84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D85" t="s">
-        <v>390</v>
-      </c>
-      <c r="E85"/>
+        <v>385</v>
+      </c>
+      <c r="E85" t="str">
+        <f/>
+      </c>
+      <c r="F85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B86" t="s">
         <v>17</v>
       </c>
       <c r="C86" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="D86" t="s">
-        <v>392</v>
-      </c>
-      <c r="E86"/>
+        <v>387</v>
+      </c>
+      <c r="E86" t="str">
+        <f/>
+      </c>
+      <c r="F86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B87" t="s">
         <v>18</v>
       </c>
       <c r="C87" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D87" t="s">
-        <v>394</v>
-      </c>
-      <c r="E87"/>
+        <v>389</v>
+      </c>
+      <c r="E87" t="str">
+        <f/>
+      </c>
+      <c r="F87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B88" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C88" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="D88" t="s">
-        <v>397</v>
-      </c>
-      <c r="E88"/>
+        <v>392</v>
+      </c>
+      <c r="E88" t="str">
+        <f/>
+      </c>
+      <c r="F88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B89" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C89" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="D89" t="s">
-        <v>399</v>
-      </c>
-      <c r="E89"/>
+        <v>394</v>
+      </c>
+      <c r="E89" t="str">
+        <f/>
+      </c>
+      <c r="F89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
+        <v>390</v>
+      </c>
+      <c r="B90" t="s">
+        <v>157</v>
+      </c>
+      <c r="C90" t="s">
         <v>395</v>
       </c>
-      <c r="B90" t="s">
-        <v>156</v>
-      </c>
-      <c r="C90" t="s">
-        <v>400</v>
-      </c>
       <c r="D90" t="s">
-        <v>401</v>
-      </c>
-      <c r="E90" t="s">
-        <v>402</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="E90" t="str">
+        <f/>
+      </c>
+      <c r="F90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B91" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C91" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D91" t="s">
-        <v>186</v>
-      </c>
-      <c r="E91"/>
+        <v>187</v>
+      </c>
+      <c r="E91" t="str">
+        <f/>
+      </c>
+      <c r="F91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B92" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C92" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="D92" t="s">
-        <v>405</v>
-      </c>
-      <c r="E92"/>
+        <v>399</v>
+      </c>
+      <c r="E92" t="str">
+        <f/>
+      </c>
+      <c r="F92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B93" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C93" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="D93" t="s">
-        <v>407</v>
-      </c>
-      <c r="E93"/>
+        <v>401</v>
+      </c>
+      <c r="E93" t="str">
+        <f/>
+      </c>
+      <c r="F93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B94" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C94" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D94" t="s">
-        <v>409</v>
-      </c>
-      <c r="E94"/>
+        <v>403</v>
+      </c>
+      <c r="E94" t="str">
+        <f/>
+      </c>
+      <c r="F94" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B95" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C95" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D95" t="s">
-        <v>411</v>
-      </c>
-      <c r="E95"/>
+        <v>406</v>
+      </c>
+      <c r="E95" t="str">
+        <f/>
+      </c>
+      <c r="F95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B96" t="s">
         <v>49</v>
       </c>
       <c r="C96" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="D96" t="s">
-        <v>414</v>
-      </c>
-      <c r="E96"/>
+        <v>409</v>
+      </c>
+      <c r="E96" t="str">
+        <f/>
+      </c>
+      <c r="F96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B97" t="s">
         <v>50</v>
       </c>
       <c r="C97" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D97" t="s">
-        <v>416</v>
-      </c>
-      <c r="E97"/>
+        <v>411</v>
+      </c>
+      <c r="E97" t="str">
+        <f/>
+      </c>
+      <c r="F97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B98" t="s">
         <v>52</v>
       </c>
       <c r="C98" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D98" t="s">
-        <v>418</v>
-      </c>
-      <c r="E98"/>
+        <v>413</v>
+      </c>
+      <c r="E98" t="str">
+        <f/>
+      </c>
+      <c r="F98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B99" t="s">
         <v>61</v>
       </c>
       <c r="C99" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D99" t="s">
-        <v>420</v>
-      </c>
-      <c r="E99"/>
+        <v>415</v>
+      </c>
+      <c r="E99" t="str">
+        <f/>
+      </c>
+      <c r="F99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B100" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="C100" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D100"/>
-      <c r="E100"/>
+      <c r="E100" t="str">
+        <f/>
+      </c>
+      <c r="F100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B101" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C101" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D101" t="s">
-        <v>354</v>
-      </c>
-      <c r="E101"/>
+        <v>350</v>
+      </c>
+      <c r="E101" t="str">
+        <f/>
+      </c>
+      <c r="F101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B102" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="C102" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D102" t="s">
-        <v>429</v>
-      </c>
-      <c r="E102"/>
+        <v>424</v>
+      </c>
+      <c r="E102" t="str">
+        <f/>
+      </c>
+      <c r="F102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B103" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C103" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D103" t="s">
-        <v>432</v>
-      </c>
-      <c r="E103"/>
+        <v>427</v>
+      </c>
+      <c r="E103" t="str">
+        <f/>
+      </c>
+      <c r="F103"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6517,7 +6795,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'listes'!$J$2:$J$4</xm:f>
+            <xm:f>'listes'!$J$2:$J$5</xm:f>
           </x14:formula1>
           <xm:sqref>V2:V100</xm:sqref>
         </x14:dataValidation>
